--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO48"/>
+  <dimension ref="A1:AO54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -700,19 +700,19 @@
         <v>1.24</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V2" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
@@ -844,10 +844,10 @@
         <v>1.27</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V4" t="n">
         <v>1.63</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="K5" t="n">
         <v>1000</v>
@@ -1096,28 +1096,28 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="R5" t="n">
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V5" t="n">
         <v>1.62</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.28</v>
@@ -1249,10 +1249,10 @@
         <v>1.28</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
         <v>1.7</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8">
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chinese League 1</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Qingdao Red Lions</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guangxi Baoyun</t>
+          <t>Traeff</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>2.56</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K10" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Brattvag</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chinese League 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Qingdao Red Lions</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Guangxi Baoyun</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Follo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Grorud IL</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Pors</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Brann II</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>United IK Nordic</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Honefoss</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>Stjordals-Blink</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,36 +3083,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3127,10 +3127,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,36 +3218,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Lysekloster</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>United IK Nordic</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.81</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.01</v>
+        <v>1.93</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>River Plate (Uru)</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,36 +4028,36 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.68</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,36 +4163,36 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4298,33 +4298,33 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.58</v>
+        <v>1.04</v>
       </c>
       <c r="G29" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H29" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="I29" t="n">
         <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K29" t="n">
         <v>1000</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,36 +4433,36 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Westchester SC</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FC Naples</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,36 +4568,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>River Plate (Uru)</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H32" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,36 +4838,36 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.55</v>
+        <v>2.74</v>
       </c>
       <c r="G33" t="n">
-        <v>1.68</v>
+        <v>2.98</v>
       </c>
       <c r="H33" t="n">
-        <v>1.29</v>
+        <v>2.96</v>
       </c>
       <c r="I33" t="n">
-        <v>9.800000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="K33" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.12</v>
+        <v>2.66</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,36 +4973,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="G34" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="I34" t="n">
-        <v>2.96</v>
+        <v>2.34</v>
       </c>
       <c r="J34" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.3</v>
+        <v>1.58</v>
       </c>
       <c r="G35" t="n">
-        <v>3.65</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="I35" t="n">
-        <v>2.5</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K35" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.06</v>
+        <v>1.71</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,36 +5243,36 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Westchester SC</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Nacional (Uru)</t>
+          <t>FC Naples</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="G36" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="I36" t="n">
-        <v>1.73</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,36 +5378,36 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -5422,10 +5422,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.56</v>
+        <v>1.24</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,36 +5513,36 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="G38" t="n">
-        <v>2.24</v>
+        <v>3.65</v>
       </c>
       <c r="H38" t="n">
-        <v>4.2</v>
+        <v>2.34</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>2.58</v>
       </c>
       <c r="J38" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5557,10 +5557,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.43</v>
+        <v>1.66</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,36 +5648,36 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Nacional (Uru)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="G39" t="n">
-        <v>2.16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>1.55</v>
       </c>
       <c r="I39" t="n">
-        <v>6.4</v>
+        <v>1.69</v>
       </c>
       <c r="J39" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="G40" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I40" t="n">
-        <v>2.44</v>
+        <v>2.96</v>
       </c>
       <c r="J40" t="n">
         <v>2.82</v>
       </c>
       <c r="K40" t="n">
-        <v>3.65</v>
+        <v>6</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5918,36 +5918,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>1.68</v>
       </c>
       <c r="H41" t="n">
-        <v>2.52</v>
+        <v>1.29</v>
       </c>
       <c r="I41" t="n">
-        <v>3.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="K41" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5956,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.56</v>
+        <v>2.74</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="P41" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6053,108 +6053,108 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="G42" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H42" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="I42" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>1.63</v>
+        <v>2.44</v>
       </c>
       <c r="O42" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="P42" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.45</v>
+        <v>2.48</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S42" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U42" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W42" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
         <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,126 +6188,126 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="G43" t="n">
-        <v>2.04</v>
+        <v>2.3</v>
       </c>
       <c r="H43" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="J43" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K43" t="n">
         <v>3.2</v>
       </c>
-      <c r="K43" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="R43" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z43" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AB43" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AC43" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE43" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AF43" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH43" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI43" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ43" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM43" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AN43" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="G44" t="n">
-        <v>1.53</v>
+        <v>2.26</v>
       </c>
       <c r="H44" t="n">
-        <v>8.800000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="I44" t="n">
-        <v>10.5</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G45" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="H45" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="I45" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,37 +6593,37 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.66</v>
+        <v>3.45</v>
       </c>
       <c r="G46" t="n">
-        <v>2.78</v>
+        <v>4.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2.72</v>
+        <v>2.16</v>
       </c>
       <c r="I46" t="n">
-        <v>2.74</v>
+        <v>2.44</v>
       </c>
       <c r="J46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.7</v>
       </c>
-      <c r="K46" t="n">
-        <v>3.9</v>
-      </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
@@ -6637,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.24</v>
+        <v>1.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.68</v>
+        <v>1.97</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6728,36 +6728,36 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.31</v>
+        <v>2.48</v>
       </c>
       <c r="G47" t="n">
-        <v>1.54</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>2.86</v>
+        <v>2.52</v>
       </c>
       <c r="I47" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="K47" t="n">
-        <v>950</v>
+        <v>4.5</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6766,16 +6766,16 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1.64</v>
+        <v>1.02</v>
       </c>
       <c r="O47" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.89</v>
+        <v>1.42</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6863,36 +6863,36 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.87</v>
+        <v>1.29</v>
       </c>
       <c r="G48" t="n">
-        <v>2.92</v>
+        <v>4.9</v>
       </c>
       <c r="H48" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
+        <v>970</v>
       </c>
       <c r="J48" t="n">
-        <v>2.28</v>
+        <v>1.03</v>
       </c>
       <c r="K48" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
@@ -6901,22 +6901,22 @@
         <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="O48" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="P48" t="n">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="R48" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="T48" t="n">
         <v>1.01</v>
@@ -6925,63 +6925,873 @@
         <v>1.01</v>
       </c>
       <c r="V48" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="W48" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>18:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Amazonas FC</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O49" t="n">
         <v>1.52</v>
       </c>
-      <c r="X48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO48" t="n">
+      <c r="P49" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO54" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J2" t="n">
-        <v>1.02</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.11</v>
+        <v>3.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.27</v>
+        <v>1.71</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.63</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>1.99</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.63</v>
+        <v>2.9</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.97</v>
       </c>
       <c r="T4" t="n">
         <v>1.03</v>
@@ -988,7 +988,7 @@
         <v>1.63</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,46 +1072,46 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="J5" t="n">
-        <v>1.63</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S5" t="n">
-        <v>1.29</v>
+        <v>1.76</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.86</v>
       </c>
       <c r="O6" t="n">
         <v>1.28</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="T6" t="n">
         <v>1.03</v>
@@ -1255,10 +1255,10 @@
         <v>1.03</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1357,7 +1357,7 @@
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,13 +1375,13 @@
         <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R7" t="n">
         <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
         <v>1.53</v>
@@ -1441,7 +1441,7 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1759,100 +1759,100 @@
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R10" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1894,100 +1894,100 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2035,16 +2035,16 @@
         <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
         <v>1.61</v>
@@ -2053,76 +2053,76 @@
         <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2164,100 +2164,100 @@
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K13" t="n">
         <v>950</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="P13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2299,100 +2299,100 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2974,100 +2974,100 @@
         <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
         <v>950</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G22" t="n">
         <v>3.4</v>
@@ -3382,7 +3382,7 @@
         <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q22" t="n">
         <v>1.73</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
         <v>4.2</v>
@@ -3517,7 +3517,7 @@
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,19 +3640,19 @@
         <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="H31" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="G32" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4750,7 +4750,7 @@
         <v>1.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G33" t="n">
         <v>2.98</v>
@@ -4885,7 +4885,7 @@
         <v>1.49</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G34" t="n">
         <v>4.3</v>
@@ -5002,25 +5002,25 @@
         <v>3</v>
       </c>
       <c r="K34" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q34" t="n">
         <v>3.25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.2</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="G35" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="H35" t="n">
-        <v>1.96</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G38" t="n">
         <v>3.65</v>
       </c>
       <c r="H38" t="n">
-        <v>2.34</v>
+        <v>2.44</v>
       </c>
       <c r="I38" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="G39" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H39" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I39" t="n">
         <v>1.69</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="K39" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -5692,10 +5692,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -5797,22 +5797,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="G40" t="n">
         <v>4.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="I40" t="n">
-        <v>2.96</v>
+        <v>2.68</v>
       </c>
       <c r="J40" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K40" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G41" t="n">
         <v>1.68</v>
       </c>
       <c r="H41" t="n">
-        <v>1.29</v>
+        <v>2.46</v>
       </c>
       <c r="I41" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K41" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -5956,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P41" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6067,34 +6067,34 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I42" t="n">
         <v>6.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K42" t="n">
         <v>3.4</v>
       </c>
       <c r="L42" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M42" t="n">
         <v>1.12</v>
       </c>
       <c r="N42" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O42" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P42" t="n">
         <v>1.47</v>
@@ -6112,19 +6112,19 @@
         <v>2.28</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V42" t="n">
         <v>1.21</v>
       </c>
       <c r="W42" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
         <v>1000</v>
@@ -6133,10 +6133,10 @@
         <v>190</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
         <v>1000</v>
@@ -6145,16 +6145,16 @@
         <v>130</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH42" t="n">
         <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -6169,7 +6169,7 @@
         <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G43" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="H43" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J43" t="n">
         <v>2.98</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G44" t="n">
         <v>2.26</v>
@@ -6346,7 +6346,7 @@
         <v>4.2</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J44" t="n">
         <v>3.1</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="Q44" t="n">
         <v>2.26</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G45" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I45" t="n">
         <v>6.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K45" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="Q45" t="n">
         <v>1.92</v>
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="G46" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="H46" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="I46" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>1.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6742,23 +6742,23 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H47" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="I47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K47" t="n">
         <v>3.7</v>
       </c>
-      <c r="J47" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K47" t="n">
-        <v>4.5</v>
-      </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
@@ -6766,16 +6766,16 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P47" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.42</v>
+        <v>2.04</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6877,109 +6877,109 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="G48" t="n">
-        <v>4.9</v>
+        <v>2.14</v>
       </c>
       <c r="H48" t="n">
-        <v>1.04</v>
+        <v>4.4</v>
       </c>
       <c r="I48" t="n">
-        <v>970</v>
+        <v>5.2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.03</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L48" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="O48" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P48" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.45</v>
+        <v>2.34</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S48" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T48" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U48" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W48" t="n">
         <v>1.88</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB48" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD48" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7012,64 +7012,64 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="G49" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I49" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M49" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O49" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="P49" t="n">
         <v>1.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R49" t="n">
         <v>1.19</v>
       </c>
       <c r="S49" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U49" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="V49" t="n">
         <v>1.2</v>
       </c>
       <c r="W49" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="X49" t="n">
         <v>11</v>
       </c>
       <c r="Y49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z49" t="n">
         <v>50</v>
@@ -7078,10 +7078,10 @@
         <v>210</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD49" t="n">
         <v>24</v>
@@ -7096,7 +7096,7 @@
         <v>11.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI49" t="n">
         <v>150</v>
@@ -7105,7 +7105,7 @@
         <v>28</v>
       </c>
       <c r="AK49" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
         <v>1000</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G50" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="H50" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J50" t="n">
         <v>4.3</v>
@@ -7180,7 +7180,7 @@
         <v>1.77</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7282,19 +7282,19 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G51" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="H51" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I51" t="n">
         <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K51" t="n">
         <v>4.4</v>
@@ -7312,10 +7312,10 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G52" t="n">
         <v>2.86</v>
       </c>
       <c r="H52" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I52" t="n">
         <v>2.72</v>
@@ -7432,7 +7432,7 @@
         <v>3.6</v>
       </c>
       <c r="K52" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -7447,10 +7447,10 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
@@ -7555,19 +7555,19 @@
         <v>1.35</v>
       </c>
       <c r="G53" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H53" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="I53" t="n">
         <v>1000</v>
       </c>
       <c r="J53" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="K53" t="n">
-        <v>5.9</v>
+        <v>950</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -7576,13 +7576,13 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q53" t="n">
         <v>1.89</v>
@@ -7687,58 +7687,58 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G54" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="H54" t="n">
         <v>3.25</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J54" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="K54" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L54" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M54" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="O54" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="P54" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="R54" t="n">
         <v>1.19</v>
       </c>
       <c r="S54" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="T54" t="n">
         <v>2.06</v>
       </c>
       <c r="U54" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="V54" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W54" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X54" t="n">
         <v>1000</v>
@@ -7753,7 +7753,7 @@
         <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO54"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.32</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="H2" t="n">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K2" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.2</v>
+        <v>1.72</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="S2" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,46 +802,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>870</v>
+        <v>15.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>1.71</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -853,7 +853,7 @@
         <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2.36</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="G4" t="n">
         <v>4.6</v>
@@ -946,49 +946,49 @@
         <v>1.99</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>2.26</v>
       </c>
       <c r="J4" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.59</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.59</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>1.97</v>
+        <v>3.15</v>
       </c>
       <c r="T4" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,37 +1081,37 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1120,10 +1120,10 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.53</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>110</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.29</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S6" t="n">
-        <v>1.71</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G7" t="n">
         <v>3.3</v>
@@ -1375,7 +1375,7 @@
         <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R7" t="n">
         <v>1.45</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.56</v>
+        <v>1.97</v>
       </c>
       <c r="O8" t="n">
         <v>1.01</v>
@@ -1513,16 +1513,16 @@
         <v>2.04</v>
       </c>
       <c r="R8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S8" t="n">
-        <v>2.06</v>
+        <v>2.96</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V8" t="n">
         <v>1.5</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="I10" t="n">
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.56</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -1771,16 +1771,16 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="O10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1789,16 +1789,16 @@
         <v>1.23</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V10" t="n">
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1906,7 +1906,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
         <v>1.1</v>
@@ -1924,10 +1924,10 @@
         <v>1.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
         <v>1.01</v>
@@ -2035,7 +2035,7 @@
         <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2059,10 +2059,10 @@
         <v>1.94</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V12" t="n">
         <v>1.63</v>
@@ -2176,7 +2176,7 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
         <v>1.1</v>
@@ -2194,10 +2194,10 @@
         <v>1.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V13" t="n">
         <v>1.01</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="O14" t="n">
         <v>1.11</v>
       </c>
       <c r="P14" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Q14" t="n">
         <v>1.11</v>
@@ -2329,10 +2329,10 @@
         <v>1.11</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V14" t="n">
         <v>1.01</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="G15" t="n">
         <v>2.48</v>
@@ -2431,7 +2431,7 @@
         <v>1.68</v>
       </c>
       <c r="I15" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
         <v>2.82</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
@@ -2455,19 +2455,19 @@
         <v>1.51</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
         <v>1.01</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X16" t="n">
         <v>980</v>
       </c>
-      <c r="J16" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="Y16" t="n">
         <v>980</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>17</v>
-      </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.52</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
-        <v>2.78</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>1.53</v>
+        <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.78</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
         <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
         <v>80</v>
       </c>
       <c r="AK18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN18" t="n">
         <v>60</v>
       </c>
-      <c r="AL18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -2986,7 +2986,7 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="O19" t="n">
         <v>1.07</v>
@@ -3004,10 +3004,10 @@
         <v>1.07</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V19" t="n">
         <v>1.01</v>
@@ -3115,7 +3115,7 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3124,10 +3124,10 @@
         <v>2.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
         <v>2.26</v>
@@ -3139,10 +3139,10 @@
         <v>4.3</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
         <v>1.22</v>
@@ -3151,7 +3151,7 @@
         <v>1.98</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>15</v>
@@ -3163,7 +3163,7 @@
         <v>170</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
         <v>9.4</v>
@@ -3244,100 +3244,100 @@
         <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G22" t="n">
         <v>3.4</v>
@@ -3379,100 +3379,100 @@
         <v>2.64</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
@@ -3508,28 +3508,28 @@
         <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
         <v>2.16</v>
@@ -3538,76 +3538,76 @@
         <v>1.76</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="24">
@@ -3640,115 +3640,115 @@
         <v>2.32</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
         <v>1.92</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.12</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>FK Vrsac</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I29" t="n">
+        <v>980</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.04</v>
       </c>
-      <c r="G29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4447,118 +4447,118 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>River Plate (Uru)</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="G31" t="n">
-        <v>1.82</v>
+        <v>3.65</v>
       </c>
       <c r="H31" t="n">
-        <v>5.4</v>
+        <v>2.28</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.65</v>
+        <v>2.84</v>
       </c>
       <c r="K31" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.14</v>
+        <v>1.01</v>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="I32" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.68</v>
+        <v>1.19</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="G33" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I33" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.42</v>
+        <v>1.36</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,132 +4973,132 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>River Plate (Uru)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.85</v>
+        <v>1.69</v>
       </c>
       <c r="G34" t="n">
-        <v>4.3</v>
+        <v>1.82</v>
       </c>
       <c r="H34" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.34</v>
+        <v>6.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="K34" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.38</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,132 +5108,132 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="G35" t="n">
-        <v>1.93</v>
+        <v>2.28</v>
       </c>
       <c r="H35" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I35" t="n">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="K35" t="n">
-        <v>4.8</v>
+        <v>3.15</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Westchester SC</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FC Naples</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.01</v>
+        <v>2.64</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="H36" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="I36" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J36" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>3.2</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="P36" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="P37" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="G38" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.65</v>
       </c>
-      <c r="H38" t="n">
-        <v>2.44</v>
-      </c>
       <c r="I38" t="n">
-        <v>2.62</v>
+        <v>5.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Brujas de Salamanca</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nacional (Uru)</t>
+          <t>Deportes Melipilla</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="G39" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="I39" t="n">
-        <v>1.69</v>
+        <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K39" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.81</v>
+        <v>1.24</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Westchester SC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>FC Naples</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="H40" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="I40" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K40" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.67</v>
+        <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.18</v>
+        <v>1.25</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="G41" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.68</v>
       </c>
-      <c r="H41" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I41" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2.72</v>
-      </c>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.18</v>
+        <v>1.9</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,127 +6058,127 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Nacional (Uru)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.92</v>
+        <v>6.4</v>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>4.8</v>
+        <v>1.58</v>
       </c>
       <c r="I42" t="n">
-        <v>6.4</v>
+        <v>1.69</v>
       </c>
       <c r="J42" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K42" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.47</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG42" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI42" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,33 +6188,33 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="G43" t="n">
-        <v>2.36</v>
+        <v>3.75</v>
       </c>
       <c r="H43" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.6</v>
+        <v>2.62</v>
       </c>
       <c r="J43" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
         <v>3.2</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.9</v>
+        <v>2.28</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="G44" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2</v>
+        <v>2.36</v>
       </c>
       <c r="I44" t="n">
-        <v>4.4</v>
+        <v>2.68</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K44" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -6367,10 +6367,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,36 +6458,36 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="G45" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="I45" t="n">
-        <v>6.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J45" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -6496,16 +6496,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P45" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="G46" t="n">
-        <v>3.95</v>
+        <v>2.16</v>
       </c>
       <c r="H46" t="n">
-        <v>2.36</v>
+        <v>4.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.64</v>
+        <v>6.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="P46" t="n">
-        <v>1.6</v>
+        <v>1.47</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>2.48</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,36 +6728,36 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.54</v>
+        <v>2.12</v>
       </c>
       <c r="G47" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="J47" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -6766,16 +6766,16 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.04</v>
+        <v>2.52</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -6853,7 +6853,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="G48" t="n">
-        <v>2.14</v>
+        <v>2.38</v>
       </c>
       <c r="H48" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
         <v>3.2</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.34</v>
+        <v>2.9</v>
       </c>
       <c r="R48" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD48" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AG48" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI48" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK48" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL48" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AN48" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="G49" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1</v>
+        <v>3.95</v>
       </c>
       <c r="I49" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L49" t="n">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AD49" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AE49" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="AF49" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG49" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AH49" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AI49" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ49" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM49" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AN49" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,36 +7133,36 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.45</v>
+        <v>3.15</v>
       </c>
       <c r="G50" t="n">
-        <v>1.49</v>
+        <v>3.95</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>2.36</v>
       </c>
       <c r="I50" t="n">
-        <v>11.5</v>
+        <v>2.64</v>
       </c>
       <c r="J50" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -7177,10 +7177,10 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,36 +7268,36 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.61</v>
+        <v>2.54</v>
       </c>
       <c r="G51" t="n">
-        <v>1.75</v>
+        <v>3.55</v>
       </c>
       <c r="H51" t="n">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="I51" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="J51" t="n">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -7306,16 +7306,16 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P51" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.76</v>
+        <v>1.98</v>
       </c>
       <c r="G52" t="n">
-        <v>2.86</v>
+        <v>2.14</v>
       </c>
       <c r="H52" t="n">
-        <v>2.62</v>
+        <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>2.72</v>
+        <v>5.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P52" t="n">
-        <v>2.14</v>
+        <v>1.62</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.79</v>
+        <v>2.34</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y52" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK52" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN52" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO52" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,260 +7538,800 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="G53" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="H53" t="n">
-        <v>1.04</v>
+        <v>5.1</v>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="J53" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>3.3</v>
+        <v>2.62</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.54</v>
       </c>
       <c r="P53" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.89</v>
+        <v>2.56</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC53" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD53" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE53" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK53" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>19:15:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Sarmiento de Junin</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+      <c r="I54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nacional (Par)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>US MLS</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K57" t="n">
+        <v>950</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
           <t>Brazilian Serie B</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>2025-10-12</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F58" t="n">
         <v>2.4</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="K54" t="n">
+      <c r="G58" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.35</v>
       </c>
-      <c r="L54" t="n">
+      <c r="I58" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L58" t="n">
         <v>1.49</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M58" t="n">
         <v>1.1</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N58" t="n">
         <v>2.56</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O58" t="n">
         <v>1.54</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P58" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q58" t="n">
         <v>2.6</v>
       </c>
-      <c r="R54" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T54" t="n">
+      <c r="R58" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T58" t="n">
         <v>2.06</v>
       </c>
-      <c r="U54" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W54" t="n">
+      <c r="U58" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W58" t="n">
         <v>1.6</v>
       </c>
-      <c r="X54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO54" t="n">
+      <c r="X58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO58" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -850,10 +850,10 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W3" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>4.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="n">
         <v>2.26</v>
@@ -952,43 +952,43 @@
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.34</v>
       </c>
       <c r="P4" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="U4" t="n">
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.29</v>
@@ -1096,19 +1096,19 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="O5" t="n">
         <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
         <v>1.71</v>
       </c>
       <c r="R5" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
         <v>1.71</v>
@@ -1120,7 +1120,7 @@
         <v>1.03</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W5" t="n">
         <v>1.31</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
         <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,13 +1234,13 @@
         <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
         <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.29</v>
@@ -1249,16 +1249,16 @@
         <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>2.68</v>
       </c>
       <c r="G7" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
         <v>2.36</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
         <v>3.65</v>
       </c>
       <c r="H8" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J8" t="n">
         <v>2.78</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>2.62</v>
@@ -1645,7 +1645,7 @@
         <v>1.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
@@ -1654,16 +1654,16 @@
         <v>2.32</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1759,7 +1759,7 @@
         <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="K10" t="n">
         <v>950</v>
@@ -2020,13 +2020,13 @@
         <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
         <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2041,19 +2041,19 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q12" t="n">
         <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S12" t="n">
         <v>1.94</v>
@@ -2065,10 +2065,10 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2311,19 +2311,19 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="O14" t="n">
         <v>1.11</v>
       </c>
       <c r="P14" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="Q14" t="n">
         <v>1.11</v>
       </c>
       <c r="R14" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
         <v>1.11</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
         <v>2.48</v>
@@ -2431,7 +2431,7 @@
         <v>1.68</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J15" t="n">
         <v>2.82</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="O15" t="n">
         <v>1.01</v>
@@ -2560,13 +2560,13 @@
         <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J16" t="n">
         <v>2.76</v>
@@ -2608,7 +2608,7 @@
         <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2695,19 +2695,19 @@
         <v>1.97</v>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
         <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="K17" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.43</v>
@@ -2722,7 +2722,7 @@
         <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="Q17" t="n">
         <v>2.04</v>
@@ -2740,13 +2740,13 @@
         <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
         <v>1.84</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
         <v>17</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.15</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.94</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.45</v>
@@ -2851,7 +2851,7 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
         <v>1.38</v>
@@ -2860,22 +2860,22 @@
         <v>1.73</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
         <v>1.37</v>
@@ -2884,13 +2884,13 @@
         <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z18" t="n">
         <v>18.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
@@ -2902,10 +2902,10 @@
         <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG18" t="n">
         <v>17.5</v>
@@ -2917,13 +2917,13 @@
         <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK18" t="n">
         <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>140</v>
@@ -2932,7 +2932,7 @@
         <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -3256,19 +3256,19 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="Q21" t="n">
         <v>1.14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
         <v>1.14</v>
@@ -3400,7 +3400,7 @@
         <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3412,7 +3412,7 @@
         <v>1.69</v>
       </c>
       <c r="U22" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V22" t="n">
         <v>1.6</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G23" t="n">
         <v>2.24</v>
       </c>
       <c r="H23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
         <v>4.3</v>
@@ -3517,7 +3517,7 @@
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3532,7 +3532,7 @@
         <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q23" t="n">
         <v>1.76</v>
@@ -3547,7 +3547,7 @@
         <v>1.62</v>
       </c>
       <c r="U23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
         <v>1.31</v>
@@ -3574,7 +3574,7 @@
         <v>8.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
         <v>980</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
@@ -3652,7 +3652,7 @@
         <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
@@ -3667,19 +3667,19 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="Q24" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
         <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
         <v>2.22</v>
@@ -3688,7 +3688,7 @@
         <v>1.39</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X24" t="n">
         <v>15.5</v>
@@ -3715,7 +3715,7 @@
         <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
@@ -3724,7 +3724,7 @@
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
@@ -3784,7 +3784,7 @@
         <v>3.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
@@ -3814,7 +3814,7 @@
         <v>2.74</v>
       </c>
       <c r="T25" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
         <v>2.28</v>
@@ -4066,13 +4066,13 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="Q27" t="n">
         <v>1.64</v>
@@ -4084,10 +4084,10 @@
         <v>2.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
         <v>1.01</v>
@@ -4183,16 +4183,16 @@
         <v>4.4</v>
       </c>
       <c r="H28" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="J28" t="n">
         <v>2.78</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4219,13 +4219,13 @@
         <v>2.18</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W28" t="n">
         <v>1.29</v>
@@ -4354,10 +4354,10 @@
         <v>2.14</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V29" t="n">
         <v>1.04</v>
@@ -4450,7 +4450,7 @@
         <v>1.27</v>
       </c>
       <c r="G30" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H30" t="n">
         <v>13.5</v>
@@ -4459,7 +4459,7 @@
         <v>23</v>
       </c>
       <c r="J30" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K30" t="n">
         <v>7</v>
@@ -4471,34 +4471,34 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P30" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="T30" t="n">
-        <v>2.32</v>
+        <v>1.03</v>
       </c>
       <c r="U30" t="n">
-        <v>1.33</v>
+        <v>1.03</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
       </c>
       <c r="W30" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X30" t="n">
         <v>17.5</v>
@@ -4528,7 +4528,7 @@
         <v>8.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH30" t="n">
         <v>75</v>
@@ -4540,7 +4540,7 @@
         <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
         <v>100</v>
@@ -4624,10 +4624,10 @@
         <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
         <v>1.48</v>
@@ -4759,10 +4759,10 @@
         <v>1.19</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V32" t="n">
         <v>1.01</v>
@@ -4876,13 +4876,13 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q33" t="n">
         <v>1.36</v>
@@ -4894,10 +4894,10 @@
         <v>1.36</v>
       </c>
       <c r="T33" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V33" t="n">
         <v>1.01</v>
@@ -4987,46 +4987,46 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G34" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="H34" t="n">
         <v>5.4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J34" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
         <v>1.07</v>
       </c>
       <c r="N34" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="n">
         <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q34" t="n">
         <v>2.22</v>
       </c>
       <c r="R34" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S34" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
         <v>1.96</v>
@@ -5035,10 +5035,10 @@
         <v>1.61</v>
       </c>
       <c r="V34" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W34" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="X34" t="n">
         <v>13</v>
@@ -5053,19 +5053,19 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>960</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC34" t="n">
-        <v>960</v>
+        <v>12.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>960</v>
+        <v>13</v>
       </c>
       <c r="AG34" t="n">
         <v>12.5</v>
@@ -5077,13 +5077,13 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
@@ -5122,10 +5122,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G35" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="H35" t="n">
         <v>4.2</v>
@@ -5134,10 +5134,10 @@
         <v>4.7</v>
       </c>
       <c r="J35" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K35" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,16 +5146,16 @@
         <v>1.13</v>
       </c>
       <c r="N35" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O35" t="n">
         <v>1.58</v>
       </c>
       <c r="P35" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="R35" t="n">
         <v>1.17</v>
@@ -5164,19 +5164,19 @@
         <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="U35" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V35" t="n">
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X35" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y35" t="n">
         <v>11.5</v>
@@ -5257,31 +5257,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G36" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
         <v>3.15</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.2</v>
-      </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N36" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="O36" t="n">
         <v>1.59</v>
@@ -5290,22 +5290,22 @@
         <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="R36" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S36" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W36" t="n">
         <v>1.54</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G37" t="n">
         <v>4.3</v>
@@ -5404,10 +5404,10 @@
         <v>2.34</v>
       </c>
       <c r="J37" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K37" t="n">
         <v>3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.05</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5419,22 +5419,22 @@
         <v>2.14</v>
       </c>
       <c r="O37" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P37" t="n">
         <v>1.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="R37" t="n">
         <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T37" t="n">
-        <v>2.26</v>
+        <v>2.52</v>
       </c>
       <c r="U37" t="n">
         <v>1.57</v>
@@ -5467,7 +5467,7 @@
         <v>13.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF37" t="n">
         <v>27</v>
@@ -5491,7 +5491,7 @@
         <v>160</v>
       </c>
       <c r="AM37" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AN37" t="n">
         <v>200</v>
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="G38" t="n">
-        <v>2.06</v>
+        <v>1.77</v>
       </c>
       <c r="H38" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.65</v>
       </c>
-      <c r="I38" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K38" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="n">
         <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O38" t="n">
         <v>1.01</v>
       </c>
       <c r="P38" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="R38" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>1.96</v>
+        <v>1.78</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V38" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="W38" t="n">
-        <v>1.94</v>
+        <v>2.24</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5674,7 +5674,7 @@
         <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K39" t="n">
         <v>1000</v>
@@ -5686,28 +5686,28 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="R39" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="S39" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
         <v>1.01</v>
@@ -5809,7 +5809,7 @@
         <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
         <v>1000</v>
@@ -5821,28 +5821,28 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.24</v>
+        <v>1.11</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q40" t="n">
         <v>1.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S40" t="n">
         <v>1.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V40" t="n">
         <v>1.01</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="G41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I41" t="n">
         <v>3.05</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.65</v>
       </c>
       <c r="J41" t="n">
         <v>2.84</v>
       </c>
       <c r="K41" t="n">
-        <v>5.2</v>
+        <v>110</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,34 +5956,34 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="O41" t="n">
         <v>1.01</v>
       </c>
       <c r="P41" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q41" t="n">
         <v>1.9</v>
       </c>
       <c r="R41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
         <v>1.9</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="V41" t="n">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="W41" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6079,22 +6079,22 @@
         <v>1.69</v>
       </c>
       <c r="J42" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K42" t="n">
         <v>4.5</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P42" t="n">
         <v>1.81</v>
@@ -6103,76 +6103,76 @@
         <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6205,31 +6205,31 @@
         <v>3.35</v>
       </c>
       <c r="G43" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I43" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P43" t="n">
         <v>1.66</v>
@@ -6238,76 +6238,76 @@
         <v>2.28</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI43" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL43" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
@@ -6337,16 +6337,16 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="H44" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I44" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="J44" t="n">
         <v>3.05</v>
@@ -6355,16 +6355,16 @@
         <v>3.55</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P44" t="n">
         <v>1.67</v>
@@ -6373,76 +6373,76 @@
         <v>2.18</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
@@ -6490,10 +6490,10 @@
         <v>4.4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
         <v>2.72</v>
@@ -6508,76 +6508,76 @@
         <v>2.18</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK45" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,37 +6607,37 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G46" t="n">
         <v>2.16</v>
       </c>
       <c r="H46" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I46" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J46" t="n">
         <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="L46" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O46" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q46" t="n">
         <v>2.48</v>
@@ -6757,19 +6757,19 @@
         <v>3.1</v>
       </c>
       <c r="K47" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P47" t="n">
         <v>1.56</v>
@@ -6778,76 +6778,76 @@
         <v>2.52</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y47" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK47" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL47" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM47" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AN47" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO47" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -6889,22 +6889,22 @@
         <v>4.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K48" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
@@ -6913,76 +6913,76 @@
         <v>2.9</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y48" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AO48" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
@@ -7030,16 +7030,16 @@
         <v>3.8</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P49" t="n">
         <v>1.63</v>
@@ -7048,76 +7048,76 @@
         <v>2.06</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,112 +7147,112 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G50" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="I50" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K50" t="n">
         <v>3.6</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P50" t="n">
         <v>1.6</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="G51" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>2.7</v>
@@ -7294,16 +7294,16 @@
         <v>3.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="K51" t="n">
         <v>3.7</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N51" t="n">
         <v>3</v>
@@ -7315,79 +7315,79 @@
         <v>1.69</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Y51" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AC51" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AD51" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AE51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AH51" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO51" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52">
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G52" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H52" t="n">
         <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
         <v>3.55</v>
@@ -7465,10 +7465,10 @@
         <v>1.8</v>
       </c>
       <c r="V52" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X52" t="n">
         <v>11</v>
@@ -7486,7 +7486,7 @@
         <v>8.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD52" t="n">
         <v>20</v>
@@ -7510,10 +7510,10 @@
         <v>26</v>
       </c>
       <c r="AK52" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
         <v>200</v>
@@ -7552,13 +7552,13 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="G53" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H53" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I53" t="n">
         <v>5.8</v>
@@ -7570,19 +7570,19 @@
         <v>3.5</v>
       </c>
       <c r="L53" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O53" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P53" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q53" t="n">
         <v>2.56</v>
@@ -7594,7 +7594,7 @@
         <v>5.3</v>
       </c>
       <c r="T53" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U53" t="n">
         <v>1.71</v>
@@ -7603,7 +7603,7 @@
         <v>1.2</v>
       </c>
       <c r="W53" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
@@ -7645,7 +7645,7 @@
         <v>28</v>
       </c>
       <c r="AK53" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL53" t="n">
         <v>1000</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="G54" t="n">
         <v>1.49</v>
@@ -7717,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q54" t="n">
         <v>2.1</v>
@@ -7834,7 +7834,7 @@
         <v>7.8</v>
       </c>
       <c r="J55" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K55" t="n">
         <v>4.4</v>
@@ -7960,13 +7960,13 @@
         <v>2.8</v>
       </c>
       <c r="G56" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>2.64</v>
       </c>
       <c r="I56" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="J56" t="n">
         <v>3.55</v>
@@ -7990,7 +7990,7 @@
         <v>2.12</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>2.4</v>
       </c>
       <c r="G58" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H58" t="n">
         <v>3.35</v>
@@ -8239,7 +8239,7 @@
         <v>3.95</v>
       </c>
       <c r="J58" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
         <v>3.35</v>
@@ -8251,7 +8251,7 @@
         <v>1.1</v>
       </c>
       <c r="N58" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O58" t="n">
         <v>1.54</v>
@@ -8275,10 +8275,10 @@
         <v>1.74</v>
       </c>
       <c r="V58" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W58" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X58" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G2" t="n">
         <v>2.46</v>
@@ -682,10 +682,10 @@
         <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
@@ -700,13 +700,13 @@
         <v>1.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -811,7 +811,7 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="T3" t="n">
         <v>1.03</v>
@@ -988,7 +988,7 @@
         <v>1.79</v>
       </c>
       <c r="W4" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="I5" t="n">
         <v>2.7</v>
@@ -1087,10 +1087,10 @@
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1105,13 +1105,13 @@
         <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="T5" t="n">
         <v>1.03</v>
@@ -1123,7 +1123,7 @@
         <v>1.58</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
         <v>1.96</v>
@@ -1222,7 +1222,7 @@
         <v>3.3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1231,28 +1231,28 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
         <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
         <v>1.22</v>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1477,55 +1477,55 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.72</v>
       </c>
-      <c r="G8" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.98</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.78</v>
-      </c>
       <c r="K8" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>1.97</v>
+        <v>2.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>3.75</v>
       </c>
       <c r="T8" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
         <v>1.37</v>
@@ -1534,7 +1534,7 @@
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G9" t="n">
         <v>3.35</v>
@@ -1624,10 +1624,10 @@
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,22 +1636,22 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1750,7 +1750,7 @@
         <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H10" t="n">
         <v>2.02</v>
@@ -1762,7 +1762,7 @@
         <v>1.59</v>
       </c>
       <c r="K10" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1783,7 +1783,7 @@
         <v>1.22</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>1.23</v>
@@ -2020,13 +2020,13 @@
         <v>2.74</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
         <v>2.02</v>
       </c>
       <c r="I12" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2041,19 +2041,19 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q12" t="n">
         <v>1.94</v>
       </c>
       <c r="R12" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
         <v>1.94</v>
@@ -2065,10 +2065,10 @@
         <v>1.03</v>
       </c>
       <c r="V12" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2311,19 +2311,19 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="O14" t="n">
         <v>1.11</v>
       </c>
       <c r="P14" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q14" t="n">
         <v>1.11</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
         <v>1.11</v>
@@ -2422,109 +2422,109 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="H15" t="n">
-        <v>1.68</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="K15" t="n">
-        <v>980</v>
+        <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
         <v>1.11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R15" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S15" t="n">
         <v>1.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>1.03</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="W15" t="n">
         <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,55 +2557,55 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="G16" t="n">
         <v>2.92</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="I16" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P16" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="W16" t="n">
         <v>1.52</v>
@@ -2620,10 +2620,10 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
@@ -2632,7 +2632,7 @@
         <v>980</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF16" t="n">
         <v>980</v>
@@ -2644,7 +2644,7 @@
         <v>980</v>
       </c>
       <c r="AI16" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="n">
         <v>980</v>
@@ -2656,13 +2656,13 @@
         <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
         <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
@@ -2692,100 +2692,100 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>5.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P17" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
         <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
         <v>13</v>
       </c>
       <c r="AH17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK17" t="n">
         <v>24</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
       </c>
       <c r="AL17" t="n">
         <v>50</v>
@@ -2794,10 +2794,10 @@
         <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
@@ -2830,10 +2830,10 @@
         <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I18" t="n">
         <v>2.56</v>
@@ -2845,34 +2845,34 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O18" t="n">
         <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
         <v>1.64</v>
@@ -2881,46 +2881,46 @@
         <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
         <v>70</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2929,10 +2929,10 @@
         <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -3103,13 +3103,13 @@
         <v>2.02</v>
       </c>
       <c r="H20" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
         <v>3.7</v>
@@ -3118,10 +3118,10 @@
         <v>1.49</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -3130,10 +3130,10 @@
         <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S20" t="n">
         <v>4.3</v>
@@ -3142,7 +3142,7 @@
         <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V20" t="n">
         <v>1.22</v>
@@ -3151,7 +3151,7 @@
         <v>1.98</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y20" t="n">
         <v>15</v>
@@ -3190,16 +3190,16 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
         <v>150</v>
@@ -3256,19 +3256,19 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q21" t="n">
         <v>1.14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="S21" t="n">
         <v>1.14</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
         <v>3.75</v>
@@ -3529,22 +3529,22 @@
         <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="R23" t="n">
         <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U23" t="n">
         <v>2.38</v>
@@ -3553,7 +3553,7 @@
         <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
@@ -3565,7 +3565,7 @@
         <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB23" t="n">
         <v>980</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
         <v>2.4</v>
@@ -3646,7 +3646,7 @@
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="J24" t="n">
         <v>3.4</v>
@@ -3667,13 +3667,13 @@
         <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="Q24" t="n">
         <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
         <v>3.15</v>
@@ -3682,16 +3682,16 @@
         <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
         <v>1.71</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
         <v>15</v>
@@ -3706,13 +3706,13 @@
         <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
         <v>16.5</v>
@@ -3721,28 +3721,28 @@
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
         <v>20</v>
       </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
     </row>
     <row r="25">
@@ -3802,10 +3802,10 @@
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.77</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
         <v>1.43</v>
@@ -4045,19 +4045,19 @@
         <v>1.27</v>
       </c>
       <c r="G27" t="n">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="I27" t="n">
         <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4078,7 +4078,7 @@
         <v>1.64</v>
       </c>
       <c r="R27" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
         <v>2.6</v>
@@ -4093,7 +4093,7 @@
         <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,64 +4177,64 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.86</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="H28" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="I28" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
         <v>2.84</v>
       </c>
-      <c r="J28" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K28" t="n">
-        <v>980</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.55</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S28" t="n">
-        <v>2.18</v>
+        <v>3.95</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="W28" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
@@ -4246,7 +4246,7 @@
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G29" t="n">
         <v>1.87</v>
@@ -4327,7 +4327,7 @@
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4345,13 +4345,13 @@
         <v>1.56</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
         <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="T29" t="n">
         <v>1.03</v>
@@ -4360,7 +4360,7 @@
         <v>1.03</v>
       </c>
       <c r="V29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W29" t="n">
         <v>2.14</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G30" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="H30" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="I30" t="n">
         <v>23</v>
       </c>
       <c r="J30" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,22 +4471,22 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P30" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R30" t="n">
         <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="T30" t="n">
         <v>1.03</v>
@@ -4495,16 +4495,16 @@
         <v>1.03</v>
       </c>
       <c r="V30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="W30" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="X30" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,43 +4513,43 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AD30" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4594,7 +4594,7 @@
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K31" t="n">
         <v>980</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G32" t="n">
         <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I32" t="n">
         <v>1000</v>
@@ -4858,7 +4858,7 @@
         <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
@@ -4876,13 +4876,13 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O33" t="n">
         <v>1.01</v>
       </c>
       <c r="P33" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q33" t="n">
         <v>1.36</v>
@@ -4903,7 +4903,7 @@
         <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -5023,7 +5023,7 @@
         <v>2.22</v>
       </c>
       <c r="R34" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
         <v>4.3</v>
@@ -5032,7 +5032,7 @@
         <v>1.96</v>
       </c>
       <c r="U34" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="V34" t="n">
         <v>1.18</v>
@@ -5041,34 +5041,34 @@
         <v>2.26</v>
       </c>
       <c r="X34" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="Z34" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AH34" t="n">
         <v>1000</v>
@@ -5077,19 +5077,19 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK34" t="n">
         <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5215,7 +5215,7 @@
         <v>32</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL35" t="n">
         <v>70</v>
@@ -5224,7 +5224,7 @@
         <v>280</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AO35" t="n">
         <v>170</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G36" t="n">
         <v>2.84</v>
@@ -5278,10 +5278,10 @@
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>1.95</v>
+        <v>2.46</v>
       </c>
       <c r="O36" t="n">
         <v>1.59</v>
@@ -5293,76 +5293,76 @@
         <v>2.74</v>
       </c>
       <c r="R36" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.03</v>
+        <v>2.14</v>
       </c>
       <c r="U36" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="V36" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W36" t="n">
         <v>1.54</v>
       </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y36" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z36" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI36" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ36" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AK36" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN36" t="n">
         <v>55</v>
       </c>
-      <c r="AL36" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>70</v>
-      </c>
       <c r="AO36" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5410,19 +5410,19 @@
         <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="M37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N37" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="O37" t="n">
         <v>1.76</v>
       </c>
       <c r="P37" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q37" t="n">
         <v>3.3</v>
@@ -5434,10 +5434,10 @@
         <v>7.6</v>
       </c>
       <c r="T37" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="V37" t="n">
         <v>1.74</v>
@@ -5449,7 +5449,7 @@
         <v>6.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="Z37" t="n">
         <v>12.5</v>
@@ -5458,25 +5458,25 @@
         <v>36</v>
       </c>
       <c r="AB37" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF37" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG37" t="n">
-        <v>960</v>
+        <v>25</v>
       </c>
       <c r="AH37" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="n">
         <v>110</v>
@@ -5491,7 +5491,7 @@
         <v>160</v>
       </c>
       <c r="AM37" t="n">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="AN37" t="n">
         <v>200</v>
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="G38" t="n">
         <v>1.77</v>
       </c>
       <c r="H38" t="n">
-        <v>1.09</v>
+        <v>4.8</v>
       </c>
       <c r="I38" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="n">
         <v>1.88</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="V38" t="n">
         <v>1.15</v>
       </c>
       <c r="W38" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5593,7 +5593,7 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
         <v>1000</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G39" t="n">
         <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I39" t="n">
         <v>1000</v>
@@ -5686,13 +5686,13 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="Q39" t="n">
         <v>1.32</v>
@@ -5797,13 +5797,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="G40" t="n">
         <v>1000</v>
       </c>
       <c r="H40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I40" t="n">
         <v>1000</v>
@@ -5821,13 +5821,13 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q40" t="n">
         <v>1.25</v>
@@ -5932,64 +5932,64 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.46</v>
+        <v>2.76</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.32</v>
+        <v>2.56</v>
       </c>
       <c r="I41" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="J41" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
-        <v>110</v>
+        <v>3.75</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N41" t="n">
-        <v>1.69</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P41" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V41" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="W41" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6076,7 +6076,7 @@
         <v>1.58</v>
       </c>
       <c r="I42" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="J42" t="n">
         <v>3.85</v>
@@ -6100,7 +6100,7 @@
         <v>1.81</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R42" t="n">
         <v>1.26</v>
@@ -6115,10 +6115,10 @@
         <v>1.03</v>
       </c>
       <c r="V42" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="W42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6208,10 +6208,10 @@
         <v>3.7</v>
       </c>
       <c r="H43" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="I43" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
@@ -6223,85 +6223,85 @@
         <v>1.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
       </c>
       <c r="P43" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q43" t="n">
         <v>2.28</v>
       </c>
       <c r="R43" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S43" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="U43" t="n">
-        <v>1.03</v>
+        <v>1.89</v>
       </c>
       <c r="V43" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W43" t="n">
         <v>1.37</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD43" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB43" t="n">
+      <c r="AE43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG43" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>21</v>
-      </c>
       <c r="AH43" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ43" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AK43" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN43" t="n">
         <v>1000</v>
@@ -6346,7 +6346,7 @@
         <v>2.38</v>
       </c>
       <c r="I44" t="n">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="J44" t="n">
         <v>3.05</v>
@@ -6472,13 +6472,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G45" t="n">
         <v>1.67</v>
       </c>
       <c r="H45" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
         <v>9.800000000000001</v>
@@ -6493,7 +6493,7 @@
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
         <v>2.72</v>
@@ -6508,28 +6508,28 @@
         <v>2.18</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="S45" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="U45" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="V45" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W45" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="X45" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="Z45" t="n">
         <v>1000</v>
@@ -6538,34 +6538,34 @@
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AC45" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AD45" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG45" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH45" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AK45" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
         <v>1000</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G46" t="n">
         <v>2.16</v>
@@ -6622,10 +6622,10 @@
         <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M46" t="n">
         <v>1.11</v>
@@ -6754,7 +6754,7 @@
         <v>4.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
         <v>3.25</v>
@@ -6793,7 +6793,7 @@
         <v>1.27</v>
       </c>
       <c r="W47" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X47" t="n">
         <v>9</v>
@@ -6823,7 +6823,7 @@
         <v>12</v>
       </c>
       <c r="AG47" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH47" t="n">
         <v>26</v>
@@ -6835,10 +6835,10 @@
         <v>32</v>
       </c>
       <c r="AK47" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
         <v>230</v>
@@ -6880,7 +6880,7 @@
         <v>2.2</v>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H48" t="n">
         <v>4.1</v>
@@ -6889,7 +6889,7 @@
         <v>4.6</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
         <v>3.15</v>
@@ -6898,13 +6898,13 @@
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>1.44</v>
+        <v>2.36</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P48" t="n">
         <v>1.44</v>
@@ -6913,16 +6913,16 @@
         <v>2.9</v>
       </c>
       <c r="R48" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S48" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="T48" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="U48" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="V48" t="n">
         <v>1.27</v>
@@ -6931,22 +6931,22 @@
         <v>1.73</v>
       </c>
       <c r="X48" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA48" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC48" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD48" t="n">
         <v>23</v>
@@ -6955,31 +6955,31 @@
         <v>1000</v>
       </c>
       <c r="AF48" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AH48" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ48" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AK48" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN48" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO48" t="n">
         <v>1000</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="G49" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="I49" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="J49" t="n">
         <v>3.25</v>
       </c>
       <c r="K49" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,22 +7036,22 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
         <v>1.1</v>
       </c>
       <c r="S49" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T49" t="n">
         <v>1.03</v>
@@ -7060,10 +7060,10 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W49" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="G51" t="n">
         <v>3.6</v>
@@ -7318,16 +7318,16 @@
         <v>2.08</v>
       </c>
       <c r="R51" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S51" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V51" t="n">
         <v>1.4</v>
@@ -7339,34 +7339,34 @@
         <v>16</v>
       </c>
       <c r="Y51" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AC51" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AD51" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AG51" t="n">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7426,7 +7426,7 @@
         <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>3.25</v>
@@ -7450,7 +7450,7 @@
         <v>1.62</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R52" t="n">
         <v>1.22</v>
@@ -7510,10 +7510,10 @@
         <v>26</v>
       </c>
       <c r="AK52" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM52" t="n">
         <v>200</v>
@@ -7564,7 +7564,7 @@
         <v>5.8</v>
       </c>
       <c r="J53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K53" t="n">
         <v>3.5</v>
@@ -7624,7 +7624,7 @@
         <v>7.8</v>
       </c>
       <c r="AD53" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE53" t="n">
         <v>130</v>
@@ -7654,7 +7654,7 @@
         <v>270</v>
       </c>
       <c r="AN53" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7699,22 +7699,22 @@
         <v>11.5</v>
       </c>
       <c r="J54" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K54" t="n">
         <v>4.8</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P54" t="n">
         <v>1.78</v>
@@ -7723,76 +7723,76 @@
         <v>2.1</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AE54" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AJ54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK54" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
@@ -7831,7 +7831,7 @@
         <v>5.9</v>
       </c>
       <c r="I55" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J55" t="n">
         <v>3.7</v>
@@ -7840,16 +7840,16 @@
         <v>4.4</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P55" t="n">
         <v>1.81</v>
@@ -7858,76 +7858,76 @@
         <v>1.99</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC55" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD55" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH55" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK55" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL55" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7960,109 +7960,109 @@
         <v>2.8</v>
       </c>
       <c r="G56" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H56" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="I56" t="n">
         <v>2.66</v>
       </c>
       <c r="J56" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K56" t="n">
         <v>3.8</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P56" t="n">
         <v>2.12</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y56" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD56" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AG56" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK56" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL56" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM56" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO56" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="57">
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.35</v>
+        <v>1.09</v>
       </c>
       <c r="G57" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H57" t="n">
-        <v>1.04</v>
+        <v>9.6</v>
       </c>
       <c r="I57" t="n">
         <v>1000</v>
@@ -8107,16 +8107,16 @@
         <v>4.3</v>
       </c>
       <c r="K57" t="n">
-        <v>950</v>
+        <v>980</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N57" t="n">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -8125,79 +8125,79 @@
         <v>1.79</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="G58" t="n">
         <v>2.64</v>
@@ -8236,7 +8236,7 @@
         <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
@@ -8245,10 +8245,10 @@
         <v>3.35</v>
       </c>
       <c r="L58" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M58" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N58" t="n">
         <v>2.58</v>
@@ -8260,7 +8260,7 @@
         <v>1.53</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="R58" t="n">
         <v>1.18</v>
@@ -8272,7 +8272,7 @@
         <v>2.06</v>
       </c>
       <c r="U58" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V58" t="n">
         <v>1.35</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,19 +670,19 @@
         <v>2.12</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.34</v>
+        <v>1.05</v>
       </c>
       <c r="T2" t="n">
         <v>1.03</v>
@@ -718,7 +718,7 @@
         <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
         <v>1.83</v>
@@ -811,10 +811,10 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.24</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -850,7 +850,7 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
         <v>2.2</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="G4" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
         <v>2.02</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,31 +964,31 @@
         <v>3.3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P4" t="n">
         <v>1.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="T4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>1.73</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="W5" t="n">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
@@ -1231,22 +1231,22 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T6" t="n">
         <v>1.76</v>
@@ -1258,7 +1258,7 @@
         <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H7" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="I7" t="n">
         <v>2.78</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.28</v>
@@ -1366,19 +1366,19 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
         <v>2.52</v>
@@ -1387,13 +1387,13 @@
         <v>1.53</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
         <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1432,7 +1432,7 @@
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
@@ -1441,7 +1441,7 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
         <v>3.75</v>
@@ -1486,22 +1486,22 @@
         <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J8" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1513,10 +1513,10 @@
         <v>2.18</v>
       </c>
       <c r="R8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="T8" t="n">
         <v>1.86</v>
@@ -1525,16 +1525,16 @@
         <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,13 +1543,13 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1615,16 +1615,16 @@
         <v>2.44</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="K9" t="n">
         <v>980</v>
@@ -1663,7 +1663,7 @@
         <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1771,19 +1771,19 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q10" t="n">
         <v>1.22</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S10" t="n">
         <v>1.23</v>
@@ -2323,7 +2323,7 @@
         <v>1.11</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
         <v>1.11</v>
@@ -2428,7 +2428,7 @@
         <v>2.22</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
         <v>4.8</v>
@@ -2440,7 +2440,7 @@
         <v>3.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2455,7 +2455,7 @@
         <v>1.64</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
         <v>1.23</v>
@@ -2476,10 +2476,10 @@
         <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2488,19 +2488,19 @@
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC15" t="n">
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="G16" t="n">
-        <v>2.92</v>
+        <v>2.76</v>
       </c>
       <c r="H16" t="n">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
@@ -2575,7 +2575,7 @@
         <v>3.45</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2596,19 +2596,19 @@
         <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2623,7 +2623,7 @@
         <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
         <v>8.800000000000001</v>
@@ -2653,7 +2653,7 @@
         <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM16" t="n">
         <v>150</v>
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P17" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
         <v>10.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
         <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2845,7 +2845,7 @@
         <v>3.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H20" t="n">
         <v>4.7</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
@@ -3127,7 +3127,7 @@
         <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q20" t="n">
         <v>2.28</v>
@@ -3145,10 +3145,10 @@
         <v>1.82</v>
       </c>
       <c r="V20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="X20" t="n">
         <v>11.5</v>
@@ -3160,7 +3160,7 @@
         <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="n">
         <v>8.6</v>
@@ -3169,10 +3169,10 @@
         <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="n">
         <v>11.5</v>
@@ -3181,10 +3181,10 @@
         <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
         <v>28</v>
@@ -3196,13 +3196,13 @@
         <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="O21" t="n">
         <v>1.14</v>
@@ -3268,7 +3268,7 @@
         <v>1.14</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
         <v>1.14</v>
@@ -3367,40 +3367,40 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H22" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="I22" t="n">
-        <v>2.64</v>
+        <v>2.76</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
         <v>3.75</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
         <v>1.94</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R22" t="n">
         <v>1.37</v>
@@ -3409,31 +3409,31 @@
         <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U22" t="n">
         <v>2.18</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y22" t="n">
         <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9.6</v>
@@ -3445,22 +3445,22 @@
         <v>32</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI22" t="n">
         <v>46</v>
       </c>
       <c r="AJ22" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="n">
         <v>55</v>
@@ -3469,10 +3469,10 @@
         <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.33</v>
@@ -3535,7 +3535,7 @@
         <v>2.16</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
         <v>1.48</v>
@@ -3547,13 +3547,13 @@
         <v>1.63</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X23" t="n">
         <v>980</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.65</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
@@ -3661,22 +3661,22 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P24" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S24" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
         <v>1.71</v>
@@ -3685,16 +3685,16 @@
         <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z24" t="n">
         <v>26</v>
@@ -3703,7 +3703,7 @@
         <v>60</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>8.6</v>
@@ -3727,7 +3727,7 @@
         <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AK24" t="n">
         <v>26</v>
@@ -3772,16 +3772,16 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I25" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
         <v>3.75</v>
@@ -3790,37 +3790,37 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="T25" t="n">
         <v>1.67</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.68</v>
       </c>
       <c r="U25" t="n">
         <v>2.28</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.76</v>
@@ -3829,7 +3829,7 @@
         <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
         <v>1000</v>
@@ -3838,22 +3838,22 @@
         <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
         <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
         <v>1000</v>
@@ -3874,7 +3874,7 @@
         <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="G27" t="n">
         <v>1.49</v>
@@ -4057,7 +4057,7 @@
         <v>4.6</v>
       </c>
       <c r="K27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,22 +4066,22 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="S27" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="T27" t="n">
         <v>1.03</v>
@@ -4180,22 +4180,22 @@
         <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H28" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I28" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J28" t="n">
         <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4204,13 +4204,13 @@
         <v>2.84</v>
       </c>
       <c r="O28" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P28" t="n">
         <v>1.62</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.28</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
         <v>1.23</v>
@@ -4219,13 +4219,13 @@
         <v>3.95</v>
       </c>
       <c r="T28" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
         <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W28" t="n">
         <v>1.35</v>
@@ -4303,73 +4303,73 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.57</v>
+        <v>1.28</v>
       </c>
       <c r="G29" t="n">
-        <v>1.87</v>
+        <v>1.34</v>
       </c>
       <c r="H29" t="n">
-        <v>5.3</v>
+        <v>15.5</v>
       </c>
       <c r="I29" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.57</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="P29" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>2.1</v>
+        <v>3.65</v>
       </c>
       <c r="T29" t="n">
-        <v>1.03</v>
+        <v>2.72</v>
       </c>
       <c r="U29" t="n">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="V29" t="n">
         <v>1.05</v>
       </c>
       <c r="W29" t="n">
-        <v>2.14</v>
+        <v>3.9</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4378,43 +4378,43 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4438,73 +4438,73 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="G30" t="n">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="H30" t="n">
-        <v>15.5</v>
+        <v>5.3</v>
       </c>
       <c r="I30" t="n">
-        <v>23</v>
+        <v>8.4</v>
       </c>
       <c r="J30" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>5.9</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>1.25</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P30" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S30" t="n">
-        <v>1.9</v>
+        <v>4.3</v>
       </c>
       <c r="T30" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="V30" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>3.85</v>
+        <v>2.28</v>
       </c>
       <c r="X30" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,43 +4513,43 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL30" t="n">
         <v>65</v>
       </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>85</v>
-      </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>8.800000000000001</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="G31" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>2.28</v>
+        <v>1.02</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>2.82</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,22 +4606,22 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>1.64</v>
+        <v>1.26</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="R31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.19</v>
       </c>
       <c r="T31" t="n">
         <v>1.03</v>
@@ -4630,10 +4630,10 @@
         <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,28 +4708,28 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Concon National FC</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
         <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>1.02</v>
+        <v>1.17</v>
       </c>
       <c r="I32" t="n">
         <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
         <v>1000</v>
@@ -4741,22 +4741,22 @@
         <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="O32" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="R32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S32" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
         <v>1.03</v>
@@ -4768,7 +4768,7 @@
         <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,67 +4843,67 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H33" t="n">
-        <v>1.17</v>
+        <v>2.46</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="J33" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R33" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S33" t="n">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
       <c r="T33" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W33" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4987,40 +4987,40 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="H34" t="n">
         <v>5.4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O34" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P34" t="n">
         <v>1.67</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="R34" t="n">
         <v>1.24</v>
@@ -5029,16 +5029,16 @@
         <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
         <v>1.69</v>
       </c>
       <c r="V34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W34" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X34" t="n">
         <v>980</v>
@@ -5056,7 +5056,7 @@
         <v>980</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD34" t="n">
         <v>980</v>
@@ -5065,7 +5065,7 @@
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AG34" t="n">
         <v>980</v>
@@ -5089,7 +5089,7 @@
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
         <v>2.22</v>
       </c>
       <c r="H35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.05</v>
@@ -5149,13 +5149,13 @@
         <v>2.46</v>
       </c>
       <c r="O35" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P35" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="R35" t="n">
         <v>1.17</v>
@@ -5164,7 +5164,7 @@
         <v>5.7</v>
       </c>
       <c r="T35" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U35" t="n">
         <v>1.69</v>
@@ -5173,7 +5173,7 @@
         <v>1.27</v>
       </c>
       <c r="W35" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X35" t="n">
         <v>9.800000000000001</v>
@@ -5200,10 +5200,10 @@
         <v>90</v>
       </c>
       <c r="AF35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
         <v>28</v>
@@ -5212,7 +5212,7 @@
         <v>140</v>
       </c>
       <c r="AJ35" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK35" t="n">
         <v>980</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G36" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5278,10 +5278,10 @@
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N36" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.59</v>
@@ -5290,19 +5290,19 @@
         <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="R36" t="n">
         <v>1.17</v>
       </c>
       <c r="S36" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="T36" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
         <v>1.41</v>
@@ -5320,10 +5320,10 @@
         <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB36" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC36" t="n">
         <v>7.2</v>
@@ -5356,7 +5356,7 @@
         <v>75</v>
       </c>
       <c r="AM36" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN36" t="n">
         <v>55</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G37" t="n">
         <v>4.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I37" t="n">
         <v>2.34</v>
@@ -5407,37 +5407,37 @@
         <v>2.94</v>
       </c>
       <c r="K37" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L37" t="n">
         <v>1.73</v>
       </c>
       <c r="M37" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N37" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="O37" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="P37" t="n">
         <v>1.37</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R37" t="n">
         <v>1.12</v>
       </c>
       <c r="S37" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T37" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="U37" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="V37" t="n">
         <v>1.74</v>
@@ -5449,10 +5449,10 @@
         <v>6.6</v>
       </c>
       <c r="Y37" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="Z37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
         <v>36</v>
@@ -5461,16 +5461,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD37" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE37" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AF37" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG37" t="n">
         <v>25</v>
@@ -5482,10 +5482,10 @@
         <v>110</v>
       </c>
       <c r="AJ37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
         <v>160</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G38" t="n">
         <v>1.77</v>
       </c>
       <c r="H38" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J38" t="n">
         <v>3.5</v>
       </c>
       <c r="K38" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L38" t="n">
         <v>1.33</v>
@@ -5575,7 +5575,7 @@
         <v>1.89</v>
       </c>
       <c r="V38" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W38" t="n">
         <v>2.22</v>
@@ -5686,13 +5686,13 @@
         <v>1.01</v>
       </c>
       <c r="N39" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="O39" t="n">
         <v>1.01</v>
       </c>
       <c r="P39" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="Q39" t="n">
         <v>1.32</v>
@@ -5821,13 +5821,13 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q40" t="n">
         <v>1.25</v>
@@ -5965,16 +5965,16 @@
         <v>1.79</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R41" t="n">
         <v>1.3</v>
       </c>
       <c r="S41" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="T41" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U41" t="n">
         <v>2.04</v>
@@ -5989,7 +5989,7 @@
         <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,115 +6058,115 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Nacional (Uru)</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6.4</v>
+        <v>3.3</v>
       </c>
       <c r="G42" t="n">
-        <v>9.199999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="H42" t="n">
-        <v>1.58</v>
+        <v>2.42</v>
       </c>
       <c r="I42" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P42" t="n">
         <v>1.67</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.81</v>
-      </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="R42" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S42" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="T42" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>1.03</v>
+        <v>1.91</v>
       </c>
       <c r="V42" t="n">
-        <v>2.48</v>
+        <v>1.63</v>
       </c>
       <c r="W42" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,115 +6193,115 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Nacional (Uru)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>2.42</v>
+        <v>1.56</v>
       </c>
       <c r="I43" t="n">
-        <v>2.62</v>
+        <v>1.67</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L43" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N43" t="n">
-        <v>2.96</v>
+        <v>1.83</v>
       </c>
       <c r="O43" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.28</v>
+        <v>1.99</v>
       </c>
       <c r="R43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="T43" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="U43" t="n">
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="V43" t="n">
-        <v>1.62</v>
+        <v>2.48</v>
       </c>
       <c r="W43" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z43" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AB43" t="n">
-        <v>11.5</v>
+        <v>29</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH43" t="n">
         <v>34</v>
       </c>
-      <c r="AF43" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>980</v>
-      </c>
       <c r="AI43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
         <v>1000</v>
@@ -6337,22 +6337,22 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="H44" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="I44" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="J44" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K44" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,19 +6361,19 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S44" t="n">
         <v>2.18</v>
@@ -6385,10 +6385,10 @@
         <v>1.03</v>
       </c>
       <c r="V44" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="W44" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6472,28 +6472,28 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G45" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="H45" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I45" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J45" t="n">
         <v>3.8</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
         <v>2.72</v>
@@ -6523,7 +6523,7 @@
         <v>1.13</v>
       </c>
       <c r="W45" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="X45" t="n">
         <v>980</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G46" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H46" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I46" t="n">
         <v>5.7</v>
@@ -6622,7 +6622,7 @@
         <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L46" t="n">
         <v>1.51</v>
@@ -6631,16 +6631,16 @@
         <v>1.11</v>
       </c>
       <c r="N46" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O46" t="n">
         <v>1.57</v>
       </c>
       <c r="P46" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R46" t="n">
         <v>1.17</v>
@@ -6649,7 +6649,7 @@
         <v>5.7</v>
       </c>
       <c r="T46" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U46" t="n">
         <v>1.64</v>
@@ -6658,7 +6658,7 @@
         <v>1.22</v>
       </c>
       <c r="W46" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6673,10 +6673,10 @@
         <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H47" t="n">
         <v>4.1</v>
@@ -6763,7 +6763,7 @@
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N47" t="n">
         <v>2.66</v>
@@ -6781,7 +6781,7 @@
         <v>1.2</v>
       </c>
       <c r="S47" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T47" t="n">
         <v>2.1</v>
@@ -6832,7 +6832,7 @@
         <v>120</v>
       </c>
       <c r="AJ47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK47" t="n">
         <v>980</v>
@@ -6922,7 +6922,7 @@
         <v>2.06</v>
       </c>
       <c r="U48" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V48" t="n">
         <v>1.27</v>
@@ -6949,7 +6949,7 @@
         <v>7.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
         <v>1000</v>
@@ -7012,22 +7012,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H49" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
@@ -7036,13 +7036,13 @@
         <v>1.01</v>
       </c>
       <c r="N49" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O49" t="n">
         <v>1.01</v>
       </c>
       <c r="P49" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q49" t="n">
         <v>2.04</v>
@@ -7060,10 +7060,10 @@
         <v>1.03</v>
       </c>
       <c r="V49" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W49" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7150,10 +7150,10 @@
         <v>3.2</v>
       </c>
       <c r="G50" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="H50" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I50" t="n">
         <v>2.42</v>
@@ -7168,70 +7168,70 @@
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>1.61</v>
+        <v>3.05</v>
       </c>
       <c r="O50" t="n">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="P50" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="R50" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="T50" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="U50" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V50" t="n">
         <v>1.7</v>
       </c>
       <c r="W50" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG50" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
@@ -7243,10 +7243,10 @@
         <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM50" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN50" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G52" t="n">
         <v>2.12</v>
@@ -7426,7 +7426,7 @@
         <v>4.4</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J52" t="n">
         <v>3.25</v>
@@ -7450,7 +7450,7 @@
         <v>1.62</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R52" t="n">
         <v>1.22</v>
@@ -7486,7 +7486,7 @@
         <v>8.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD52" t="n">
         <v>20</v>
@@ -7555,7 +7555,7 @@
         <v>1.86</v>
       </c>
       <c r="G53" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H53" t="n">
         <v>5.2</v>
@@ -7567,7 +7567,7 @@
         <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L53" t="n">
         <v>1.56</v>
@@ -7591,7 +7591,7 @@
         <v>1.19</v>
       </c>
       <c r="S53" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="T53" t="n">
         <v>2.22</v>
@@ -7600,16 +7600,16 @@
         <v>1.71</v>
       </c>
       <c r="V53" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z53" t="n">
         <v>50</v>
@@ -7621,10 +7621,10 @@
         <v>6.4</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE53" t="n">
         <v>130</v>
@@ -7642,7 +7642,7 @@
         <v>150</v>
       </c>
       <c r="AJ53" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AK53" t="n">
         <v>32</v>
@@ -7690,13 +7690,13 @@
         <v>1.45</v>
       </c>
       <c r="G54" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H54" t="n">
         <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
         <v>4.4</v>
@@ -7711,7 +7711,7 @@
         <v>1.08</v>
       </c>
       <c r="N54" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O54" t="n">
         <v>1.37</v>
@@ -7726,7 +7726,7 @@
         <v>1.29</v>
       </c>
       <c r="S54" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T54" t="n">
         <v>2.36</v>
@@ -7735,7 +7735,7 @@
         <v>1.63</v>
       </c>
       <c r="V54" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W54" t="n">
         <v>3.05</v>
@@ -7744,7 +7744,7 @@
         <v>13</v>
       </c>
       <c r="Y54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z54" t="n">
         <v>100</v>
@@ -7759,10 +7759,10 @@
         <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AE54" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AF54" t="n">
         <v>7.4</v>
@@ -7783,13 +7783,13 @@
         <v>18.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM54" t="n">
         <v>340</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO54" t="n">
         <v>430</v>
@@ -7828,13 +7828,13 @@
         <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I55" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J55" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K55" t="n">
         <v>4.4</v>
@@ -7855,10 +7855,10 @@
         <v>1.81</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R55" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S55" t="n">
         <v>3.15</v>
@@ -7867,13 +7867,13 @@
         <v>1.68</v>
       </c>
       <c r="U55" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V55" t="n">
         <v>1.14</v>
       </c>
       <c r="W55" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X55" t="n">
         <v>20</v>
@@ -7918,13 +7918,13 @@
         <v>28</v>
       </c>
       <c r="AL55" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM55" t="n">
         <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G56" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H56" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I56" t="n">
         <v>2.66</v>
@@ -7972,34 +7972,34 @@
         <v>3.6</v>
       </c>
       <c r="K56" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L56" t="n">
         <v>1.34</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
         <v>4.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P56" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S56" t="n">
         <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U56" t="n">
         <v>2.36</v>
@@ -8008,25 +8008,25 @@
         <v>1.6</v>
       </c>
       <c r="W56" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X56" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y56" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>14</v>
-      </c>
       <c r="AC56" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD56" t="n">
         <v>12.5</v>
@@ -8044,13 +8044,13 @@
         <v>16</v>
       </c>
       <c r="AI56" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AJ56" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK56" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL56" t="n">
         <v>38</v>
@@ -8059,10 +8059,10 @@
         <v>75</v>
       </c>
       <c r="AN56" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AO56" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
@@ -8092,31 +8092,31 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="G57" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="H57" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="J57" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K57" t="n">
-        <v>980</v>
+        <v>5.7</v>
       </c>
       <c r="L57" t="n">
         <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>1.03</v>
+        <v>3.3</v>
       </c>
       <c r="O57" t="n">
         <v>1.36</v>
@@ -8125,25 +8125,25 @@
         <v>1.79</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="R57" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="S57" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T57" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U57" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="V57" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="W57" t="n">
-        <v>2.96</v>
+        <v>3.35</v>
       </c>
       <c r="X57" t="n">
         <v>1000</v>
@@ -8152,13 +8152,13 @@
         <v>1000</v>
       </c>
       <c r="Z57" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA57" t="n">
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC57" t="n">
         <v>1000</v>
@@ -8170,7 +8170,7 @@
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG57" t="n">
         <v>1000</v>
@@ -8194,7 +8194,7 @@
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G58" t="n">
         <v>2.64</v>
@@ -8236,13 +8236,13 @@
         <v>3.35</v>
       </c>
       <c r="I58" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J58" t="n">
         <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L58" t="n">
         <v>1.01</v>
@@ -8254,13 +8254,13 @@
         <v>2.58</v>
       </c>
       <c r="O58" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P58" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="R58" t="n">
         <v>1.18</v>
@@ -8269,7 +8269,7 @@
         <v>5.3</v>
       </c>
       <c r="T58" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U58" t="n">
         <v>1.75</v>
@@ -8293,10 +8293,10 @@
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC58" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD58" t="n">
         <v>1000</v>
@@ -8332,6 +8332,276 @@
         <v>1000</v>
       </c>
       <c r="AO58" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S59" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X59" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W60" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO60" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>2.42</v>
       </c>
       <c r="H2" t="n">
-        <v>2.74</v>
+        <v>3.05</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="J2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>3.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.35</v>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.03</v>
       </c>
       <c r="V2" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.22</v>
@@ -835,7 +835,7 @@
         <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -850,7 +850,7 @@
         <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
         <v>2.2</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G4" t="n">
         <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I4" t="n">
         <v>2.24</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.36</v>
@@ -961,7 +961,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G5" t="n">
         <v>3.45</v>
@@ -1081,16 +1081,16 @@
         <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1111,16 +1111,16 @@
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>1.41</v>
@@ -1210,19 +1210,19 @@
         <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1255,10 +1255,10 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H7" t="n">
         <v>2.44</v>
@@ -1354,46 +1354,46 @@
         <v>2.78</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T7" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="V7" t="n">
         <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1441,7 +1441,7 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN7" t="n">
         <v>980</v>
@@ -1486,46 +1486,46 @@
         <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S8" t="n">
         <v>4.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
         <v>1.36</v>
@@ -1534,7 +1534,7 @@
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1621,37 +1621,37 @@
         <v>2.78</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>2.64</v>
       </c>
       <c r="K9" t="n">
-        <v>980</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R9" t="n">
         <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
         <v>1.03</v>
@@ -1660,7 +1660,7 @@
         <v>1.03</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
         <v>1.47</v>
@@ -1750,7 +1750,7 @@
         <v>2.2</v>
       </c>
       <c r="G10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>2.02</v>
@@ -1798,7 +1798,7 @@
         <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1894,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K11" t="n">
         <v>950</v>
@@ -1918,10 +1918,10 @@
         <v>1.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
         <v>1.03</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.02</v>
+        <v>2.14</v>
       </c>
       <c r="I12" t="n">
         <v>2.44</v>
@@ -2032,7 +2032,7 @@
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2050,13 +2050,13 @@
         <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T12" t="n">
         <v>1.03</v>
@@ -2068,7 +2068,7 @@
         <v>1.69</v>
       </c>
       <c r="W12" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2164,7 +2164,7 @@
         <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K13" t="n">
         <v>950</v>
@@ -2299,7 +2299,7 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -2311,7 +2311,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="O14" t="n">
         <v>1.11</v>
@@ -2413,118 +2413,118 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="J15" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.6</v>
+        <v>6.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.11</v>
+        <v>1.87</v>
       </c>
       <c r="O15" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q15" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S15" t="n">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.76</v>
+        <v>2.22</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>1.11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI16" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>2.56</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
         <v>1.85</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>120</v>
+        <v>980</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL17" t="n">
         <v>60</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2818,106 +2818,106 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.75</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.37</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AK18" t="n">
         <v>980</v>
@@ -2926,19 +2926,19 @@
         <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO18" t="n">
         <v>55</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Honefoss</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Stjordals-Blink</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>3.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.11</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.07</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>1.07</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="U19" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Honefoss</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Stjordals-Blink</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>2.04</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>2.94</v>
+        <v>1.11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.28</v>
+        <v>1.07</v>
       </c>
       <c r="R20" t="n">
         <v>1.24</v>
       </c>
       <c r="S20" t="n">
-        <v>4.3</v>
+        <v>1.07</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>1.03</v>
       </c>
       <c r="U20" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="V20" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Lysekloster</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>2.02</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>1.11</v>
+        <v>2.94</v>
       </c>
       <c r="O21" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.34</v>
+        <v>1.67</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>1.14</v>
+        <v>4.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="U21" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>United IK Nordic</t>
+          <t>Lysekloster</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>2.76</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>3.05</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>1.11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>1.94</v>
+        <v>1.34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.14</v>
       </c>
       <c r="R22" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>3.15</v>
+        <v>1.14</v>
       </c>
       <c r="T22" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="U22" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>United IK Nordic</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.88</v>
       </c>
       <c r="G23" t="n">
-        <v>2.22</v>
+        <v>3.35</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>2.38</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
-        <v>2.16</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
-        <v>2.36</v>
+        <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="W23" t="n">
-        <v>1.81</v>
+        <v>1.43</v>
       </c>
       <c r="X23" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AB23" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ23" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -3628,118 +3628,118 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="Z24" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA24" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AG24" t="n">
         <v>11.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
         <v>980</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
         <v>980</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AO24" t="n">
         <v>980</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Union Espanola</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="G25" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P25" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="R25" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="S25" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
         <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF25" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,67 +3898,67 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FK Vrsac</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>1.11</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P26" t="n">
-        <v>1.1</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="R26" t="n">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="S26" t="n">
-        <v>1.28</v>
+        <v>2.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -3976,7 +3976,7 @@
         <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD26" t="n">
         <v>1000</v>
@@ -3985,7 +3985,7 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
         <v>1000</v>
@@ -4009,7 +4009,7 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,60 +4028,60 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>FK Vrsac</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q27" t="n">
         <v>1.28</v>
       </c>
-      <c r="G27" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.69</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="S27" t="n">
-        <v>2.68</v>
+        <v>1.28</v>
       </c>
       <c r="T27" t="n">
         <v>1.03</v>
@@ -4093,7 +4093,7 @@
         <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4180,7 +4180,7 @@
         <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
         <v>2.32</v>
@@ -4192,7 +4192,7 @@
         <v>3.05</v>
       </c>
       <c r="K28" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.4</v>
@@ -4201,13 +4201,13 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O28" t="n">
         <v>1.43</v>
       </c>
       <c r="P28" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q28" t="n">
         <v>2.12</v>
@@ -4222,7 +4222,7 @@
         <v>1.9</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
         <v>1.63</v>
@@ -4303,73 +4303,73 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F29" t="n">
         <v>1.28</v>
       </c>
       <c r="G29" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="H29" t="n">
-        <v>15.5</v>
+        <v>8.6</v>
       </c>
       <c r="I29" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="J29" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="K29" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3</v>
+        <v>1.99</v>
       </c>
       <c r="O29" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="P29" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="S29" t="n">
-        <v>3.65</v>
+        <v>2.68</v>
       </c>
       <c r="T29" t="n">
-        <v>2.72</v>
+        <v>1.03</v>
       </c>
       <c r="U29" t="n">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="V29" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
@@ -4378,43 +4378,43 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4465,7 +4465,7 @@
         <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.09</v>
@@ -4492,10 +4492,10 @@
         <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W30" t="n">
         <v>2.28</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,73 +4573,73 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Concon National FC</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>1.36</v>
       </c>
       <c r="H31" t="n">
-        <v>1.02</v>
+        <v>15.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>1.26</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.19</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="S31" t="n">
-        <v>1.19</v>
+        <v>3.65</v>
       </c>
       <c r="T31" t="n">
-        <v>1.03</v>
+        <v>2.78</v>
       </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>1.47</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,43 +4648,43 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,67 +4708,67 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="G32" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
-        <v>1.17</v>
+        <v>2.46</v>
       </c>
       <c r="I32" t="n">
-        <v>1000</v>
+        <v>2.82</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>1.34</v>
+        <v>2.88</v>
       </c>
       <c r="O32" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.36</v>
+        <v>2.06</v>
       </c>
       <c r="R32" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U32" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W32" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4786,10 +4786,10 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,67 +4843,67 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.86</v>
+        <v>1.02</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="H33" t="n">
-        <v>2.46</v>
+        <v>1.02</v>
       </c>
       <c r="I33" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L33" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.88</v>
+        <v>1.26</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="R33" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="S33" t="n">
-        <v>3.35</v>
+        <v>1.19</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="W33" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,102 +4973,102 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>River Plate (Uru)</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="G34" t="n">
-        <v>1.78</v>
+        <v>1000</v>
       </c>
       <c r="H34" t="n">
-        <v>5.4</v>
+        <v>1.04</v>
       </c>
       <c r="I34" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>2.96</v>
+        <v>1.34</v>
       </c>
       <c r="O34" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P34" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.28</v>
+        <v>1.02</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S34" t="n">
-        <v>4.3</v>
+        <v>1.41</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="U34" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W34" t="n">
-        <v>2.28</v>
+        <v>1.02</v>
       </c>
       <c r="X34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
         <v>1000</v>
@@ -5077,19 +5077,19 @@
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
         <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,126 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>River Plate (Uru)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="G35" t="n">
-        <v>2.22</v>
+        <v>1.76</v>
       </c>
       <c r="H35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S35" t="n">
         <v>4.3</v>
       </c>
-      <c r="I35" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5.7</v>
-      </c>
       <c r="T35" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
         <v>1.69</v>
       </c>
       <c r="V35" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="X35" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y35" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AA35" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AC35" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE35" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI35" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
         <v>980</v>
       </c>
       <c r="AK35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AO35" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,103 +5248,103 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="G36" t="n">
-        <v>2.82</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J36" t="n">
         <v>3.1</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3</v>
-      </c>
       <c r="K36" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N36" t="n">
         <v>2.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P36" t="n">
         <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="R36" t="n">
         <v>1.17</v>
       </c>
       <c r="S36" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="T36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U36" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="V36" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Z36" t="n">
         <v>980</v>
       </c>
       <c r="AA36" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AB36" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AJ36" t="n">
         <v>980</v>
@@ -5353,22 +5353,22 @@
         <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM36" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AN36" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO36" t="n">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4.2</v>
+        <v>2.64</v>
       </c>
       <c r="G37" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
-        <v>2.32</v>
+        <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.34</v>
+        <v>3.4</v>
       </c>
       <c r="J37" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="L37" t="n">
-        <v>1.73</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="N37" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="P37" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="R37" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="S37" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="T37" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="W37" t="n">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="X37" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AA37" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD37" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AE37" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF37" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AG37" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AH37" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI37" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL37" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AM37" t="n">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="AN37" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AO37" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,108 +5513,108 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="G38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O38" t="n">
         <v>1.77</v>
       </c>
-      <c r="H38" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="P38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S38" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC38" t="n">
         <v>7.4</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W38" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ38" t="n">
         <v>1000</v>
@@ -5623,22 +5623,22 @@
         <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5653,67 +5653,67 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Brujas de Salamanca</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deportes Melipilla</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="G39" t="n">
-        <v>1000</v>
+        <v>1.56</v>
       </c>
       <c r="H39" t="n">
-        <v>1.02</v>
+        <v>5.8</v>
       </c>
       <c r="I39" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J39" t="n">
-        <v>1.02</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>1.34</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.32</v>
+        <v>1.83</v>
       </c>
       <c r="R39" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="S39" t="n">
-        <v>1.32</v>
+        <v>3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U39" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="V39" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W39" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="X39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,12 +5788,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Westchester SC</t>
+          <t>Brujas de Salamanca</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>FC Naples</t>
+          <t>Deportes Melipilla</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q40" t="n">
         <v>1.32</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="R40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S40" t="n">
         <v>1.32</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.25</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5908,7 +5908,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,72 +5918,72 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Westchester SC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>FC Naples</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.76</v>
+        <v>1.02</v>
       </c>
       <c r="G41" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="I41" t="n">
-        <v>2.9</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>3</v>
+        <v>1.32</v>
       </c>
       <c r="O41" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="R41" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="S41" t="n">
-        <v>2.02</v>
+        <v>1.25</v>
       </c>
       <c r="T41" t="n">
-        <v>1.76</v>
+        <v>1.03</v>
       </c>
       <c r="U41" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="V41" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="W41" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -5998,10 +5998,10 @@
         <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
         <v>1000</v>
@@ -6043,7 +6043,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,120 +6053,120 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.3</v>
+        <v>2.76</v>
       </c>
       <c r="G42" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="I42" t="n">
-        <v>2.58</v>
+        <v>3.05</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="K42" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L42" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="M42" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
         <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="P42" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="S42" t="n">
-        <v>4.3</v>
+        <v>3.55</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.63</v>
+        <v>1.49</v>
       </c>
       <c r="W42" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X42" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z42" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD42" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI42" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ42" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK42" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM42" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6208,7 +6208,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H43" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I43" t="n">
         <v>1.67</v>
@@ -6232,16 +6232,16 @@
         <v>1.01</v>
       </c>
       <c r="P43" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R43" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S43" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T43" t="n">
         <v>1.03</v>
@@ -6307,7 +6307,7 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.59</v>
+        <v>3.65</v>
       </c>
       <c r="G45" t="n">
-        <v>1.69</v>
+        <v>3.9</v>
       </c>
       <c r="H45" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="I45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y45" t="n">
         <v>8.6</v>
       </c>
-      <c r="J45" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W45" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X45" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>980</v>
-      </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB45" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AD45" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF45" t="n">
         <v>980</v>
       </c>
       <c r="AG45" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ45" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
@@ -6607,22 +6607,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="G46" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H46" t="n">
         <v>4.8</v>
       </c>
       <c r="I46" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
         <v>3.05</v>
       </c>
       <c r="K46" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L46" t="n">
         <v>1.51</v>
@@ -6634,13 +6634,13 @@
         <v>2.46</v>
       </c>
       <c r="O46" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P46" t="n">
         <v>1.54</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="R46" t="n">
         <v>1.17</v>
@@ -6655,10 +6655,10 @@
         <v>1.64</v>
       </c>
       <c r="V46" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W46" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6688,7 +6688,7 @@
         <v>1000</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,126 +6728,126 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="G47" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="H47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K47" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S47" t="n">
         <v>4.1</v>
       </c>
-      <c r="I47" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5.3</v>
-      </c>
       <c r="T47" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="V47" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="W47" t="n">
-        <v>1.8</v>
+        <v>2.46</v>
       </c>
       <c r="X47" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="Y47" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="AD47" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AE47" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AG47" t="n">
         <v>980</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI47" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AK47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM47" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G48" t="n">
-        <v>2.36</v>
+        <v>2.24</v>
       </c>
       <c r="H48" t="n">
         <v>4.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L48" t="n">
         <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N48" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="O48" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="P48" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="R48" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S48" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="T48" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="U48" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="V48" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W48" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X48" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Y48" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA48" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AB48" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF48" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH48" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI48" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AJ48" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AK48" t="n">
         <v>980</v>
       </c>
       <c r="AL48" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="AN48" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,123 +6998,123 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="H49" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I49" t="n">
-        <v>7.2</v>
+        <v>4.6</v>
       </c>
       <c r="J49" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N49" t="n">
-        <v>1.65</v>
+        <v>2.34</v>
       </c>
       <c r="O49" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P49" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.04</v>
+        <v>2.6</v>
       </c>
       <c r="R49" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="S49" t="n">
-        <v>2.04</v>
+        <v>6.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="U49" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V49" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="W49" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7123,7 +7123,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,100 +7138,100 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>3.2</v>
+        <v>1.74</v>
       </c>
       <c r="G50" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.34</v>
+        <v>3.65</v>
       </c>
       <c r="I50" t="n">
-        <v>2.42</v>
+        <v>7.2</v>
       </c>
       <c r="J50" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K50" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L50" t="n">
         <v>1.01</v>
       </c>
       <c r="M50" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N50" t="n">
-        <v>3.05</v>
+        <v>1.65</v>
       </c>
       <c r="O50" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="R50" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="S50" t="n">
-        <v>3.95</v>
+        <v>2.04</v>
       </c>
       <c r="T50" t="n">
-        <v>1.84</v>
+        <v>1.03</v>
       </c>
       <c r="U50" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="V50" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD50" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH50" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI50" t="n">
         <v>1000</v>
@@ -7243,10 +7243,10 @@
         <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN50" t="n">
         <v>1000</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,105 +7268,105 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F51" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H51" t="n">
         <v>2.34</v>
       </c>
-      <c r="G51" t="n">
+      <c r="I51" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K51" t="n">
         <v>3.6</v>
       </c>
-      <c r="H51" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3.7</v>
-      </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R51" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S51" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T51" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="U51" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="V51" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="W51" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="X51" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="Z51" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AC51" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="AD51" t="n">
-        <v>980</v>
+        <v>12.5</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AG51" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AH51" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
@@ -7378,10 +7378,10 @@
         <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN51" t="n">
         <v>1000</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,123 +7403,123 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.98</v>
+        <v>2.34</v>
       </c>
       <c r="G52" t="n">
-        <v>2.12</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="I52" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.25</v>
+        <v>2.74</v>
       </c>
       <c r="K52" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="W52" t="n">
         <v>1.51</v>
       </c>
-      <c r="M52" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T52" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X52" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y52" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z52" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA52" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.6</v>
+        <v>980</v>
       </c>
       <c r="AC52" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD52" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE52" t="n">
         <v>1000</v>
       </c>
       <c r="AF52" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AG52" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH52" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ52" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK52" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO52" t="n">
         <v>1000</v>
@@ -7543,118 +7543,118 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="G53" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="H53" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
       </c>
       <c r="K53" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L53" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="M53" t="n">
         <v>1.1</v>
       </c>
       <c r="N53" t="n">
-        <v>2.64</v>
+        <v>2.82</v>
       </c>
       <c r="O53" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="P53" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.56</v>
+        <v>2.32</v>
       </c>
       <c r="R53" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S53" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="T53" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="U53" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V53" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="W53" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="X53" t="n">
         <v>11</v>
       </c>
       <c r="Y53" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA53" t="n">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="AB53" t="n">
-        <v>6.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD53" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE53" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG53" t="n">
         <v>11.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AI53" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AJ53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL53" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM53" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="AN53" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO53" t="n">
         <v>1000</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.45</v>
+        <v>1.84</v>
       </c>
       <c r="G54" t="n">
-        <v>1.48</v>
+        <v>1.96</v>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>5.3</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J54" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="K54" t="n">
-        <v>4.8</v>
+        <v>3.55</v>
       </c>
       <c r="L54" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N54" t="n">
-        <v>3.3</v>
+        <v>2.64</v>
       </c>
       <c r="O54" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="P54" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="R54" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="S54" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="T54" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="U54" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="V54" t="n">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="W54" t="n">
-        <v>3.05</v>
+        <v>2.04</v>
       </c>
       <c r="X54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Z54" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AA54" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AB54" t="n">
         <v>6.4</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AE54" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AF54" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AG54" t="n">
         <v>11</v>
       </c>
       <c r="AH54" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI54" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AJ54" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AL54" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="AN54" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO54" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="H55" t="n">
-        <v>5.8</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="K55" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M55" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
-        <v>1.81</v>
+        <v>3.45</v>
       </c>
       <c r="O55" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P55" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R55" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W55" t="n">
         <v>3.15</v>
       </c>
-      <c r="T55" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U55" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W55" t="n">
-        <v>2.32</v>
-      </c>
       <c r="X55" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z55" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB55" t="n">
-        <v>10.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD55" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF55" t="n">
-        <v>13.5</v>
+        <v>7.2</v>
       </c>
       <c r="AG55" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH55" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ55" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>28</v>
+        <v>18.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>60</v>
+        <v>580</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN55" t="n">
-        <v>17</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,127 +7948,127 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.84</v>
+        <v>1.61</v>
       </c>
       <c r="G56" t="n">
-        <v>2.96</v>
+        <v>1.75</v>
       </c>
       <c r="H56" t="n">
-        <v>2.56</v>
+        <v>5.9</v>
       </c>
       <c r="I56" t="n">
-        <v>2.66</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J56" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O56" t="n">
         <v>1.34</v>
       </c>
-      <c r="M56" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.25</v>
-      </c>
       <c r="P56" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="R56" t="n">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U56" t="n">
-        <v>2.36</v>
+        <v>1.58</v>
       </c>
       <c r="V56" t="n">
-        <v>1.6</v>
+        <v>1.14</v>
       </c>
       <c r="W56" t="n">
-        <v>1.51</v>
+        <v>2.32</v>
       </c>
       <c r="X56" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC56" t="n">
         <v>13</v>
       </c>
-      <c r="Z56" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="n">
+      <c r="AD56" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF56" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC56" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>21</v>
-      </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH56" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI56" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AK56" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL56" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AM56" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AO56" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.35</v>
+        <v>2.86</v>
       </c>
       <c r="G57" t="n">
-        <v>1.41</v>
+        <v>2.92</v>
       </c>
       <c r="H57" t="n">
-        <v>10</v>
+        <v>2.58</v>
       </c>
       <c r="I57" t="n">
-        <v>17</v>
+        <v>2.66</v>
       </c>
       <c r="J57" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="K57" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M57" t="n">
         <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R57" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="S57" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T57" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="U57" t="n">
-        <v>1.47</v>
+        <v>2.36</v>
       </c>
       <c r="V57" t="n">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="W57" t="n">
-        <v>3.35</v>
+        <v>1.52</v>
       </c>
       <c r="X57" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z57" t="n">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB57" t="n">
-        <v>7.4</v>
+        <v>13.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF57" t="n">
-        <v>8.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="AG57" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH57" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI57" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM57" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN57" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AO57" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,73 +8213,73 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.4</v>
+        <v>1.35</v>
       </c>
       <c r="G58" t="n">
-        <v>2.64</v>
+        <v>1.41</v>
       </c>
       <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="n">
+        <v>17</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W58" t="n">
         <v>3.35</v>
       </c>
-      <c r="I58" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.61</v>
-      </c>
       <c r="X58" t="n">
         <v>1000</v>
       </c>
@@ -8287,16 +8287,16 @@
         <v>1000</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA58" t="n">
         <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD58" t="n">
         <v>1000</v>
@@ -8305,7 +8305,7 @@
         <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG58" t="n">
         <v>1000</v>
@@ -8329,7 +8329,7 @@
         <v>1000</v>
       </c>
       <c r="AN58" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,132 +8348,132 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="G59" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="H59" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="I59" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="J59" t="n">
-        <v>2.86</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="L59" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="M59" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="N59" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="O59" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="P59" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="R59" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S59" t="n">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="T59" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="U59" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V59" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="X59" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Y59" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z59" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA59" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB59" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD59" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE59" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF59" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG59" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH59" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI59" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK59" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL59" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8483,125 +8483,260 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>21:15:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>CA Independiente</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Lanus</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="G60" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="H60" t="n">
         <v>4.2</v>
       </c>
       <c r="I60" t="n">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="J60" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X60" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J61" t="n">
         <v>3</v>
       </c>
-      <c r="K60" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R60" t="n">
+      <c r="K61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R61" t="n">
         <v>1.1</v>
       </c>
-      <c r="S60" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W60" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="X60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO60" t="n">
+      <c r="S61" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO61" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -1081,10 +1081,10 @@
         <v>2.34</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>3.9</v>
@@ -1120,7 +1120,7 @@
         <v>2.16</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="W5" t="n">
         <v>1.41</v>
@@ -1348,10 +1348,10 @@
         <v>2.96</v>
       </c>
       <c r="H7" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="I7" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J7" t="n">
         <v>3.3</v>
@@ -1495,7 +1495,7 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1630,7 +1630,7 @@
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1747,55 +1747,55 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.2</v>
+        <v>2.76</v>
       </c>
       <c r="G10" t="n">
         <v>2.8</v>
       </c>
       <c r="H10" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.59</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>980</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.11</v>
+        <v>3.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.22</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>1.23</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.03</v>
+        <v>1.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.03</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W10" t="n">
         <v>1.55</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>1.68</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="J11" t="n">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>7.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
@@ -1909,31 +1909,31 @@
         <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>1.25</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.98</v>
       </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T11" t="n">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.03</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>3.35</v>
       </c>
       <c r="I15" t="n">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J15" t="n">
         <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2590,7 +2590,7 @@
         <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>1.02</v>
       </c>
       <c r="R16" t="n">
         <v>1.24</v>
@@ -2614,10 +2614,10 @@
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>22</v>
@@ -2635,13 +2635,13 @@
         <v>85</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
         <v>100</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.89</v>
       </c>
       <c r="G21" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>4.7</v>
@@ -3283,7 +3283,7 @@
         <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X21" t="n">
         <v>11.5</v>
@@ -3550,7 +3550,7 @@
         <v>2.18</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W23" t="n">
         <v>1.43</v>
@@ -3643,7 +3643,7 @@
         <v>2.22</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>4.2</v>
@@ -3667,10 +3667,10 @@
         <v>1.25</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R24" t="n">
         <v>1.49</v>
@@ -3787,7 +3787,7 @@
         <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L25" t="n">
         <v>1.41</v>
@@ -4456,7 +4456,7 @@
         <v>5.3</v>
       </c>
       <c r="I30" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.25</v>
@@ -4492,7 +4492,7 @@
         <v>2.12</v>
       </c>
       <c r="U30" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V30" t="n">
         <v>1.13</v>
@@ -5125,7 +5125,7 @@
         <v>1.68</v>
       </c>
       <c r="G35" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="H35" t="n">
         <v>5.4</v>
@@ -5173,7 +5173,7 @@
         <v>1.17</v>
       </c>
       <c r="W35" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X35" t="n">
         <v>980</v>
@@ -5281,7 +5281,7 @@
         <v>1.13</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O36" t="n">
         <v>1.6</v>
@@ -5392,19 +5392,19 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I37" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="n">
         <v>3.15</v>
@@ -5413,7 +5413,7 @@
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N37" t="n">
         <v>2.5</v>
@@ -5434,70 +5434,70 @@
         <v>5.8</v>
       </c>
       <c r="T37" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U37" t="n">
         <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="X37" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="Z37" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AA37" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AB37" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC37" t="n">
         <v>7.2</v>
       </c>
       <c r="AD37" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AE37" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>55</v>
       </c>
-      <c r="AF37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI37" t="n">
+      <c r="AK37" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL37" t="n">
         <v>85</v>
       </c>
-      <c r="AJ37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>75</v>
-      </c>
       <c r="AM37" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN37" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AO37" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
@@ -6340,7 +6340,7 @@
         <v>3.5</v>
       </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H44" t="n">
         <v>2.14</v>
@@ -6388,7 +6388,7 @@
         <v>1.65</v>
       </c>
       <c r="W44" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6481,7 +6481,7 @@
         <v>2.3</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J45" t="n">
         <v>3.2</v>
@@ -6520,7 +6520,7 @@
         <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W45" t="n">
         <v>1.34</v>
@@ -7045,7 +7045,7 @@
         <v>1.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R49" t="n">
         <v>1.15</v>
@@ -7153,7 +7153,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="I50" t="n">
         <v>7.2</v>
@@ -7198,7 +7198,7 @@
         <v>1.16</v>
       </c>
       <c r="W50" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7465,7 +7465,7 @@
         <v>1.65</v>
       </c>
       <c r="V52" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W52" t="n">
         <v>1.51</v>
@@ -8188,7 +8188,7 @@
         <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO61"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
         <v>3.05</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O2" t="n">
         <v>1.35</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>1.05</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>1.03</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W2" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -802,34 +802,34 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>1.84</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
         <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P3" t="n">
         <v>2.24</v>
@@ -838,22 +838,22 @@
         <v>1.56</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.48</v>
       </c>
       <c r="S3" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="T3" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.46</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -940,13 +940,13 @@
         <v>3.7</v>
       </c>
       <c r="G4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="J4" t="n">
         <v>3.3</v>
@@ -967,7 +967,7 @@
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
         <v>2.02</v>
@@ -985,10 +985,10 @@
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="W4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,7 +1078,7 @@
         <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I5" t="n">
         <v>2.64</v>
@@ -1093,7 +1093,7 @@
         <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.8</v>
@@ -1105,16 +1105,16 @@
         <v>1.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U5" t="n">
         <v>2.16</v>
@@ -1210,19 +1210,19 @@
         <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1231,7 +1231,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
@@ -1255,16 +1255,16 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>4</v>
@@ -1369,31 +1369,31 @@
         <v>2.12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
@@ -1420,7 +1420,7 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
         <v>980</v>
@@ -1438,7 +1438,7 @@
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>80</v>
@@ -1483,31 +1483,31 @@
         <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O8" t="n">
         <v>1.41</v>
       </c>
       <c r="P8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" t="n">
         <v>2.2</v>
@@ -1525,7 +1525,7 @@
         <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
         <v>1.36</v>
@@ -1546,7 +1546,7 @@
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1612,91 +1612,91 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="G9" t="n">
         <v>3.15</v>
       </c>
       <c r="H9" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.46</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="P9" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S9" t="n">
-        <v>2.38</v>
+        <v>4.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.03</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,7 +1705,7 @@
         <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1738,67 +1738,67 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Notodden</t>
+          <t>Sandnes Ulf</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Traeff</t>
+          <t>Brattvag</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>1.45</v>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>2.58</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.75</v>
+        <v>1.11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.93</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>1.86</v>
       </c>
       <c r="T10" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.55</v>
+        <v>2.54</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1873,67 +1873,67 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sandnes Ulf</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Brattvag</t>
+          <t>Traeff</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>2.72</v>
       </c>
       <c r="G11" t="n">
-        <v>1.68</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>2.58</v>
       </c>
       <c r="I11" t="n">
-        <v>7.6</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
         <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.11</v>
+        <v>3.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
         <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.83</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>2.44</v>
+        <v>1.55</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
         <v>2.14</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P12" t="n">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T12" t="n">
-        <v>1.03</v>
+        <v>1.84</v>
       </c>
       <c r="U12" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="J13" t="n">
-        <v>1.03</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2179,91 +2179,91 @@
         <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>1.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.1</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
-        <v>1.1</v>
+        <v>1.89</v>
       </c>
       <c r="T13" t="n">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="U13" t="n">
-        <v>1.03</v>
+        <v>2.8</v>
       </c>
       <c r="V13" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="W13" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,33 +2273,33 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pors</t>
+          <t>FK FAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Brann II</t>
+          <t>FK Jedinstvo Ub</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
         <v>950</v>
@@ -2314,19 +2314,19 @@
         <v>1.11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="R14" t="n">
-        <v>1.34</v>
+        <v>1.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,72 +2408,72 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>SU Dinamo Jug</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atalanta B</t>
+          <t>FK Borac Cacak</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>1.02</v>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>610</v>
       </c>
       <c r="H15" t="n">
-        <v>3.35</v>
+        <v>1.02</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
+        <v>870</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.88</v>
+        <v>1.11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>1.05</v>
       </c>
       <c r="T15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V15" t="n">
         <v>1.01</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>1.01</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.76</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,123 +2543,123 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>FK Loznica</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>FK Kabel</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="G16" t="n">
-        <v>2.22</v>
+        <v>610</v>
       </c>
       <c r="H16" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="I16" t="n">
-        <v>4.8</v>
+        <v>870</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L16" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
         <v>1.11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.09</v>
       </c>
       <c r="S16" t="n">
         <v>1.05</v>
       </c>
       <c r="T16" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="U16" t="n">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="V16" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
         <v>1.01</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Fk Smederevo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Zemun</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="G17" t="n">
-        <v>3.7</v>
+        <v>610</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="I17" t="n">
-        <v>2.56</v>
+        <v>870</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>950</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.09</v>
       </c>
-      <c r="N17" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Atalanta B</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="G18" t="n">
-        <v>2.76</v>
+        <v>2.14</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>980</v>
       </c>
       <c r="J18" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.45</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>1.89</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="T18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.87</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.59</v>
-      </c>
       <c r="X18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Potenza</t>
+          <t>Pors</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>US Latina Calcio</t>
+          <t>Brann II</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="I19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K19" t="n">
         <v>5.1</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L19" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>1.11</v>
       </c>
       <c r="O19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.35</v>
       </c>
-      <c r="P19" t="n">
+      <c r="W19" t="n">
         <v>1.77</v>
       </c>
-      <c r="Q19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.86</v>
-      </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>48</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>24</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AN19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO19" t="n">
         <v>20</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Honefoss</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Stjordals-Blink</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>1.11</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.07</v>
+        <v>2.14</v>
       </c>
       <c r="R20" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>1.07</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,75 +3218,75 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Potenza</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>US Latina Calcio</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="H21" t="n">
-        <v>4.7</v>
+        <v>3.95</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
       </c>
       <c r="K21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S21" t="n">
         <v>3.7</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T21" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="X21" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y21" t="n">
         <v>15</v>
@@ -3295,10 +3295,10 @@
         <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC21" t="n">
         <v>9.4</v>
@@ -3307,43 +3307,43 @@
         <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK21" t="n">
         <v>980</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AM21" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
         <v>21</v>
       </c>
       <c r="AO21" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lysekloster</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>2.68</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>3.45</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.14</v>
+        <v>2.06</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="S22" t="n">
-        <v>1.14</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="U22" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>United IK Nordic</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.88</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>3.35</v>
+        <v>2.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.38</v>
+        <v>3.85</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.01</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X23" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>32</v>
       </c>
-      <c r="AF23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL23" t="n">
         <v>60</v>
       </c>
-      <c r="AK23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
-      </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Honefoss</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Stjordals-Blink</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="I24" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>3.45</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="P24" t="n">
-        <v>2.28</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.76</v>
+        <v>1.29</v>
       </c>
       <c r="R24" t="n">
-        <v>1.49</v>
+        <v>1.94</v>
       </c>
       <c r="S24" t="n">
-        <v>2.82</v>
+        <v>1.86</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.78</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="X24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.38</v>
+        <v>1.89</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>5.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>3.9</v>
+        <v>2.94</v>
       </c>
       <c r="O25" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="P25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W25" t="n">
         <v>2</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X25" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Y25" t="n">
         <v>14.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA25" t="n">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
         <v>11.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK25" t="n">
         <v>980</v>
       </c>
-      <c r="AK25" t="n">
-        <v>26</v>
-      </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
-        <v>980</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,78 +3893,78 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Union Espanola</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>Lysekloster</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.16</v>
+        <v>1.47</v>
       </c>
       <c r="G26" t="n">
-        <v>2.32</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
-        <v>3.25</v>
+        <v>5.4</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
         <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="R26" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>2.98</v>
+        <v>2.12</v>
       </c>
       <c r="T26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.13</v>
       </c>
       <c r="W26" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
         <v>1000</v>
@@ -3973,43 +3973,43 @@
         <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK26" t="n">
         <v>18</v>
       </c>
-      <c r="AG26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.5</v>
+        <v>6.8</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FK Vrsac</t>
+          <t>United IK Nordic</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>1.11</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.1</v>
+        <v>1.94</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.28</v>
+        <v>1.84</v>
       </c>
       <c r="R27" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="S27" t="n">
-        <v>1.28</v>
+        <v>3.15</v>
       </c>
       <c r="T27" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="U27" t="n">
-        <v>1.03</v>
+        <v>2.18</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.32</v>
+        <v>3.95</v>
       </c>
       <c r="I28" t="n">
-        <v>2.58</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>1.76</v>
       </c>
       <c r="R28" t="n">
-        <v>1.23</v>
+        <v>1.49</v>
       </c>
       <c r="S28" t="n">
-        <v>3.95</v>
+        <v>2.84</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="U28" t="n">
-        <v>1.87</v>
+        <v>2.48</v>
       </c>
       <c r="V28" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="W28" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.28</v>
+        <v>2.54</v>
       </c>
       <c r="G29" t="n">
-        <v>1.49</v>
+        <v>2.62</v>
       </c>
       <c r="H29" t="n">
-        <v>8.6</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
-        <v>1000</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
-        <v>9.4</v>
+        <v>3.55</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>1.99</v>
+        <v>3.95</v>
       </c>
       <c r="O29" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P29" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="R29" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S29" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="U29" t="n">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,78 +4433,78 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q30" t="n">
         <v>1.78</v>
       </c>
-      <c r="H30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="R30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S30" t="n">
         <v>2.92</v>
       </c>
-      <c r="O30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S30" t="n">
-        <v>4.3</v>
-      </c>
       <c r="T30" t="n">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="V30" t="n">
-        <v>1.13</v>
+        <v>1.38</v>
       </c>
       <c r="W30" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="X30" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4513,43 +4513,43 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
         <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,78 +4568,78 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ascoli</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Pontedera</t>
+          <t>FK Vrsac</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="G31" t="n">
-        <v>1.36</v>
+        <v>1000</v>
       </c>
       <c r="H31" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="I31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>1.02</v>
       </c>
       <c r="K31" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>1.11</v>
       </c>
       <c r="O31" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="P31" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>1.28</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="S31" t="n">
-        <v>3.65</v>
+        <v>1.28</v>
       </c>
       <c r="T31" t="n">
-        <v>2.78</v>
+        <v>1.03</v>
       </c>
       <c r="U31" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="V31" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W31" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="X31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,43 +4648,43 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4708,67 +4708,67 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.86</v>
+        <v>1.28</v>
       </c>
       <c r="G32" t="n">
-        <v>3.35</v>
+        <v>1.35</v>
       </c>
       <c r="H32" t="n">
-        <v>2.46</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>2.82</v>
+        <v>19</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.06</v>
+        <v>1.72</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="S32" t="n">
-        <v>3.35</v>
+        <v>2.58</v>
       </c>
       <c r="T32" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="V32" t="n">
-        <v>1.54</v>
+        <v>1.05</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>3.8</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4783,13 +4783,13 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4798,7 +4798,7 @@
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,73 +4843,73 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Concon National FC</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="H33" t="n">
-        <v>1.02</v>
+        <v>2.32</v>
       </c>
       <c r="I33" t="n">
-        <v>1000</v>
+        <v>2.58</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>1.26</v>
+        <v>2.86</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.19</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
-        <v>1.19</v>
+        <v>3.95</v>
       </c>
       <c r="T33" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="U33" t="n">
-        <v>1.03</v>
+        <v>1.87</v>
       </c>
       <c r="V33" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="W33" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,73 +4978,73 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="G34" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H34" t="n">
-        <v>1.04</v>
+        <v>5.3</v>
       </c>
       <c r="I34" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>1.34</v>
+        <v>2.92</v>
       </c>
       <c r="O34" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P34" t="n">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.02</v>
+        <v>2.24</v>
       </c>
       <c r="R34" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>1.41</v>
+        <v>4.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="V34" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W34" t="n">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5053,43 +5053,43 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,102 +5108,102 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>River Plate (Uru)</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.68</v>
+        <v>1.02</v>
       </c>
       <c r="G35" t="n">
-        <v>1.77</v>
+        <v>1000</v>
       </c>
       <c r="H35" t="n">
-        <v>5.4</v>
+        <v>1.02</v>
       </c>
       <c r="I35" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K35" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>2.96</v>
+        <v>1.26</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="P35" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.28</v>
+        <v>1.19</v>
       </c>
       <c r="R35" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="S35" t="n">
-        <v>4.3</v>
+        <v>1.19</v>
       </c>
       <c r="T35" t="n">
-        <v>2.12</v>
+        <v>1.03</v>
       </c>
       <c r="U35" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="V35" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W35" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="X35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH35" t="n">
         <v>1000</v>
@@ -5212,19 +5212,19 @@
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
         <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="H36" t="n">
-        <v>4.3</v>
+        <v>2.46</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>2.82</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K36" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M36" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>2.48</v>
+        <v>2.88</v>
       </c>
       <c r="O36" t="n">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="R36" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7</v>
+        <v>3.35</v>
       </c>
       <c r="T36" t="n">
-        <v>2.22</v>
+        <v>1.79</v>
       </c>
       <c r="U36" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="X36" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.6</v>
+        <v>1.36</v>
       </c>
       <c r="G37" t="n">
-        <v>2.72</v>
+        <v>1000</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>2.96</v>
+        <v>1.03</v>
       </c>
       <c r="K37" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>2.5</v>
+        <v>1.34</v>
       </c>
       <c r="O37" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.76</v>
+        <v>1.02</v>
       </c>
       <c r="R37" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S37" t="n">
-        <v>5.8</v>
+        <v>1.41</v>
       </c>
       <c r="T37" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="V37" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="W37" t="n">
-        <v>1.59</v>
+        <v>1.02</v>
       </c>
       <c r="X37" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Ascoli</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Pontedera</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1.28</v>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>1.34</v>
       </c>
       <c r="H38" t="n">
-        <v>2.32</v>
+        <v>16</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>19.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.86</v>
+        <v>5.1</v>
       </c>
       <c r="K38" t="n">
-        <v>3.05</v>
+        <v>6.2</v>
       </c>
       <c r="L38" t="n">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="M38" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>2.14</v>
+        <v>3.35</v>
       </c>
       <c r="O38" t="n">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="P38" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="Q38" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="R38" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>7.8</v>
+        <v>3.65</v>
       </c>
       <c r="T38" t="n">
-        <v>2.58</v>
+        <v>2.72</v>
       </c>
       <c r="U38" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="V38" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="W38" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="X38" t="n">
-        <v>6.6</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.2</v>
+        <v>46</v>
       </c>
       <c r="Z38" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF38" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AG38" t="n">
         <v>14</v>
       </c>
-      <c r="AE38" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>21</v>
-      </c>
       <c r="AH38" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AI38" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL38" t="n">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="AM38" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>180</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,102 +5648,102 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>River Plate (Uru)</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O39" t="n">
         <v>1.44</v>
       </c>
-      <c r="G39" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="H39" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="I39" t="n">
-        <v>10</v>
-      </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" t="n">
-        <v>500</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P39" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R39" t="n">
-        <v>1.37</v>
+        <v>1.24</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T39" t="n">
         <v>1.96</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="V39" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="W39" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5752,19 +5752,19 @@
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brujas de Salamanca</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Deportes Melipilla</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.02</v>
+        <v>2.12</v>
       </c>
       <c r="G40" t="n">
-        <v>1000</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
-        <v>1.02</v>
+        <v>4.4</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L40" t="n">
         <v>1.01</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N40" t="n">
-        <v>1.34</v>
+        <v>2.48</v>
       </c>
       <c r="O40" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="P40" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.32</v>
+        <v>2.74</v>
       </c>
       <c r="R40" t="n">
         <v>1.17</v>
       </c>
       <c r="S40" t="n">
-        <v>1.32</v>
+        <v>5.7</v>
       </c>
       <c r="T40" t="n">
-        <v>1.03</v>
+        <v>2.22</v>
       </c>
       <c r="U40" t="n">
-        <v>1.03</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W40" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Westchester SC</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>FC Naples</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.02</v>
+        <v>2.62</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>2.7</v>
       </c>
       <c r="H41" t="n">
-        <v>1.02</v>
+        <v>3.35</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N41" t="n">
-        <v>1.32</v>
+        <v>2.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="P41" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="R41" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="S41" t="n">
-        <v>1.25</v>
+        <v>5.8</v>
       </c>
       <c r="T41" t="n">
-        <v>1.03</v>
+        <v>2.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="X41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z41" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB41" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC41" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD41" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE41" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG41" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI41" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL41" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM41" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN41" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO41" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,108 +6053,108 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H42" t="n">
-        <v>2.56</v>
+        <v>2.3</v>
       </c>
       <c r="I42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K42" t="n">
         <v>3.05</v>
       </c>
-      <c r="J42" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L42" t="n">
-        <v>1.33</v>
+        <v>1.74</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="O42" t="n">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="P42" t="n">
-        <v>1.79</v>
+        <v>1.37</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>3.35</v>
       </c>
       <c r="R42" t="n">
-        <v>1.3</v>
+        <v>1.12</v>
       </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>8</v>
       </c>
       <c r="T42" t="n">
-        <v>1.76</v>
+        <v>2.58</v>
       </c>
       <c r="U42" t="n">
-        <v>2.04</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>1.49</v>
+        <v>1.71</v>
       </c>
       <c r="W42" t="n">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB42" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC42" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD42" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF42" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG42" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
         <v>1000</v>
@@ -6163,22 +6163,22 @@
         <v>1000</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,105 +6188,105 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Nacional (Uru)</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6.6</v>
+        <v>1.44</v>
       </c>
       <c r="G43" t="n">
-        <v>9.199999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="H43" t="n">
-        <v>1.57</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>1.67</v>
+        <v>10.5</v>
       </c>
       <c r="J43" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K43" t="n">
-        <v>4.6</v>
+        <v>500</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q43" t="n">
         <v>1.83</v>
       </c>
-      <c r="O43" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P43" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.02</v>
-      </c>
       <c r="R43" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="S43" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U43" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="V43" t="n">
-        <v>2.48</v>
+        <v>1.12</v>
       </c>
       <c r="W43" t="n">
-        <v>1.12</v>
+        <v>2.78</v>
       </c>
       <c r="X43" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD43" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
         <v>1000</v>
       </c>
       <c r="AG43" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH43" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
@@ -6307,13 +6307,13 @@
         <v>1000</v>
       </c>
       <c r="AO43" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,36 +6323,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Brujas de Salamanca</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Deportes Melipilla</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.5</v>
+        <v>1.02</v>
       </c>
       <c r="G44" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H44" t="n">
-        <v>2.14</v>
+        <v>1.02</v>
       </c>
       <c r="I44" t="n">
-        <v>2.52</v>
+        <v>1000</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>1.02</v>
       </c>
       <c r="K44" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L44" t="n">
         <v>1.01</v>
@@ -6361,22 +6361,22 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>1.7</v>
+        <v>1.34</v>
       </c>
       <c r="O44" t="n">
         <v>1.01</v>
       </c>
       <c r="P44" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.16</v>
+        <v>1.32</v>
       </c>
       <c r="R44" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S44" t="n">
-        <v>2.18</v>
+        <v>1.32</v>
       </c>
       <c r="T44" t="n">
         <v>1.03</v>
@@ -6385,10 +6385,10 @@
         <v>1.03</v>
       </c>
       <c r="V44" t="n">
-        <v>1.65</v>
+        <v>1.01</v>
       </c>
       <c r="W44" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Westchester SC</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>FC Naples</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.65</v>
+        <v>1.02</v>
       </c>
       <c r="G45" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="H45" t="n">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
       <c r="I45" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
       </c>
       <c r="M45" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>3.05</v>
+        <v>1.32</v>
       </c>
       <c r="O45" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.28</v>
+        <v>1.25</v>
       </c>
       <c r="R45" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="S45" t="n">
-        <v>4.3</v>
+        <v>1.25</v>
       </c>
       <c r="T45" t="n">
-        <v>1.91</v>
+        <v>1.03</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.03</v>
       </c>
       <c r="V45" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="W45" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,72 +6593,72 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.98</v>
+        <v>2.76</v>
       </c>
       <c r="G46" t="n">
-        <v>2.06</v>
+        <v>3.4</v>
       </c>
       <c r="H46" t="n">
-        <v>4.8</v>
+        <v>2.56</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>3.05</v>
       </c>
       <c r="J46" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="K46" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="M46" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="P46" t="n">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.68</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>5.7</v>
+        <v>3.55</v>
       </c>
       <c r="T46" t="n">
-        <v>2.24</v>
+        <v>1.76</v>
       </c>
       <c r="U46" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="V46" t="n">
-        <v>1.21</v>
+        <v>1.49</v>
       </c>
       <c r="W46" t="n">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="X46" t="n">
         <v>1000</v>
@@ -6670,10 +6670,10 @@
         <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB46" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC46" t="n">
         <v>1000</v>
@@ -6682,7 +6682,7 @@
         <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF46" t="n">
         <v>1000</v>
@@ -6694,7 +6694,7 @@
         <v>1000</v>
       </c>
       <c r="AI46" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ46" t="n">
         <v>1000</v>
@@ -6718,7 +6718,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6733,106 +6733,106 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Nacional (Uru)</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.6</v>
+        <v>6.6</v>
       </c>
       <c r="G47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I47" t="n">
         <v>1.67</v>
       </c>
-      <c r="H47" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8.4</v>
-      </c>
       <c r="J47" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K47" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="L47" t="n">
         <v>1.01</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N47" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="P47" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="R47" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S47" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="U47" t="n">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="V47" t="n">
-        <v>1.14</v>
+        <v>2.48</v>
       </c>
       <c r="W47" t="n">
-        <v>2.46</v>
+        <v>1.12</v>
       </c>
       <c r="X47" t="n">
-        <v>980</v>
+        <v>19</v>
       </c>
       <c r="Y47" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="Z47" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB47" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AH47" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
       </c>
       <c r="AJ47" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK47" t="n">
         <v>1000</v>
@@ -6847,13 +6847,13 @@
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.18</v>
+        <v>3.6</v>
       </c>
       <c r="G48" t="n">
-        <v>2.24</v>
+        <v>4.8</v>
       </c>
       <c r="H48" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="I48" t="n">
-        <v>4.4</v>
+        <v>2.52</v>
       </c>
       <c r="J48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S48" t="n">
         <v>3.2</v>
       </c>
-      <c r="K48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N48" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5.2</v>
-      </c>
       <c r="T48" t="n">
-        <v>2.16</v>
+        <v>1.03</v>
       </c>
       <c r="U48" t="n">
-        <v>1.77</v>
+        <v>1.03</v>
       </c>
       <c r="V48" t="n">
-        <v>1.29</v>
+        <v>1.66</v>
       </c>
       <c r="W48" t="n">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="X48" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Y48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z48" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.6</v>
+        <v>18</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD48" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AE48" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AH48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI48" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ48" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK48" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL48" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM48" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.2</v>
+        <v>3.65</v>
       </c>
       <c r="G49" t="n">
-        <v>2.36</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
-        <v>4.1</v>
+        <v>2.34</v>
       </c>
       <c r="I49" t="n">
-        <v>4.6</v>
+        <v>2.42</v>
       </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L49" t="n">
         <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q49" t="n">
         <v>2.34</v>
       </c>
-      <c r="O49" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P49" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2.88</v>
-      </c>
       <c r="R49" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="S49" t="n">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="T49" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="U49" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="W49" t="n">
-        <v>1.73</v>
+        <v>1.35</v>
       </c>
       <c r="X49" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Z49" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA49" t="n">
         <v>980</v>
       </c>
-      <c r="AA49" t="n">
-        <v>140</v>
-      </c>
       <c r="AB49" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF49" t="n">
         <v>980</v>
       </c>
       <c r="AG49" t="n">
-        <v>980</v>
+        <v>17.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI49" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="AJ49" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL49" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="AN49" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,72 +7133,72 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="I50" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="J50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K50" t="n">
         <v>3.3</v>
       </c>
-      <c r="K50" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L50" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M50" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N50" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="O50" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="P50" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.04</v>
+        <v>2.74</v>
       </c>
       <c r="R50" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="S50" t="n">
-        <v>2.04</v>
+        <v>5.7</v>
       </c>
       <c r="T50" t="n">
-        <v>1.03</v>
+        <v>2.24</v>
       </c>
       <c r="U50" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V50" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="W50" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="X50" t="n">
         <v>1000</v>
@@ -7210,10 +7210,10 @@
         <v>1000</v>
       </c>
       <c r="AA50" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB50" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AC50" t="n">
         <v>1000</v>
@@ -7222,7 +7222,7 @@
         <v>1000</v>
       </c>
       <c r="AE50" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF50" t="n">
         <v>1000</v>
@@ -7234,7 +7234,7 @@
         <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ50" t="n">
         <v>1000</v>
@@ -7258,7 +7258,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,120 +7268,120 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>3.2</v>
+        <v>1.68</v>
       </c>
       <c r="G51" t="n">
-        <v>3.55</v>
+        <v>1.78</v>
       </c>
       <c r="H51" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>2.42</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
         <v>1.01</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N51" t="n">
         <v>3.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P51" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R51" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T51" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="V51" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="W51" t="n">
-        <v>1.39</v>
+        <v>2.28</v>
       </c>
       <c r="X51" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.6</v>
+        <v>980</v>
       </c>
       <c r="Z51" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD51" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AE51" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF51" t="n">
-        <v>24</v>
+        <v>10.5</v>
       </c>
       <c r="AG51" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AH51" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK51" t="n">
         <v>1000</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="AN51" t="n">
         <v>1000</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.34</v>
+        <v>2.18</v>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>2.26</v>
       </c>
       <c r="H52" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="J52" t="n">
-        <v>2.74</v>
+        <v>3.2</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N52" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="O52" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="P52" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="S52" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="T52" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="U52" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="V52" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="W52" t="n">
-        <v>1.51</v>
+        <v>1.79</v>
       </c>
       <c r="X52" t="n">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y52" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="Z52" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB52" t="n">
-        <v>980</v>
+        <v>7.4</v>
       </c>
       <c r="AC52" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="AD52" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF52" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG52" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AH52" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK52" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL52" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,120 +7538,120 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="G53" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="H53" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I53" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="J53" t="n">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="K53" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="L53" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N53" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="O53" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="P53" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.32</v>
+        <v>2.9</v>
       </c>
       <c r="R53" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="S53" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="T53" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="U53" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="V53" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W53" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="X53" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y53" t="n">
         <v>11</v>
       </c>
-      <c r="Y53" t="n">
-        <v>13.5</v>
-      </c>
       <c r="Z53" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA53" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AE53" t="n">
         <v>1000</v>
       </c>
       <c r="AF53" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH53" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AI53" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AJ53" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AK53" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AL53" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="AM53" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="AN53" t="n">
         <v>980</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,120 +7673,120 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="G54" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="J54" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K54" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L54" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R54" t="n">
         <v>1.1</v>
       </c>
-      <c r="N54" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.19</v>
-      </c>
       <c r="S54" t="n">
-        <v>5.1</v>
+        <v>2.04</v>
       </c>
       <c r="T54" t="n">
-        <v>2.22</v>
+        <v>1.03</v>
       </c>
       <c r="U54" t="n">
-        <v>1.71</v>
+        <v>1.03</v>
       </c>
       <c r="V54" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="W54" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="X54" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y54" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z54" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA54" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB54" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD54" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE54" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AG54" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH54" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI54" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ54" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK54" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL54" t="n">
         <v>1000</v>
       </c>
       <c r="AM54" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN54" t="n">
         <v>1000</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7808,132 +7808,132 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="G55" t="n">
-        <v>1.47</v>
+        <v>3.55</v>
       </c>
       <c r="H55" t="n">
-        <v>10</v>
+        <v>2.34</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>2.42</v>
       </c>
       <c r="J55" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="O55" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P55" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R55" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="S55" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T55" t="n">
-        <v>2.4</v>
+        <v>1.84</v>
       </c>
       <c r="U55" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="V55" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="W55" t="n">
-        <v>3.15</v>
+        <v>1.39</v>
       </c>
       <c r="X55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y55" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="Z55" t="n">
-        <v>100</v>
+        <v>16.5</v>
       </c>
       <c r="AA55" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AB55" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AC55" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AD55" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
-        <v>7.2</v>
+        <v>24</v>
       </c>
       <c r="AG55" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH55" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AI55" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK55" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL55" t="n">
-        <v>580</v>
+        <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO55" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,123 +7943,123 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.61</v>
+        <v>2.7</v>
       </c>
       <c r="G56" t="n">
-        <v>1.75</v>
+        <v>3.05</v>
       </c>
       <c r="H56" t="n">
-        <v>5.9</v>
+        <v>2.78</v>
       </c>
       <c r="I56" t="n">
-        <v>8.199999999999999</v>
+        <v>3.25</v>
       </c>
       <c r="J56" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="K56" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>1.82</v>
+        <v>3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P56" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R56" t="n">
         <v>1.26</v>
       </c>
       <c r="S56" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T56" t="n">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="U56" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="V56" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="W56" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="X56" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC56" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD56" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AG56" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH56" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN56" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,132 +8078,132 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>2.92</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.58</v>
+        <v>4.4</v>
       </c>
       <c r="I57" t="n">
-        <v>2.66</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.6</v>
       </c>
-      <c r="K57" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L57" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="M57" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N57" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="O57" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="P57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q57" t="n">
         <v>2.14</v>
       </c>
-      <c r="Q57" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R57" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="S57" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T57" t="n">
-        <v>1.66</v>
+        <v>2.04</v>
       </c>
       <c r="U57" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="V57" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="W57" t="n">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="X57" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Y57" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AA57" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AB57" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD57" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AE57" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>21</v>
+        <v>11.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AI57" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AJ57" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AK57" t="n">
         <v>30</v>
       </c>
       <c r="AL57" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM57" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN57" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AO57" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,123 +8213,123 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="G58" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="H58" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X58" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF58" t="n">
         <v>10</v>
       </c>
-      <c r="I58" t="n">
-        <v>17</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S58" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V58" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W58" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>160</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AG58" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH58" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI58" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL58" t="n">
         <v>1000</v>
       </c>
       <c r="AM58" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AN58" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AO58" t="n">
         <v>1000</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,132 +8348,132 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F59" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T59" t="n">
         <v>2.4</v>
       </c>
-      <c r="G59" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R59" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T59" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U59" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="V59" t="n">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="W59" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="X59" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y59" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z59" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA59" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB59" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AD59" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE59" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AG59" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI59" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN59" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8483,132 +8483,132 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.2</v>
+        <v>1.61</v>
       </c>
       <c r="G60" t="n">
-        <v>2.34</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="I60" t="n">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>2.86</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="L60" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="M60" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="N60" t="n">
-        <v>2.26</v>
+        <v>1.83</v>
       </c>
       <c r="O60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T60" t="n">
         <v>1.7</v>
       </c>
-      <c r="P60" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R60" t="n">
+      <c r="U60" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V60" t="n">
         <v>1.14</v>
       </c>
-      <c r="S60" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U60" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V60" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W60" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="X60" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Y60" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB60" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z60" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AC60" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AD60" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE60" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH60" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AI60" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK60" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AL60" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AM60" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AO60" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,125 +8618,665 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Aguilas Doradas</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Deportivo Pasto</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="G61" t="n">
-        <v>1.86</v>
+        <v>3.1</v>
       </c>
       <c r="H61" t="n">
-        <v>5.3</v>
+        <v>2.52</v>
       </c>
       <c r="I61" t="n">
-        <v>8.4</v>
+        <v>2.58</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K61" t="n">
         <v>3.7</v>
       </c>
       <c r="L61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Atletico Bucaramanga</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Union Magdalena</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="n">
+        <v>17</v>
+      </c>
+      <c r="J62" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L62" t="n">
         <v>1.01</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W62" t="n">
+        <v>3</v>
+      </c>
+      <c r="X62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>160</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N64" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S64" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X64" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Aguilas Doradas</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Deportivo Pasto</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L65" t="n">
         <v>1.01</v>
       </c>
-      <c r="N61" t="n">
+      <c r="M65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P65" t="n">
         <v>1.55</v>
       </c>
-      <c r="O61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S61" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="U61" t="n">
+      <c r="Q65" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U65" t="n">
         <v>1.57</v>
       </c>
-      <c r="V61" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W61" t="n">
+      <c r="V65" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W65" t="n">
         <v>2.16</v>
       </c>
-      <c r="X61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO61" t="n">
+      <c r="X65" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO65"/>
+  <dimension ref="A1:AO67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,28 +667,28 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.25</v>
@@ -700,7 +700,7 @@
         <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
         <v>1.29</v>
@@ -709,16 +709,16 @@
         <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9.199999999999999</v>
@@ -742,7 +742,7 @@
         <v>17.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>19</v>
@@ -760,7 +760,7 @@
         <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>55</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -835,25 +835,25 @@
         <v>2.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
         <v>1.74</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W3" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="I4" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="J4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="W4" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1003,7 +1003,7 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
         <v>1000</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1075,97 +1075,97 @@
         <v>2.94</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H5" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
         <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V5" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="n">
         <v>19</v>
       </c>
-      <c r="Y5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>20</v>
-      </c>
       <c r="AA5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB5" t="n">
         <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF5" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
         <v>16.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>65</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL5" t="n">
         <v>55</v>
@@ -1177,7 +1177,7 @@
         <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1207,37 +1207,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q6" t="n">
         <v>1.95</v>
@@ -1249,7 +1249,7 @@
         <v>3.45</v>
       </c>
       <c r="T6" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="U6" t="n">
         <v>1.94</v>
@@ -1258,13 +1258,13 @@
         <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
         <v>2.5</v>
       </c>
       <c r="I7" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>2.82</v>
       </c>
       <c r="T7" t="n">
         <v>1.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V7" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="W7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
         <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>980</v>
@@ -1420,7 +1420,7 @@
         <v>980</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
         <v>980</v>
@@ -1432,13 +1432,13 @@
         <v>980</v>
       </c>
       <c r="AJ7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
         <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>80</v>
@@ -1480,13 +1480,13 @@
         <v>3.15</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J8" t="n">
         <v>3.15</v>
@@ -1525,10 +1525,10 @@
         <v>1.89</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>2.54</v>
       </c>
       <c r="G9" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>2.88</v>
@@ -1639,7 +1639,7 @@
         <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
         <v>1.54</v>
@@ -1663,7 +1663,7 @@
         <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
         <v>11</v>
@@ -1675,7 +1675,7 @@
         <v>26</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1687,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -1747,58 +1747,58 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
         <v>7.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>1.93</v>
+        <v>2.88</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="S10" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="V10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W10" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1849,7 +1849,7 @@
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1882,58 +1882,58 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.72</v>
+        <v>2.22</v>
       </c>
       <c r="G11" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H11" t="n">
-        <v>2.58</v>
+        <v>1.09</v>
       </c>
       <c r="I11" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>980</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>3.5</v>
+        <v>1.11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.27</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="S11" t="n">
-        <v>2.8</v>
+        <v>1.74</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.03</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="W11" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
@@ -2038,7 +2038,7 @@
         <v>1.37</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
         <v>2.8</v>
@@ -2056,7 +2056,7 @@
         <v>1.28</v>
       </c>
       <c r="S12" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
         <v>1.84</v>
@@ -2065,10 +2065,10 @@
         <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,43 +2152,43 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I13" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S13" t="n">
         <v>1.89</v>
@@ -2197,13 +2197,13 @@
         <v>1.45</v>
       </c>
       <c r="U13" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="V13" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X13" t="n">
         <v>42</v>
@@ -2212,10 +2212,10 @@
         <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AB13" t="n">
         <v>29</v>
@@ -2227,25 +2227,25 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH13" t="n">
         <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
         <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
         <v>38</v>
@@ -2254,10 +2254,10 @@
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="14">
@@ -2326,7 +2326,7 @@
         <v>1.1</v>
       </c>
       <c r="S14" t="n">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="T14" t="n">
         <v>1.03</v>
@@ -2458,7 +2458,7 @@
         <v>1.01</v>
       </c>
       <c r="R15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.05</v>
@@ -2593,7 +2593,7 @@
         <v>1.01</v>
       </c>
       <c r="R16" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S16" t="n">
         <v>1.05</v>
@@ -2716,19 +2716,19 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q17" t="n">
         <v>1.45</v>
       </c>
       <c r="R17" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="S17" t="n">
         <v>1.05</v>
@@ -2827,58 +2827,58 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.28</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>1.89</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
         <v>1.26</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S18" t="n">
         <v>2.62</v>
       </c>
       <c r="T18" t="n">
-        <v>1.03</v>
+        <v>1.69</v>
       </c>
       <c r="U18" t="n">
-        <v>1.03</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P19" t="n">
         <v>2.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.76</v>
       </c>
       <c r="S19" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T19" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U19" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Y19" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH19" t="n">
         <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>38</v>
       </c>
       <c r="AJ19" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>55</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Siracusa</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trapani</t>
+          <t>Sorrento</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>2.82</v>
       </c>
       <c r="H20" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="I20" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>6.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>1.69</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="S20" t="n">
-        <v>4</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="W20" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>S.S.D. Casarano Calcio</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="I22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.65</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>3</v>
+        <v>1.11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>1.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="W22" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>980</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL22" t="n">
         <v>60</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>S.S.D. Casarano Calcio</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="Q23" t="n">
         <v>2.06</v>
       </c>
       <c r="R23" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>1.05</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="U23" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="W23" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF23" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AG23" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AK23" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AL23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO23" t="n">
         <v>60</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Honefoss</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stjordals-Blink</t>
+          <t>Trapani</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.92</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.14</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.29</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.94</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>1.86</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="U24" t="n">
-        <v>2.78</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.37</v>
       </c>
-      <c r="W24" t="n">
-        <v>1.87</v>
-      </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Honefoss</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Wanderers (Uru)</t>
+          <t>Stjordals-Blink</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>980</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O25" t="n">
         <v>1.09</v>
       </c>
-      <c r="N25" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.44</v>
-      </c>
       <c r="P25" t="n">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>1.09</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.82</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>1.73</v>
       </c>
       <c r="T25" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="U25" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="V25" t="n">
         <v>1.23</v>
       </c>
       <c r="W25" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="X25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Norwegian 2nd Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Arendal</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Lysekloster</t>
+          <t>Wanderers (Uru)</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.47</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="I26" t="n">
-        <v>8.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>2.12</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="V26" t="n">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="W26" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB26" t="n">
-        <v>13.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ26" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN26" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Swedish Division 1</t>
+          <t>Norwegian 2nd Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Gefle</t>
+          <t>Arendal</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>United IK Nordic</t>
+          <t>Lysekloster</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.88</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
-        <v>2.38</v>
+        <v>5.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.7</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>980</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>1.11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="P27" t="n">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.84</v>
+        <v>1.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="S27" t="n">
-        <v>3.15</v>
+        <v>2.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.7</v>
+        <v>1.03</v>
       </c>
       <c r="U27" t="n">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
       <c r="V27" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.43</v>
+        <v>2.3</v>
       </c>
       <c r="X27" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swedish Division 1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:15:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sporting Gijon</t>
+          <t>Gefle</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>United IK Nordic</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.14</v>
+        <v>2.88</v>
       </c>
       <c r="G28" t="n">
-        <v>2.2</v>
+        <v>3.35</v>
       </c>
       <c r="H28" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>2.44</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="S28" t="n">
-        <v>2.84</v>
+        <v>3.15</v>
       </c>
       <c r="T28" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="X28" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z28" t="n">
         <v>21</v>
       </c>
-      <c r="Y28" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>980</v>
-      </c>
       <c r="AA28" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF28" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK28" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL28" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN28" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Sporting Gijon</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>CD Castellon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.54</v>
+        <v>2.14</v>
       </c>
       <c r="G29" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="O29" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.94</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>2.84</v>
       </c>
       <c r="T29" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="U29" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="W29" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>13.5</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
         <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF29" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI29" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AM29" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Union Espanola</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Huachipato</t>
+          <t>CD Castellon</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="J30" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="U30" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="W30" t="n">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN30" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,67 +4573,67 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Vozdovac</t>
+          <t>Union Espanola</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FK Vrsac</t>
+          <t>Huachipato</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="G31" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H31" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="I31" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J31" t="n">
-        <v>1.02</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>1.11</v>
+        <v>4.2</v>
       </c>
       <c r="O31" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="n">
-        <v>1.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="R31" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>1.28</v>
+        <v>2.92</v>
       </c>
       <c r="T31" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>2.28</v>
       </c>
       <c r="V31" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W31" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,7 +4660,7 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,72 +4703,72 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Vozdovac</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Team Altamura</t>
+          <t>FK Vrsac</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="G32" t="n">
-        <v>1.35</v>
+        <v>1000</v>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>1.01</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="J32" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="K32" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>3.55</v>
+        <v>1.11</v>
       </c>
       <c r="O32" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>1.1</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="R32" t="n">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="S32" t="n">
-        <v>2.58</v>
+        <v>1.28</v>
       </c>
       <c r="T32" t="n">
-        <v>2.24</v>
+        <v>1.03</v>
       </c>
       <c r="U32" t="n">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="V32" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W32" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4783,7 +4783,7 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
         <v>1000</v>
@@ -4798,7 +4798,7 @@
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4843,73 +4843,73 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Team Altamura</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>1.33</v>
       </c>
       <c r="G33" t="n">
-        <v>3.9</v>
+        <v>1.35</v>
       </c>
       <c r="H33" t="n">
-        <v>2.32</v>
+        <v>7.4</v>
       </c>
       <c r="I33" t="n">
+        <v>19</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.58</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.95</v>
-      </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="U33" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="V33" t="n">
-        <v>1.63</v>
+        <v>1.06</v>
       </c>
       <c r="W33" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,10 +4930,10 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4954,7 +4954,7 @@
         <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4978,73 +4978,73 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.64</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>1.78</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>5.3</v>
+        <v>2.32</v>
       </c>
       <c r="I34" t="n">
-        <v>8.4</v>
+        <v>2.58</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K34" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O34" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="W34" t="n">
-        <v>2.28</v>
+        <v>1.35</v>
       </c>
       <c r="X34" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
         <v>1000</v>
@@ -5053,43 +5053,43 @@
         <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
         <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
         <v>1000</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5113,73 +5113,73 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Concon National FC</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.02</v>
+        <v>1.64</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>1.78</v>
       </c>
       <c r="H35" t="n">
-        <v>1.02</v>
+        <v>5.3</v>
       </c>
       <c r="I35" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="J35" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>1.26</v>
+        <v>2.92</v>
       </c>
       <c r="O35" t="n">
-        <v>1.19</v>
+        <v>1.42</v>
       </c>
       <c r="P35" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.19</v>
+        <v>2.24</v>
       </c>
       <c r="R35" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
-        <v>1.19</v>
+        <v>4.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.03</v>
+        <v>2.12</v>
       </c>
       <c r="U35" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="V35" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="W35" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X35" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="n">
         <v>1000</v>
@@ -5188,43 +5188,43 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AC35" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI35" t="n">
         <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO35" t="n">
         <v>1000</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5248,67 +5248,67 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Puerto Montt</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Concon National FC</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.86</v>
+        <v>1.37</v>
       </c>
       <c r="G36" t="n">
-        <v>3.35</v>
+        <v>1.66</v>
       </c>
       <c r="H36" t="n">
-        <v>2.46</v>
+        <v>4.9</v>
       </c>
       <c r="I36" t="n">
-        <v>2.82</v>
+        <v>1000</v>
       </c>
       <c r="J36" t="n">
-        <v>2.88</v>
+        <v>4.3</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>950</v>
       </c>
       <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R36" t="n">
         <v>1.38</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.28</v>
-      </c>
       <c r="S36" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="V36" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="W36" t="n">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5326,7 +5326,7 @@
         <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,67 +5383,67 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Union San Felipe</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Club Deportes Santa Cruz</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.36</v>
       </c>
-      <c r="G37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K37" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P37" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="R37" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S37" t="n">
-        <v>1.41</v>
+        <v>3.35</v>
       </c>
       <c r="T37" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W37" t="n">
-        <v>1.02</v>
+        <v>1.43</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5461,10 +5461,10 @@
         <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="G38" t="n">
         <v>1.34</v>
@@ -5542,34 +5542,34 @@
         <v>5.1</v>
       </c>
       <c r="K38" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R38" t="n">
         <v>1.3</v>
       </c>
       <c r="S38" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T38" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="U38" t="n">
         <v>1.47</v>
@@ -5581,10 +5581,10 @@
         <v>3.9</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="Z38" t="n">
         <v>1000</v>
@@ -5593,13 +5593,13 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AC38" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
@@ -5629,7 +5629,7 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO38" t="n">
         <v>1000</v>
@@ -5638,7 +5638,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,102 +5648,102 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Juventud De Las Piedras</t>
+          <t>Union San Felipe</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>River Plate (Uru)</t>
+          <t>Club Deportes Santa Cruz</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="G39" t="n">
-        <v>1.82</v>
+        <v>1000</v>
       </c>
       <c r="H39" t="n">
-        <v>5.6</v>
+        <v>1.04</v>
       </c>
       <c r="I39" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J39" t="n">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S39" t="n">
         <v>1.41</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4.5</v>
-      </c>
       <c r="T39" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="U39" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="V39" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W39" t="n">
-        <v>2.22</v>
+        <v>1.02</v>
       </c>
       <c r="X39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA39" t="n">
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE39" t="n">
         <v>1000</v>
       </c>
       <c r="AF39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
         <v>1000</v>
@@ -5752,19 +5752,19 @@
         <v>1000</v>
       </c>
       <c r="AJ39" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK39" t="n">
         <v>1000</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM39" t="n">
         <v>1000</v>
       </c>
       <c r="AN39" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO39" t="n">
         <v>1000</v>
@@ -5773,7 +5773,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,126 +5783,126 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Juventud De Las Piedras</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>River Plate (Uru)</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="H40" t="n">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="I40" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="K40" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M40" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="O40" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V40" t="n">
         <v>1.17</v>
       </c>
-      <c r="S40" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="T40" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W40" t="n">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="X40" t="n">
-        <v>9.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y40" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="Z40" t="n">
         <v>980</v>
       </c>
       <c r="AA40" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.8</v>
+        <v>980</v>
       </c>
       <c r="AC40" t="n">
-        <v>7.8</v>
+        <v>980</v>
       </c>
       <c r="AD40" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AE40" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AG40" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH40" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
         <v>980</v>
       </c>
       <c r="AK40" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AO40" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
@@ -5923,43 +5923,43 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Burgos</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="G41" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O41" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="P41" t="n">
         <v>1.5</v>
@@ -5971,79 +5971,79 @@
         <v>1.17</v>
       </c>
       <c r="S41" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="U41" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V41" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="X41" t="n">
         <v>9.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA41" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AB41" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD41" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AF41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK41" t="n">
         <v>980</v>
       </c>
-      <c r="AG41" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>48</v>
-      </c>
       <c r="AL41" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM41" t="n">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="AN41" t="n">
         <v>980</v>
       </c>
       <c r="AO41" t="n">
-        <v>90</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Burgos</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Huracan</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="G42" t="n">
-        <v>4.4</v>
+        <v>2.72</v>
       </c>
       <c r="H42" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.42</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L42" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="M42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.18</v>
       </c>
-      <c r="N42" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="S42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U42" t="n">
         <v>1.77</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S42" t="n">
-        <v>8</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U42" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V42" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.29</v>
+        <v>1.58</v>
       </c>
       <c r="X42" t="n">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y42" t="n">
-        <v>6.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AA42" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF42" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AM42" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="AN42" t="n">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="AO42" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,108 +6188,108 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cobreloa Calama</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>Huracan</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.44</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>1.55</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
-        <v>10.5</v>
+        <v>2.44</v>
       </c>
       <c r="J43" t="n">
-        <v>4.1</v>
+        <v>2.88</v>
       </c>
       <c r="K43" t="n">
-        <v>500</v>
+        <v>2.94</v>
       </c>
       <c r="L43" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="N43" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="O43" t="n">
-        <v>1.3</v>
+        <v>1.77</v>
       </c>
       <c r="P43" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>3.35</v>
       </c>
       <c r="R43" t="n">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T43" t="n">
-        <v>1.96</v>
+        <v>2.56</v>
       </c>
       <c r="U43" t="n">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>1.12</v>
+        <v>1.69</v>
       </c>
       <c r="W43" t="n">
-        <v>2.78</v>
+        <v>1.31</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ43" t="n">
         <v>1000</v>
@@ -6298,22 +6298,22 @@
         <v>1000</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chilean Segunda Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,67 +6328,67 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Brujas de Salamanca</t>
+          <t>Cobreloa Calama</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Deportes Melipilla</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.02</v>
+        <v>1.44</v>
       </c>
       <c r="G44" t="n">
-        <v>1000</v>
+        <v>1.55</v>
       </c>
       <c r="H44" t="n">
-        <v>1.02</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>4.1</v>
       </c>
       <c r="K44" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>1.34</v>
+        <v>3.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="P44" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.32</v>
+        <v>1.81</v>
       </c>
       <c r="R44" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="S44" t="n">
-        <v>1.32</v>
+        <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.03</v>
+        <v>1.96</v>
       </c>
       <c r="U44" t="n">
-        <v>1.03</v>
+        <v>1.82</v>
       </c>
       <c r="V44" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W44" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="X44" t="n">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>US USL League One</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Westchester SC</t>
+          <t>Brujas de Salamanca</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>FC Naples</t>
+          <t>Deportes Melipilla</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="G45" t="n">
-        <v>1000</v>
+        <v>2.86</v>
       </c>
       <c r="H45" t="n">
-        <v>1.02</v>
+        <v>2.6</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>2.92</v>
       </c>
       <c r="K45" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>1.32</v>
+        <v>2.88</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="P45" t="n">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S45" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="U45" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W45" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="X45" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM45" t="n">
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>US USL League One</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6593,132 +6593,132 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sambenedettese</t>
+          <t>Westchester SC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>FC Naples</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="G46" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H46" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="J46" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="K46" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="Q46" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="R46" t="n">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="S46" t="n">
-        <v>3.55</v>
+        <v>2.6</v>
       </c>
       <c r="T46" t="n">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="U46" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="V46" t="n">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="W46" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="X46" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA46" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB46" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF46" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG46" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK46" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
         <v>1000</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Uruguayan Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,105 +6728,105 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Sambenedettese</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nacional (Uru)</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6.6</v>
+        <v>2.78</v>
       </c>
       <c r="G47" t="n">
-        <v>9.199999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="H47" t="n">
-        <v>1.57</v>
+        <v>2.58</v>
       </c>
       <c r="I47" t="n">
-        <v>1.67</v>
+        <v>2.9</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="L47" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M47" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>1.83</v>
+        <v>3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P47" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S47" t="n">
         <v>2.02</v>
       </c>
-      <c r="R47" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S47" t="n">
-        <v>3.3</v>
-      </c>
       <c r="T47" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="U47" t="n">
-        <v>1.03</v>
+        <v>2.06</v>
       </c>
       <c r="V47" t="n">
-        <v>2.48</v>
+        <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>1.12</v>
+        <v>1.46</v>
       </c>
       <c r="X47" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y47" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z47" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA47" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD47" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE47" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF47" t="n">
         <v>1000</v>
       </c>
       <c r="AG47" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AH47" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI47" t="n">
         <v>1000</v>
@@ -6847,13 +6847,13 @@
         <v>1000</v>
       </c>
       <c r="AO47" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Colombian Primera B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6868,127 +6868,127 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bogota</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Real Soacha Cundinamarca FC</t>
+          <t>Deportivo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="H48" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="I48" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K48" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="L48" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M48" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N48" t="n">
-        <v>1.7</v>
+        <v>3.05</v>
       </c>
       <c r="O48" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="P48" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.16</v>
+        <v>2.36</v>
       </c>
       <c r="R48" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="S48" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T48" t="n">
-        <v>1.03</v>
+        <v>1.99</v>
       </c>
       <c r="U48" t="n">
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="V48" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W48" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="X48" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Z48" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA48" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AB48" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD48" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AF48" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AG48" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK48" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN48" t="n">
         <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Colombian Primera B</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -7003,127 +7003,127 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Bogota</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Deportivo</t>
+          <t>Real Soacha Cundinamarca FC</t>
         </is>
       </c>
       <c r="F49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K49" t="n">
         <v>3.65</v>
       </c>
-      <c r="G49" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="P49" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.34</v>
+        <v>2.02</v>
       </c>
       <c r="R49" t="n">
         <v>1.25</v>
       </c>
       <c r="S49" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="T49" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="U49" t="n">
         <v>1.91</v>
       </c>
       <c r="V49" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W49" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="X49" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y49" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z49" t="n">
         <v>14</v>
       </c>
       <c r="AA49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
         <v>12</v>
       </c>
       <c r="AE49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL49" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
         <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Uruguayan Primera Division</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7138,91 +7138,91 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Operario PR</t>
+          <t>Nacional (Uru)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.98</v>
+        <v>6.6</v>
       </c>
       <c r="G50" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q50" t="n">
         <v>2.02</v>
       </c>
-      <c r="H50" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I50" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P50" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.74</v>
-      </c>
       <c r="R50" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="S50" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="T50" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="U50" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V50" t="n">
-        <v>1.21</v>
+        <v>2.48</v>
       </c>
       <c r="W50" t="n">
-        <v>1.98</v>
+        <v>1.14</v>
       </c>
       <c r="X50" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Z50" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AA50" t="n">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="AB50" t="n">
-        <v>6.4</v>
+        <v>25</v>
       </c>
       <c r="AC50" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD50" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE50" t="n">
-        <v>130</v>
+        <v>19.5</v>
       </c>
       <c r="AF50" t="n">
         <v>1000</v>
@@ -7234,7 +7234,7 @@
         <v>1000</v>
       </c>
       <c r="AI50" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
         <v>1000</v>
@@ -7252,13 +7252,13 @@
         <v>1000</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7273,106 +7273,106 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Santa Fe</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Llaneros FC</t>
+          <t>Operario PR</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>1.78</v>
+        <v>2.04</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="J51" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N51" t="n">
-        <v>3.05</v>
+        <v>2.46</v>
       </c>
       <c r="O51" t="n">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
       <c r="P51" t="n">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.2</v>
+        <v>2.74</v>
       </c>
       <c r="R51" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="S51" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="T51" t="n">
-        <v>1.98</v>
+        <v>2.26</v>
       </c>
       <c r="U51" t="n">
-        <v>1.79</v>
+        <v>1.67</v>
       </c>
       <c r="V51" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
-        <v>2.28</v>
+        <v>1.96</v>
       </c>
       <c r="X51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z51" t="n">
         <v>1000</v>
       </c>
       <c r="AA51" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB51" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AC51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE51" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AF51" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI51" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AJ51" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AK51" t="n">
         <v>1000</v>
@@ -7381,7 +7381,7 @@
         <v>1000</v>
       </c>
       <c r="AM51" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN51" t="n">
         <v>1000</v>
@@ -7393,7 +7393,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,126 +7403,126 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Santa Fe</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Atl Tucuman</t>
+          <t>Llaneros FC</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.18</v>
+        <v>1.67</v>
       </c>
       <c r="G52" t="n">
-        <v>2.26</v>
+        <v>1.76</v>
       </c>
       <c r="H52" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="J52" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K52" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="R52" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="S52" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="T52" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="U52" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V52" t="n">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="W52" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="X52" t="n">
-        <v>8.800000000000001</v>
+        <v>980</v>
       </c>
       <c r="Y52" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="Z52" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC52" t="n">
-        <v>7.2</v>
+        <v>980</v>
       </c>
       <c r="AD52" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AE52" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AF52" t="n">
-        <v>55</v>
+        <v>10.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH52" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI52" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AJ52" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL52" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM52" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AN52" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7543,127 +7543,127 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Independiente Rivadavia</t>
+          <t>Instituto</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Atl Tucuman</t>
         </is>
       </c>
       <c r="F53" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G53" t="n">
         <v>2.22</v>
       </c>
-      <c r="G53" t="n">
-        <v>2.34</v>
-      </c>
       <c r="H53" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
         <v>4.5</v>
       </c>
       <c r="J53" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K53" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L53" t="n">
         <v>1.01</v>
       </c>
       <c r="M53" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N53" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="O53" t="n">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="P53" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="R53" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="S53" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="T53" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="U53" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="V53" t="n">
         <v>1.28</v>
       </c>
       <c r="W53" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="X53" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Y53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z53" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK53" t="n">
         <v>32</v>
       </c>
-      <c r="AA53" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB53" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>980</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>980</v>
-      </c>
       <c r="AL53" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM53" t="n">
-        <v>310</v>
+        <v>230</v>
       </c>
       <c r="AN53" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AO53" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Chilean Primera B</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,123 +7673,123 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Univ de Concepcion</t>
+          <t>Independiente Rivadavia</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Curico Unido</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="H54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="K54" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
       </c>
       <c r="M54" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N54" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="O54" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="P54" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.04</v>
+        <v>2.92</v>
       </c>
       <c r="R54" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="S54" t="n">
-        <v>2.04</v>
+        <v>6.4</v>
       </c>
       <c r="T54" t="n">
-        <v>1.03</v>
+        <v>2.26</v>
       </c>
       <c r="U54" t="n">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="V54" t="n">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="W54" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Y54" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB54" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE54" t="n">
         <v>1000</v>
       </c>
       <c r="AF54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL54" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN54" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO54" t="n">
         <v>1000</v>
@@ -7798,7 +7798,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera B</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,118 +7813,118 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Club Sportivo Ameliano</t>
+          <t>Univ de Concepcion</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Guarani (Par)</t>
+          <t>Curico Unido</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="G55" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="H55" t="n">
-        <v>2.34</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>2.42</v>
+        <v>7.2</v>
       </c>
       <c r="J55" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K55" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L55" t="n">
         <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N55" t="n">
-        <v>3.05</v>
+        <v>2.52</v>
       </c>
       <c r="O55" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P55" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="R55" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="S55" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="U55" t="n">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="V55" t="n">
-        <v>1.7</v>
+        <v>1.16</v>
       </c>
       <c r="W55" t="n">
-        <v>1.39</v>
+        <v>2</v>
       </c>
       <c r="X55" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.6</v>
+        <v>19</v>
       </c>
       <c r="Z55" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AA55" t="n">
         <v>1000</v>
       </c>
       <c r="AB55" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
         <v>12</v>
       </c>
-      <c r="AC55" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD55" t="n">
+      <c r="AG55" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE55" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>15</v>
-      </c>
       <c r="AH55" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AI55" t="n">
         <v>1000</v>
       </c>
       <c r="AJ55" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK55" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL55" t="n">
         <v>60</v>
       </c>
       <c r="AM55" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN55" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AO55" t="n">
         <v>1000</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Segunda Division</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7943,105 +7943,105 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18:10:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Alianza FC Valledupar</t>
+          <t>Deportes Rengo Unido</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>CD Trasandino</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.7</v>
+        <v>1.02</v>
       </c>
       <c r="G56" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="H56" t="n">
-        <v>2.78</v>
+        <v>1.02</v>
       </c>
       <c r="I56" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="J56" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="K56" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L56" t="n">
         <v>1.01</v>
       </c>
       <c r="M56" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="O56" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="P56" t="n">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.08</v>
+        <v>1.23</v>
       </c>
       <c r="R56" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="S56" t="n">
-        <v>3.75</v>
+        <v>1.23</v>
       </c>
       <c r="T56" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="U56" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V56" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="W56" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="X56" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y56" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
@@ -8056,7 +8056,7 @@
         <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
         <v>1000</v>
@@ -8068,7 +8068,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8078,123 +8078,123 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Club Sportivo Ameliano</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>America MG</t>
+          <t>Guarani (Par)</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="H57" t="n">
-        <v>4.4</v>
+        <v>2.32</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>2.56</v>
       </c>
       <c r="J57" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L57" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M57" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>2.84</v>
+        <v>3.05</v>
       </c>
       <c r="O57" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="P57" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q57" t="n">
         <v>2.14</v>
       </c>
       <c r="R57" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S57" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="T57" t="n">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="U57" t="n">
-        <v>1.81</v>
+        <v>1.97</v>
       </c>
       <c r="V57" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="W57" t="n">
-        <v>1.92</v>
+        <v>1.36</v>
       </c>
       <c r="X57" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Y57" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z57" t="n">
-        <v>36</v>
+        <v>15.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH57" t="n">
         <v>20</v>
       </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>24</v>
-      </c>
       <c r="AI57" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM57" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="AN57" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
         <v>1000</v>
@@ -8203,7 +8203,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,120 +8213,120 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>18:30:00</t>
+          <t>18:10:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Vila Nova</t>
+          <t>Alianza FC Valledupar</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Amazonas FC</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.84</v>
+        <v>2.54</v>
       </c>
       <c r="G58" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J58" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U58" t="n">
         <v>1.96</v>
       </c>
-      <c r="H58" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R58" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.71</v>
-      </c>
       <c r="V58" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="W58" t="n">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="X58" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z58" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AA58" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AC58" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD58" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AE58" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF58" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AG58" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AH58" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM58" t="n">
         <v>150</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>270</v>
       </c>
       <c r="AN58" t="n">
         <v>1000</v>
@@ -8338,7 +8338,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,132 +8348,132 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>19:15:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Vila Nova</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sarmiento de Junin</t>
+          <t>Amazonas FC</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.44</v>
+        <v>1.88</v>
       </c>
       <c r="G59" t="n">
-        <v>1.46</v>
+        <v>1.99</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>5.1</v>
       </c>
       <c r="I59" t="n">
-        <v>11.5</v>
+        <v>5.9</v>
       </c>
       <c r="J59" t="n">
-        <v>4.6</v>
+        <v>3.15</v>
       </c>
       <c r="K59" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="O59" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.1</v>
+        <v>2.56</v>
       </c>
       <c r="R59" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="S59" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="T59" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="U59" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="V59" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="W59" t="n">
-        <v>3.15</v>
+        <v>2</v>
       </c>
       <c r="X59" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Y59" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Z59" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AA59" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="AB59" t="n">
         <v>6.4</v>
       </c>
       <c r="AC59" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD59" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AE59" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AF59" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AG59" t="n">
         <v>11</v>
       </c>
       <c r="AH59" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI59" t="n">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="AJ59" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AK59" t="n">
-        <v>18.5</v>
+        <v>30</v>
       </c>
       <c r="AL59" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="AN59" t="n">
-        <v>9.199999999999999</v>
+        <v>27</v>
       </c>
       <c r="AO59" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Brazilian Serie B</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8483,123 +8483,123 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>18:30:00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Nacional (Par)</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.61</v>
+        <v>1.98</v>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="I60" t="n">
-        <v>8.199999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="K60" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M60" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>1.83</v>
+        <v>2.84</v>
       </c>
       <c r="O60" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="P60" t="n">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>2.32</v>
       </c>
       <c r="R60" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="S60" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="T60" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="U60" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="V60" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="X60" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD60" t="n">
         <v>20</v>
       </c>
-      <c r="Y60" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z60" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>36</v>
-      </c>
       <c r="AE60" t="n">
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ60" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK60" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL60" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN60" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AO60" t="n">
         <v>1000</v>
@@ -8608,7 +8608,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>US MLS</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,132 +8618,132 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:15:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Los Angeles FC</t>
+          <t>Sarmiento de Junin</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3</v>
+        <v>1.44</v>
       </c>
       <c r="G61" t="n">
-        <v>3.1</v>
+        <v>1.46</v>
       </c>
       <c r="H61" t="n">
-        <v>2.52</v>
+        <v>10</v>
       </c>
       <c r="I61" t="n">
-        <v>2.58</v>
+        <v>11.5</v>
       </c>
       <c r="J61" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="K61" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L61" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="O61" t="n">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="P61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q61" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q61" t="n">
-        <v>1.81</v>
-      </c>
       <c r="R61" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="T61" t="n">
-        <v>1.66</v>
+        <v>2.4</v>
       </c>
       <c r="U61" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="V61" t="n">
-        <v>1.63</v>
+        <v>1.1</v>
       </c>
       <c r="W61" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="X61" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="Y61" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="Z61" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="AA61" t="n">
-        <v>38</v>
+        <v>500</v>
       </c>
       <c r="AB61" t="n">
-        <v>14</v>
+        <v>6.4</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE61" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>48</v>
-      </c>
       <c r="AK61" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AL61" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM61" t="n">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AN61" t="n">
-        <v>25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO61" t="n">
-        <v>19</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8753,123 +8753,123 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Atletico Bucaramanga</t>
+          <t>Nacional (Par)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Union Magdalena</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="G62" t="n">
-        <v>1.46</v>
+        <v>1.75</v>
       </c>
       <c r="H62" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="I62" t="n">
-        <v>17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K62" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L62" t="n">
         <v>1.01</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P62" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R62" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S62" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T62" t="n">
-        <v>2.24</v>
+        <v>1.96</v>
       </c>
       <c r="U62" t="n">
-        <v>1.47</v>
+        <v>1.84</v>
       </c>
       <c r="V62" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="W62" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="X62" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y62" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB62" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC62" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD62" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF62" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ62" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK62" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL62" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN62" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AO62" t="n">
         <v>1000</v>
@@ -8878,7 +8878,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Brazilian Serie B</t>
+          <t>US MLS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8888,132 +8888,132 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Los Angeles FC</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>2.64</v>
+        <v>3.15</v>
       </c>
       <c r="H63" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="I63" t="n">
-        <v>3.85</v>
+        <v>2.54</v>
       </c>
       <c r="J63" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S63" t="n">
         <v>3</v>
       </c>
-      <c r="K63" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N63" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P63" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R63" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S63" t="n">
-        <v>5.3</v>
-      </c>
       <c r="T63" t="n">
-        <v>2.08</v>
+        <v>1.66</v>
       </c>
       <c r="U63" t="n">
-        <v>1.75</v>
+        <v>2.36</v>
       </c>
       <c r="V63" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="W63" t="n">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="X63" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB63" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC63" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD63" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF63" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG63" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ63" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK63" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL63" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN63" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9023,260 +9023,530 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CA Independiente</t>
+          <t>Atletico Bucaramanga</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Lanus</t>
+          <t>Union Magdalena</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.16</v>
+        <v>1.46</v>
       </c>
       <c r="G64" t="n">
-        <v>2.32</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
-        <v>4.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>12.5</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="K64" t="n">
-        <v>3.15</v>
+        <v>4.8</v>
       </c>
       <c r="L64" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="M64" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="N64" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="O64" t="n">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="P64" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="Q64" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S64" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="T64" t="n">
         <v>2.4</v>
       </c>
       <c r="U64" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="V64" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="W64" t="n">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="X64" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Y64" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z64" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AA64" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC64" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE64" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>12</v>
+        <v>7.2</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI64" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL64" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM64" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO64" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>Brazilian Serie B</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Cuiaba</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>21:15:00</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CA Independiente</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Lanus</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H66" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S66" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X66" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>360</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>2025-10-12</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>22:30:00</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>Aguilas Doradas</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Deportivo Pasto</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F67" t="n">
         <v>1.71</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G67" t="n">
         <v>1.81</v>
       </c>
-      <c r="H65" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="H67" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I67" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J67" t="n">
         <v>3</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K67" t="n">
         <v>3.75</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L67" t="n">
         <v>1.01</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M67" t="n">
         <v>1.1</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N67" t="n">
         <v>2.68</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O67" t="n">
         <v>1.5</v>
       </c>
-      <c r="P65" t="n">
+      <c r="P67" t="n">
         <v>1.55</v>
       </c>
-      <c r="Q65" t="n">
+      <c r="Q67" t="n">
         <v>2.54</v>
       </c>
-      <c r="R65" t="n">
+      <c r="R67" t="n">
         <v>1.2</v>
       </c>
-      <c r="S65" t="n">
+      <c r="S67" t="n">
         <v>5.1</v>
       </c>
-      <c r="T65" t="n">
+      <c r="T67" t="n">
         <v>2.1</v>
       </c>
-      <c r="U65" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V65" t="n">
+      <c r="U67" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V67" t="n">
         <v>1.16</v>
       </c>
-      <c r="W65" t="n">
+      <c r="W67" t="n">
         <v>2.16</v>
       </c>
-      <c r="X65" t="n">
+      <c r="X67" t="n">
         <v>11</v>
       </c>
-      <c r="Y65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB65" t="n">
+      <c r="Y67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB67" t="n">
         <v>7</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AC67" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE65" t="n">
+      <c r="AD67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE67" t="n">
         <v>180</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AF67" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AG67" t="n">
         <v>13.5</v>
       </c>
-      <c r="AH65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI65" t="n">
+      <c r="AH67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI67" t="n">
         <v>190</v>
       </c>
-      <c r="AJ65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO65" t="n">
+      <c r="AJ67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO67" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-10-12.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.34</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.48</v>
@@ -691,85 +691,85 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.06</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.02</v>
       </c>
       <c r="V2" t="n">
         <v>1.39</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>55</v>
@@ -802,64 +802,64 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H3" t="n">
         <v>5.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R3" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T3" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W3" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,25 +868,25 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,79 +937,79 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.34</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="W4" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,7 +1018,7 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U5" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V5" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="W5" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO5" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H6" t="n">
         <v>4.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.45</v>
@@ -1231,25 +1231,25 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U6" t="n">
         <v>1.96</v>
@@ -1258,13 +1258,13 @@
         <v>1.21</v>
       </c>
       <c r="W6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,34 +1273,34 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="G7" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="H7" t="n">
-        <v>16.5</v>
+        <v>1.03</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>1.03</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1366,85 +1366,85 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.56</v>
       </c>
-      <c r="T7" t="n">
-        <v>2.3</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W7" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>19.5</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AH7" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM7" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,97 +1477,97 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="G8" t="n">
-        <v>2.94</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
-        <v>2.66</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.43</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.48</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="X8" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
         <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="AE8" t="n">
         <v>980</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
         <v>980</v>
@@ -1576,7 +1576,7 @@
         <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>980</v>
@@ -1612,67 +1612,67 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
         <v>2.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>4.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.34</v>
       </c>
       <c r="V9" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="n">
         <v>25</v>
       </c>
       <c r="Z9" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
         <v>980</v>
@@ -1684,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
         <v>980</v>
@@ -1693,7 +1693,7 @@
         <v>980</v>
       </c>
       <c r="AG9" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
         <v>60</v>
@@ -1717,7 +1717,7 @@
         <v>980</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="G10" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
@@ -1759,7 +1759,7 @@
         <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K10" t="n">
         <v>3.35</v>
@@ -1768,52 +1768,52 @@
         <v>1.55</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
         <v>2.48</v>
       </c>
       <c r="R10" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
         <v>5.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V10" t="n">
         <v>1.4</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1825,7 +1825,7 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
         <v>13.5</v>
@@ -1834,25 +1834,25 @@
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ10" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="n">
         <v>40</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>44</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -1885,61 +1885,61 @@
         <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
         <v>3.55</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U11" t="n">
         <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W11" t="n">
         <v>1.36</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1948,10 +1948,10 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1960,7 +1960,7 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
@@ -1972,7 +1972,7 @@
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>2.78</v>
       </c>
       <c r="O12" t="n">
         <v>1.45</v>
@@ -2050,13 +2050,13 @@
         <v>1.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>1.22</v>
       </c>
       <c r="S12" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
         <v>2.06</v>
@@ -2068,7 +2068,7 @@
         <v>1.21</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2086,7 +2086,7 @@
         <v>7.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2098,7 +2098,7 @@
         <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
@@ -2179,16 +2179,16 @@
         <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
         <v>1.05</v>
@@ -2200,10 +2200,10 @@
         <v>1.03</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2305,19 +2305,19 @@
         <v>6.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.12</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
         <v>1.37</v>
@@ -2326,13 +2326,13 @@
         <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="T14" t="n">
         <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="H15" t="n">
-        <v>1.73</v>
+        <v>1.45</v>
       </c>
       <c r="I15" t="n">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>2.24</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>980</v>
       </c>
       <c r="L15" t="n">
         <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>3.35</v>
+        <v>1.81</v>
       </c>
       <c r="O15" t="n">
         <v>1.28</v>
       </c>
       <c r="P15" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="R15" t="n">
-        <v>1.36</v>
+        <v>1.12</v>
       </c>
       <c r="S15" t="n">
-        <v>2.8</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>1.75</v>
+        <v>1.03</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>1.03</v>
       </c>
       <c r="V15" t="n">
-        <v>2.04</v>
+        <v>1.63</v>
       </c>
       <c r="W15" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2491,7 +2491,7 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2557,100 +2557,100 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>600</v>
+        <v>3.55</v>
       </c>
       <c r="H16" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="J16" t="n">
-        <v>2.26</v>
+        <v>2.96</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>1.11</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>1.22</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="R16" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>1.05</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.03</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.03</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ16" t="n">
         <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL16" t="n">
         <v>1000</v>
@@ -2692,46 +2692,46 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
         <v>1.28</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
         <v>1.84</v>
@@ -2740,7 +2740,7 @@
         <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="W17" t="n">
         <v>1.38</v>
@@ -2764,7 +2764,7 @@
         <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.02</v>
+        <v>2.4</v>
       </c>
       <c r="G18" t="n">
-        <v>980</v>
+        <v>2.96</v>
       </c>
       <c r="H18" t="n">
-        <v>1.21</v>
+        <v>2.96</v>
       </c>
       <c r="I18" t="n">
-        <v>980</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.21</v>
+        <v>2.78</v>
       </c>
       <c r="K18" t="n">
-        <v>980</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="S18" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="T18" t="n">
         <v>1.03</v>
@@ -2875,7 +2875,7 @@
         <v>1.03</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="W18" t="n">
         <v>1.2</v>
@@ -2896,7 +2896,7 @@
         <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD18" t="n">
         <v>1000</v>
@@ -2965,16 +2965,16 @@
         <v>2.1</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H19" t="n">
         <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.8</v>
@@ -2986,49 +2986,49 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O19" t="n">
         <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R19" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S19" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T19" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V19" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X19" t="n">
-        <v>28</v>
+        <v>15.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="n">
         <v>90</v>
       </c>
       <c r="AB19" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3037,10 +3037,10 @@
         <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
@@ -3055,16 +3055,16 @@
         <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>60</v>
@@ -3097,58 +3097,58 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="G20" t="n">
-        <v>980</v>
+        <v>2.44</v>
       </c>
       <c r="H20" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
       <c r="J20" t="n">
-        <v>1.82</v>
+        <v>2.68</v>
       </c>
       <c r="K20" t="n">
-        <v>980</v>
+        <v>3.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>1.11</v>
+        <v>2.54</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="P20" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.05</v>
+        <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.03</v>
+        <v>1.98</v>
       </c>
       <c r="U20" t="n">
-        <v>1.03</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="W20" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3163,10 +3163,10 @@
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3232,100 +3232,100 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>2.66</v>
       </c>
       <c r="G21" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>1.86</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z21" t="n">
         <v>20</v>
       </c>
-      <c r="J21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>6</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X21" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL21" t="n">
         <v>1000</v>
@@ -3334,10 +3334,10 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J22" t="n">
         <v>4.4</v>
       </c>
-      <c r="G22" t="n">
+      <c r="K22" t="n">
         <v>5.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.22</v>
@@ -3391,7 +3391,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.12</v>
@@ -3400,40 +3400,40 @@
         <v>3.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S22" t="n">
         <v>1.94</v>
       </c>
       <c r="T22" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="U22" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V22" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="W22" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Y22" t="n">
         <v>17.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
         <v>22</v>
       </c>
       <c r="AB22" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC22" t="n">
         <v>13</v>
@@ -3448,13 +3448,13 @@
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="n">
         <v>1000</v>
@@ -3463,16 +3463,16 @@
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G23" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H23" t="n">
         <v>2.18</v>
       </c>
       <c r="I23" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J23" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="K23" t="n">
         <v>950</v>
@@ -3529,7 +3529,7 @@
         <v>1.11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P23" t="n">
         <v>1.1</v>
@@ -3541,7 +3541,7 @@
         <v>1.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="T23" t="n">
         <v>1.03</v>
@@ -3637,46 +3637,46 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G24" t="n">
         <v>2.14</v>
       </c>
       <c r="H24" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="I24" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
         <v>3.25</v>
       </c>
       <c r="O24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q24" t="n">
         <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T24" t="n">
         <v>1.86</v>
@@ -3688,10 +3688,10 @@
         <v>1.26</v>
       </c>
       <c r="W24" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>15</v>
@@ -3703,37 +3703,37 @@
         <v>530</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE24" t="n">
         <v>220</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
         <v>300</v>
       </c>
       <c r="AJ24" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AK24" t="n">
         <v>60</v>
       </c>
       <c r="AL24" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AM24" t="n">
         <v>580</v>
@@ -3742,7 +3742,7 @@
         <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>75</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
@@ -3772,61 +3772,61 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="G25" t="n">
         <v>2.74</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
         <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P25" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
         <v>1.58</v>
       </c>
       <c r="X25" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="Y25" t="n">
         <v>980</v>
@@ -3841,7 +3841,7 @@
         <v>11</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
         <v>980</v>
@@ -3850,7 +3850,7 @@
         <v>240</v>
       </c>
       <c r="AF25" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
@@ -3871,13 +3871,13 @@
         <v>200</v>
       </c>
       <c r="AM25" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO25" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -3907,13 +3907,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="n">
         <v>2.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
         <v>4.7</v>
@@ -3925,28 +3925,28 @@
         <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>1.11</v>
+        <v>2.84</v>
       </c>
       <c r="O26" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
       </c>
       <c r="S26" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
         <v>1.97</v>
@@ -3991,16 +3991,16 @@
         <v>11.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AJ26" t="n">
         <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>23</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
@@ -4048,7 +4048,7 @@
         <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="I27" t="n">
         <v>2.56</v>
@@ -4057,37 +4057,37 @@
         <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="P27" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U27" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
         <v>1.64</v>
@@ -4096,10 +4096,10 @@
         <v>1.37</v>
       </c>
       <c r="X27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>15</v>
@@ -4111,13 +4111,13 @@
         <v>12</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD27" t="n">
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AF27" t="n">
         <v>70</v>
@@ -4126,13 +4126,13 @@
         <v>15.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
         <v>980</v>
       </c>
       <c r="AJ27" t="n">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AK27" t="n">
         <v>980</v>
@@ -4144,10 +4144,10 @@
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
@@ -4177,61 +4177,61 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="G28" t="n">
-        <v>2.84</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>20</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.09</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>1.94</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="U28" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="W28" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="X28" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="Y28" t="n">
         <v>1000</v>
@@ -4240,13 +4240,13 @@
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB28" t="n">
         <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4273,7 +4273,7 @@
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
@@ -4318,25 +4318,25 @@
         <v>1.87</v>
       </c>
       <c r="H29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.26</v>
@@ -4345,22 +4345,22 @@
         <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="S29" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="T29" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U29" t="n">
         <v>2.16</v>
       </c>
       <c r="V29" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W29" t="n">
         <v>2.14</v>
@@ -4378,31 +4378,31 @@
         <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
         <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI29" t="n">
         <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
         <v>1000</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4450,10 +4450,10 @@
         <v>1.74</v>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H30" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I30" t="n">
         <v>4.6</v>
@@ -4465,28 +4465,28 @@
         <v>5.1</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="Q30" t="n">
         <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S30" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="T30" t="n">
         <v>1.45</v>
@@ -4498,10 +4498,10 @@
         <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X30" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Y30" t="n">
         <v>36</v>
@@ -4516,13 +4516,13 @@
         <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
         <v>18.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF30" t="n">
         <v>17.5</v>
@@ -4534,7 +4534,7 @@
         <v>15.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="n">
         <v>26</v>
@@ -4552,7 +4552,7 @@
         <v>6.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -4582,58 +4582,58 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="G31" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="H31" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="I31" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>980</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M31" t="n">
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O31" t="n">
         <v>1.11</v>
       </c>
-      <c r="O31" t="n">
-        <v>1.09</v>
-      </c>
       <c r="P31" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.09</v>
+        <v>1.35</v>
       </c>
       <c r="R31" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="T31" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="U31" t="n">
-        <v>1.03</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="W31" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4663,10 +4663,10 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4684,10 +4684,10 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="32">
@@ -4717,31 +4717,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="H32" t="n">
         <v>4.7</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L32" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -4750,13 +4750,13 @@
         <v>1.67</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R32" t="n">
         <v>1.24</v>
       </c>
       <c r="S32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T32" t="n">
         <v>2.02</v>
@@ -4765,10 +4765,10 @@
         <v>1.81</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="X32" t="n">
         <v>11.5</v>
@@ -4783,10 +4783,10 @@
         <v>160</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>21</v>
@@ -4798,7 +4798,7 @@
         <v>11.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
         <v>24</v>
@@ -4807,7 +4807,7 @@
         <v>350</v>
       </c>
       <c r="AJ32" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AK32" t="n">
         <v>70</v>
@@ -4819,10 +4819,10 @@
         <v>580</v>
       </c>
       <c r="AN32" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>140</v>
+        <v>600</v>
       </c>
     </row>
     <row r="33">
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H33" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>2.9</v>
+        <v>3.55</v>
       </c>
       <c r="K33" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -4882,16 +4882,16 @@
         <v>1.16</v>
       </c>
       <c r="P33" t="n">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.16</v>
+        <v>1.49</v>
       </c>
       <c r="R33" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="T33" t="n">
         <v>1.03</v>
@@ -4900,10 +4900,10 @@
         <v>1.03</v>
       </c>
       <c r="V33" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W33" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4987,25 +4987,25 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
         <v>3.35</v>
       </c>
       <c r="H34" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="I34" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K34" t="n">
         <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -5014,28 +5014,28 @@
         <v>3.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S34" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T34" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="U34" t="n">
         <v>2.16</v>
       </c>
       <c r="V34" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="W34" t="n">
         <v>1.43</v>
@@ -5056,7 +5056,7 @@
         <v>15.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD34" t="n">
         <v>12.5</v>
@@ -5089,7 +5089,7 @@
         <v>580</v>
       </c>
       <c r="AN34" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
         <v>22</v>
@@ -5128,10 +5128,10 @@
         <v>2.66</v>
       </c>
       <c r="H35" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5146,13 +5146,13 @@
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
       </c>
       <c r="P35" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q35" t="n">
         <v>2</v>
@@ -5167,7 +5167,7 @@
         <v>1.76</v>
       </c>
       <c r="U35" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V35" t="n">
         <v>1.48</v>
@@ -5176,7 +5176,7 @@
         <v>1.6</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y35" t="n">
         <v>12.5</v>
@@ -5200,7 +5200,7 @@
         <v>36</v>
       </c>
       <c r="AF35" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5218,16 +5218,16 @@
         <v>28</v>
       </c>
       <c r="AL35" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
         <v>95</v>
       </c>
       <c r="AN35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -5257,31 +5257,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H36" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.8</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.85</v>
       </c>
       <c r="J36" t="n">
         <v>3.55</v>
       </c>
       <c r="K36" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
         <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O36" t="n">
         <v>1.25</v>
@@ -5290,13 +5290,13 @@
         <v>2.26</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R36" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S36" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T36" t="n">
         <v>1.64</v>
@@ -5308,28 +5308,28 @@
         <v>1.35</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="X36" t="n">
         <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA36" t="n">
-        <v>70</v>
+        <v>530</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
         <v>40</v>
@@ -5341,10 +5341,10 @@
         <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ36" t="n">
         <v>27</v>
@@ -5359,10 +5359,10 @@
         <v>65</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
@@ -5395,19 +5395,19 @@
         <v>1.49</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>2.46</v>
       </c>
       <c r="H37" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="I37" t="n">
         <v>1000</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="K37" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,19 +5416,19 @@
         <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="O37" t="n">
         <v>1.01</v>
       </c>
       <c r="P37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Q37" t="n">
         <v>1.28</v>
       </c>
       <c r="R37" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="S37" t="n">
         <v>1.28</v>
@@ -5443,7 +5443,7 @@
         <v>1.15</v>
       </c>
       <c r="W37" t="n">
-        <v>1.33</v>
+        <v>1.68</v>
       </c>
       <c r="X37" t="n">
         <v>1000</v>
@@ -5461,7 +5461,7 @@
         <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD37" t="n">
         <v>1000</v>
@@ -5494,7 +5494,7 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5527,61 +5527,61 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="G38" t="n">
-        <v>2.34</v>
+        <v>2.16</v>
       </c>
       <c r="H38" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="I38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K38" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T38" t="n">
         <v>2.06</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.03</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="X38" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="Y38" t="n">
         <v>1000</v>
@@ -5593,10 +5593,10 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD38" t="n">
         <v>1000</v>
@@ -5605,7 +5605,7 @@
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG38" t="n">
         <v>1000</v>
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G39" t="n">
         <v>2.28</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J39" t="n">
         <v>3.75</v>
@@ -5680,37 +5680,37 @@
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.26</v>
       </c>
       <c r="P39" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R39" t="n">
         <v>1.46</v>
       </c>
       <c r="S39" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="T39" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U39" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="V39" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
         <v>1.78</v>
@@ -5728,7 +5728,7 @@
         <v>1000</v>
       </c>
       <c r="AB39" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>19.5</v>
@@ -5743,10 +5743,10 @@
         <v>18</v>
       </c>
       <c r="AG39" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH39" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
         <v>1000</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="G40" t="n">
         <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I40" t="n">
         <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>2.52</v>
+        <v>2.74</v>
       </c>
       <c r="K40" t="n">
         <v>3.85</v>
@@ -5821,22 +5821,22 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="O40" t="n">
         <v>1.01</v>
       </c>
       <c r="P40" t="n">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="Q40" t="n">
         <v>1.36</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S40" t="n">
-        <v>1.41</v>
+        <v>1.05</v>
       </c>
       <c r="T40" t="n">
         <v>1.03</v>
@@ -5848,7 +5848,7 @@
         <v>1.19</v>
       </c>
       <c r="W40" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="X40" t="n">
         <v>1000</v>
@@ -5935,22 +5935,22 @@
         <v>1.37</v>
       </c>
       <c r="G41" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="K41" t="n">
-        <v>15.5</v>
+        <v>500</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
@@ -5965,7 +5965,7 @@
         <v>2.04</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R41" t="n">
         <v>1.38</v>
@@ -5983,7 +5983,7 @@
         <v>1.07</v>
       </c>
       <c r="W41" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6070,49 +6070,49 @@
         <v>2.88</v>
       </c>
       <c r="G42" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H42" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I42" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>3.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
       </c>
       <c r="P42" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q42" t="n">
         <v>2.06</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
         <v>1.79</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V42" t="n">
         <v>1.54</v>
@@ -6121,25 +6121,25 @@
         <v>1.43</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y42" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z42" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AA42" t="n">
         <v>1000</v>
       </c>
       <c r="AB42" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AC42" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AE42" t="n">
         <v>1000</v>
@@ -6148,7 +6148,7 @@
         <v>1000</v>
       </c>
       <c r="AG42" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH42" t="n">
         <v>60</v>
@@ -6211,52 +6211,52 @@
         <v>15</v>
       </c>
       <c r="I43" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J43" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="K43" t="n">
         <v>5.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="n">
         <v>1.35</v>
       </c>
       <c r="P43" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T43" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="U43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="V43" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W43" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="X43" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Y43" t="n">
         <v>85</v>
@@ -6271,7 +6271,7 @@
         <v>6.4</v>
       </c>
       <c r="AC43" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
         <v>230</v>
@@ -6283,7 +6283,7 @@
         <v>7.4</v>
       </c>
       <c r="AG43" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>190</v>
@@ -6304,7 +6304,7 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6337,25 +6337,25 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G44" t="n">
         <v>1.78</v>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I44" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M44" t="n">
         <v>1.09</v>
@@ -6373,19 +6373,19 @@
         <v>2.24</v>
       </c>
       <c r="R44" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S44" t="n">
         <v>4.3</v>
       </c>
       <c r="T44" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U44" t="n">
         <v>1.72</v>
       </c>
       <c r="V44" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W44" t="n">
         <v>2.28</v>
@@ -6403,19 +6403,19 @@
         <v>1000</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC44" t="n">
         <v>10.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG44" t="n">
         <v>12.5</v>
@@ -6427,7 +6427,7 @@
         <v>1000</v>
       </c>
       <c r="AJ44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
         <v>23</v>
@@ -6478,7 +6478,7 @@
         <v>1.37</v>
       </c>
       <c r="H45" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
         <v>17.5</v>
@@ -6490,13 +6490,13 @@
         <v>6.4</v>
       </c>
       <c r="L45" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O45" t="n">
         <v>1.26</v>
@@ -6505,13 +6505,13 @@
         <v>2.08</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R45" t="n">
         <v>1.43</v>
       </c>
       <c r="S45" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="T45" t="n">
         <v>2.26</v>
@@ -6526,7 +6526,7 @@
         <v>3.7</v>
       </c>
       <c r="X45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
         <v>1000</v>
@@ -6553,7 +6553,7 @@
         <v>7.8</v>
       </c>
       <c r="AG45" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AH45" t="n">
         <v>1000</v>
@@ -6574,7 +6574,7 @@
         <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="AO45" t="n">
         <v>1000</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G46" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H46" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="I46" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J46" t="n">
         <v>3.1</v>
@@ -6625,46 +6625,46 @@
         <v>3.5</v>
       </c>
       <c r="L46" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="O46" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="P46" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R46" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S46" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="T46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U46" t="n">
         <v>1.9</v>
       </c>
-      <c r="U46" t="n">
-        <v>1.87</v>
-      </c>
       <c r="V46" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="W46" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z46" t="n">
         <v>1000</v>
@@ -6676,7 +6676,7 @@
         <v>1000</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
@@ -6745,28 +6745,28 @@
         <v>1.74</v>
       </c>
       <c r="G47" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="I47" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J47" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K47" t="n">
         <v>3.9</v>
       </c>
       <c r="L47" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M47" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N47" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O47" t="n">
         <v>1.45</v>
@@ -6775,25 +6775,25 @@
         <v>1.66</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R47" t="n">
         <v>1.24</v>
       </c>
       <c r="S47" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T47" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V47" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W47" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="X47" t="n">
         <v>22</v>
@@ -6808,7 +6808,7 @@
         <v>1000</v>
       </c>
       <c r="AB47" t="n">
-        <v>12</v>
+        <v>6.6</v>
       </c>
       <c r="AC47" t="n">
         <v>14</v>
@@ -6820,19 +6820,19 @@
         <v>1000</v>
       </c>
       <c r="AF47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG47" t="n">
         <v>40</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AH47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>980</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>900</v>
       </c>
       <c r="AK47" t="n">
         <v>1000</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G48" t="n">
         <v>2.18</v>
@@ -6886,7 +6886,7 @@
         <v>4.4</v>
       </c>
       <c r="I48" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J48" t="n">
         <v>3.05</v>
@@ -6895,25 +6895,25 @@
         <v>3.15</v>
       </c>
       <c r="L48" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="M48" t="n">
         <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="O48" t="n">
         <v>1.6</v>
       </c>
       <c r="P48" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="R48" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
         <v>6</v>
@@ -6922,7 +6922,7 @@
         <v>2.24</v>
       </c>
       <c r="U48" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="V48" t="n">
         <v>1.27</v>
@@ -6931,19 +6931,19 @@
         <v>1.84</v>
       </c>
       <c r="X48" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Y48" t="n">
         <v>11.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AA48" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AB48" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC48" t="n">
         <v>7</v>
@@ -6952,37 +6952,37 @@
         <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG48" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH48" t="n">
         <v>28</v>
       </c>
       <c r="AI48" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="AJ48" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK48" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL48" t="n">
         <v>70</v>
       </c>
       <c r="AM48" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AN48" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AO48" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
@@ -7018,7 +7018,7 @@
         <v>2.72</v>
       </c>
       <c r="H49" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I49" t="n">
         <v>3.35</v>
@@ -7030,13 +7030,13 @@
         <v>3.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="M49" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N49" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O49" t="n">
         <v>1.59</v>
@@ -7045,7 +7045,7 @@
         <v>1.52</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R49" t="n">
         <v>1.18</v>
@@ -7069,7 +7069,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z49" t="n">
         <v>22</v>
@@ -7099,7 +7099,7 @@
         <v>25</v>
       </c>
       <c r="AI49" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ49" t="n">
         <v>48</v>
@@ -7117,7 +7117,7 @@
         <v>48</v>
       </c>
       <c r="AO49" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">
@@ -7147,46 +7147,46 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="I50" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="J50" t="n">
         <v>2.96</v>
       </c>
       <c r="K50" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="L50" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="M50" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="N50" t="n">
         <v>2.16</v>
       </c>
       <c r="O50" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="P50" t="n">
         <v>1.37</v>
       </c>
       <c r="Q50" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R50" t="n">
         <v>1.12</v>
       </c>
       <c r="S50" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="T50" t="n">
         <v>2.58</v>
@@ -7195,37 +7195,37 @@
         <v>1.56</v>
       </c>
       <c r="V50" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="W50" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X50" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y50" t="n">
         <v>6.2</v>
       </c>
       <c r="Z50" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA50" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AB50" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC50" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD50" t="n">
         <v>14</v>
       </c>
       <c r="AE50" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AF50" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG50" t="n">
         <v>21</v>
@@ -7240,16 +7240,16 @@
         <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL50" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="AM50" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AN50" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AO50" t="n">
         <v>55</v>
@@ -7282,46 +7282,46 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="G51" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I51" t="n">
         <v>9.4</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
         <v>5.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M51" t="n">
         <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="O51" t="n">
         <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R51" t="n">
         <v>1.37</v>
       </c>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="T51" t="n">
         <v>1.96</v>
@@ -7333,10 +7333,10 @@
         <v>1.12</v>
       </c>
       <c r="W51" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y51" t="n">
         <v>1000</v>
@@ -7348,10 +7348,10 @@
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AD51" t="n">
         <v>1000</v>
@@ -7360,10 +7360,10 @@
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH51" t="n">
         <v>1000</v>
@@ -7372,7 +7372,7 @@
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK51" t="n">
         <v>1000</v>
@@ -7384,7 +7384,7 @@
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G52" t="n">
         <v>2.58</v>
@@ -7435,28 +7435,28 @@
         <v>3.75</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M52" t="n">
         <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O52" t="n">
         <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R52" t="n">
         <v>1.27</v>
       </c>
       <c r="S52" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="T52" t="n">
         <v>1.8</v>
@@ -7468,61 +7468,61 @@
         <v>1.34</v>
       </c>
       <c r="W52" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="X52" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z52" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA52" t="n">
         <v>1000</v>
       </c>
       <c r="AB52" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC52" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AE52" t="n">
         <v>60</v>
       </c>
       <c r="AF52" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG52" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ52" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AK52" t="n">
         <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO52" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53">
@@ -7606,25 +7606,25 @@
         <v>1.56</v>
       </c>
       <c r="X53" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y53" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AA53" t="n">
         <v>60</v>
       </c>
       <c r="AB53" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD53" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE53" t="n">
         <v>40</v>
@@ -7633,28 +7633,28 @@
         <v>22</v>
       </c>
       <c r="AG53" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AJ53" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AK53" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AL53" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AM53" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN53" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO53" t="n">
         <v>32</v>
@@ -7693,7 +7693,7 @@
         <v>3.15</v>
       </c>
       <c r="H54" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I54" t="n">
         <v>2.88</v>
@@ -7705,7 +7705,7 @@
         <v>3.75</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M54" t="n">
         <v>1.07</v>
@@ -7726,7 +7726,7 @@
         <v>1.31</v>
       </c>
       <c r="S54" t="n">
-        <v>2.02</v>
+        <v>3.2</v>
       </c>
       <c r="T54" t="n">
         <v>1.76</v>
@@ -7741,7 +7741,7 @@
         <v>1.46</v>
       </c>
       <c r="X54" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y54" t="n">
         <v>1000</v>
@@ -7756,7 +7756,7 @@
         <v>1000</v>
       </c>
       <c r="AC54" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD54" t="n">
         <v>1000</v>
@@ -7822,31 +7822,31 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="G55" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H55" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="I55" t="n">
         <v>1.65</v>
       </c>
       <c r="J55" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K55" t="n">
         <v>4.6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M55" t="n">
         <v>1.07</v>
       </c>
       <c r="N55" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O55" t="n">
         <v>1.34</v>
@@ -7855,13 +7855,13 @@
         <v>1.84</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R55" t="n">
         <v>1.31</v>
       </c>
       <c r="S55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T55" t="n">
         <v>2.04</v>
@@ -7900,13 +7900,13 @@
         <v>19.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AH55" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="n">
         <v>1000</v>
@@ -7957,13 +7957,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="G56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I56" t="n">
         <v>2.42</v>
@@ -7981,7 +7981,7 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O56" t="n">
         <v>1.45</v>
@@ -7990,7 +7990,7 @@
         <v>1.69</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R56" t="n">
         <v>1.26</v>
@@ -7999,7 +7999,7 @@
         <v>4.5</v>
       </c>
       <c r="T56" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U56" t="n">
         <v>1.93</v>
@@ -8020,10 +8020,10 @@
         <v>14</v>
       </c>
       <c r="AA56" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AB56" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC56" t="n">
         <v>7</v>
@@ -8035,7 +8035,7 @@
         <v>30</v>
       </c>
       <c r="AF56" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AG56" t="n">
         <v>16.5</v>
@@ -8053,13 +8053,13 @@
         <v>55</v>
       </c>
       <c r="AL56" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AM56" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO56" t="n">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G57" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>6.8</v>
       </c>
       <c r="I57" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J57" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K57" t="n">
         <v>3.9</v>
       </c>
       <c r="L57" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O57" t="n">
         <v>1.42</v>
       </c>
       <c r="P57" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R57" t="n">
         <v>1.26</v>
       </c>
       <c r="S57" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T57" t="n">
         <v>1.98</v>
       </c>
       <c r="U57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V57" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W57" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="X57" t="n">
         <v>980</v>
@@ -8161,7 +8161,7 @@
         <v>7.8</v>
       </c>
       <c r="AC57" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AD57" t="n">
         <v>980</v>
@@ -8173,13 +8173,13 @@
         <v>10.5</v>
       </c>
       <c r="AG57" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AH57" t="n">
         <v>980</v>
       </c>
       <c r="AI57" t="n">
-        <v>140</v>
+        <v>450</v>
       </c>
       <c r="AJ57" t="n">
         <v>19.5</v>
@@ -8191,7 +8191,7 @@
         <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="AN57" t="n">
         <v>16.5</v>
@@ -8227,46 +8227,46 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="n">
         <v>5.2</v>
       </c>
-      <c r="I58" t="n">
-        <v>5.6</v>
-      </c>
       <c r="J58" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K58" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L58" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="M58" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N58" t="n">
         <v>2.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="P58" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="R58" t="n">
         <v>1.17</v>
       </c>
       <c r="S58" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="T58" t="n">
         <v>2.24</v>
@@ -8275,37 +8275,37 @@
         <v>1.67</v>
       </c>
       <c r="V58" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W58" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="X58" t="n">
-        <v>22</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y58" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z58" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA58" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB58" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC58" t="n">
-        <v>17</v>
+        <v>7.6</v>
       </c>
       <c r="AD58" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE58" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF58" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AG58" t="n">
         <v>11.5</v>
@@ -8314,13 +8314,13 @@
         <v>1000</v>
       </c>
       <c r="AI58" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="AJ58" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL58" t="n">
         <v>1000</v>
@@ -8332,7 +8332,7 @@
         <v>1000</v>
       </c>
       <c r="AO58" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G59" t="n">
         <v>4.3</v>
@@ -8374,19 +8374,19 @@
         <v>2.38</v>
       </c>
       <c r="J59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
         <v>3.65</v>
       </c>
       <c r="L59" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O59" t="n">
         <v>1.41</v>
@@ -8395,7 +8395,7 @@
         <v>1.69</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R59" t="n">
         <v>1.25</v>
@@ -8404,16 +8404,16 @@
         <v>4.1</v>
       </c>
       <c r="T59" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U59" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V59" t="n">
         <v>1.72</v>
       </c>
       <c r="W59" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X59" t="n">
         <v>12</v>
@@ -8425,7 +8425,7 @@
         <v>14</v>
       </c>
       <c r="AA59" t="n">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="AB59" t="n">
         <v>13</v>
@@ -8437,10 +8437,10 @@
         <v>12</v>
       </c>
       <c r="AE59" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AF59" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG59" t="n">
         <v>17</v>
@@ -8452,7 +8452,7 @@
         <v>1000</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="n">
         <v>1000</v>
@@ -8467,7 +8467,7 @@
         <v>1000</v>
       </c>
       <c r="AO59" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -8500,13 +8500,13 @@
         <v>2.18</v>
       </c>
       <c r="G60" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H60" t="n">
         <v>4.2</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J60" t="n">
         <v>3.2</v>
@@ -8515,37 +8515,37 @@
         <v>3.3</v>
       </c>
       <c r="L60" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="M60" t="n">
         <v>1.12</v>
       </c>
       <c r="N60" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="O60" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P60" t="n">
         <v>1.55</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R60" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S60" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="T60" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U60" t="n">
         <v>1.77</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W60" t="n">
         <v>1.81</v>
@@ -8554,7 +8554,7 @@
         <v>9</v>
       </c>
       <c r="Y60" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z60" t="n">
         <v>28</v>
@@ -8563,7 +8563,7 @@
         <v>110</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC60" t="n">
         <v>7.2</v>
@@ -8578,7 +8578,7 @@
         <v>12</v>
       </c>
       <c r="AG60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH60" t="n">
         <v>26</v>
@@ -8602,7 +8602,7 @@
         <v>30</v>
       </c>
       <c r="AO60" t="n">
-        <v>110</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G61" t="n">
         <v>2.36</v>
@@ -8641,31 +8641,31 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J61" t="n">
         <v>3</v>
       </c>
       <c r="K61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q61" t="n">
         <v>3.05</v>
-      </c>
-      <c r="L61" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N61" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P61" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>2.94</v>
       </c>
       <c r="R61" t="n">
         <v>1.15</v>
@@ -8674,25 +8674,25 @@
         <v>6.4</v>
       </c>
       <c r="T61" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="U61" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="V61" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W61" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X61" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y61" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z61" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AA61" t="n">
         <v>140</v>
@@ -8701,40 +8701,40 @@
         <v>6.8</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE61" t="n">
         <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="AG61" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="n">
-        <v>140</v>
+        <v>540</v>
       </c>
       <c r="AJ61" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AK61" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL61" t="n">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="n">
         <v>320</v>
       </c>
       <c r="AN61" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AO61" t="n">
         <v>1000</v>
@@ -8773,7 +8773,7 @@
         <v>1.92</v>
       </c>
       <c r="H62" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I62" t="n">
         <v>6.4</v>
@@ -8785,28 +8785,28 @@
         <v>3.95</v>
       </c>
       <c r="L62" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="O62" t="n">
         <v>1.42</v>
       </c>
       <c r="P62" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R62" t="n">
         <v>1.24</v>
       </c>
       <c r="S62" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T62" t="n">
         <v>2.02</v>
@@ -8920,7 +8920,7 @@
         <v>4.1</v>
       </c>
       <c r="L63" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M63" t="n">
         <v>1.05</v>
@@ -9001,7 +9001,7 @@
         <v>44</v>
       </c>
       <c r="AM63" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AN63" t="n">
         <v>23</v>
@@ -9037,16 +9037,16 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="G64" t="n">
         <v>3.75</v>
       </c>
       <c r="H64" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I64" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J64" t="n">
         <v>3.15</v>
@@ -9055,13 +9055,13 @@
         <v>3.45</v>
       </c>
       <c r="L64" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="n">
         <v>1.39</v>
@@ -9070,22 +9070,22 @@
         <v>1.71</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R64" t="n">
         <v>1.27</v>
       </c>
       <c r="S64" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T64" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U64" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V64" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="W64" t="n">
         <v>1.36</v>
@@ -9094,10 +9094,10 @@
         <v>14</v>
       </c>
       <c r="Y64" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="Z64" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA64" t="n">
         <v>1000</v>
@@ -9109,13 +9109,13 @@
         <v>7.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE64" t="n">
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AG64" t="n">
         <v>16</v>
@@ -9127,13 +9127,13 @@
         <v>1000</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK64" t="n">
         <v>1000</v>
       </c>
       <c r="AL64" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM64" t="n">
         <v>140</v>
@@ -9142,7 +9142,7 @@
         <v>1000</v>
       </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -9175,28 +9175,28 @@
         <v>2.78</v>
       </c>
       <c r="G65" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="H65" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I65" t="n">
         <v>3.15</v>
       </c>
       <c r="J65" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K65" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L65" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M65" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O65" t="n">
         <v>1.42</v>
@@ -9205,7 +9205,7 @@
         <v>1.69</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R65" t="n">
         <v>1.26</v>
@@ -9220,7 +9220,7 @@
         <v>1.98</v>
       </c>
       <c r="V65" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W65" t="n">
         <v>1.5</v>
@@ -9253,10 +9253,10 @@
         <v>980</v>
       </c>
       <c r="AG65" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AH65" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AI65" t="n">
         <v>1000</v>
@@ -9310,7 +9310,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H66" t="n">
         <v>4.3</v>
@@ -9322,31 +9322,31 @@
         <v>3.25</v>
       </c>
       <c r="K66" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L66" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M66" t="n">
         <v>1.1</v>
       </c>
       <c r="N66" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="O66" t="n">
         <v>1.45</v>
       </c>
       <c r="P66" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Q66" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R66" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S66" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T66" t="n">
         <v>2.04</v>
@@ -9355,13 +9355,13 @@
         <v>1.81</v>
       </c>
       <c r="V66" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W66" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X66" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y66" t="n">
         <v>13.5</v>
@@ -9379,7 +9379,7 @@
         <v>8</v>
       </c>
       <c r="AD66" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE66" t="n">
         <v>1000</v>
@@ -9394,13 +9394,13 @@
         <v>24</v>
       </c>
       <c r="AI66" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AJ66" t="n">
         <v>26</v>
       </c>
       <c r="AK66" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL66" t="n">
         <v>55</v>
@@ -9442,31 +9442,31 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="G67" t="n">
         <v>1.95</v>
       </c>
       <c r="H67" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I67" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L67" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M67" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N67" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="O67" t="n">
         <v>1.53</v>
@@ -9475,19 +9475,19 @@
         <v>1.55</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="R67" t="n">
         <v>1.2</v>
       </c>
       <c r="S67" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T67" t="n">
         <v>2.22</v>
       </c>
       <c r="U67" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V67" t="n">
         <v>1.21</v>
@@ -9496,10 +9496,10 @@
         <v>2.04</v>
       </c>
       <c r="X67" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="Y67" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z67" t="n">
         <v>50</v>
@@ -9514,13 +9514,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD67" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE67" t="n">
         <v>130</v>
       </c>
       <c r="AF67" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG67" t="n">
         <v>11</v>
@@ -9532,19 +9532,19 @@
         <v>150</v>
       </c>
       <c r="AJ67" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK67" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL67" t="n">
         <v>1000</v>
       </c>
       <c r="AM67" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="AN67" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO67" t="n">
         <v>1000</v>
@@ -9583,7 +9583,7 @@
         <v>1.47</v>
       </c>
       <c r="H68" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I68" t="n">
         <v>11</v>
@@ -9592,10 +9592,10 @@
         <v>4.6</v>
       </c>
       <c r="K68" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L68" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M68" t="n">
         <v>1.08</v>
@@ -9604,40 +9604,40 @@
         <v>3.45</v>
       </c>
       <c r="O68" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P68" t="n">
         <v>1.8</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R68" t="n">
         <v>1.3</v>
       </c>
       <c r="S68" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T68" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U68" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V68" t="n">
         <v>1.1</v>
       </c>
       <c r="W68" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X68" t="n">
         <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="Z68" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA68" t="n">
         <v>500</v>
@@ -9646,22 +9646,22 @@
         <v>6.4</v>
       </c>
       <c r="AC68" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD68" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE68" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AF68" t="n">
         <v>7.2</v>
       </c>
       <c r="AG68" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH68" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="AI68" t="n">
         <v>260</v>
@@ -9670,16 +9670,16 @@
         <v>11.5</v>
       </c>
       <c r="AK68" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL68" t="n">
-        <v>640</v>
+        <v>55</v>
       </c>
       <c r="AM68" t="n">
-        <v>340</v>
+        <v>270</v>
       </c>
       <c r="AN68" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO68" t="n">
         <v>430</v>
@@ -9721,7 +9721,7 @@
         <v>5.9</v>
       </c>
       <c r="I69" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J69" t="n">
         <v>3.9</v>
@@ -9730,22 +9730,22 @@
         <v>4.3</v>
       </c>
       <c r="L69" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
       </c>
       <c r="N69" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O69" t="n">
         <v>1.34</v>
       </c>
       <c r="P69" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R69" t="n">
         <v>1.31</v>
@@ -9754,19 +9754,19 @@
         <v>3.55</v>
       </c>
       <c r="T69" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U69" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="V69" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W69" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X69" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y69" t="n">
         <v>23</v>
@@ -9778,7 +9778,7 @@
         <v>230</v>
       </c>
       <c r="AB69" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC69" t="n">
         <v>11</v>
@@ -9802,7 +9802,7 @@
         <v>120</v>
       </c>
       <c r="AJ69" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK69" t="n">
         <v>23</v>
@@ -9856,7 +9856,7 @@
         <v>2.54</v>
       </c>
       <c r="I70" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J70" t="n">
         <v>3.6</v>
@@ -9865,19 +9865,19 @@
         <v>3.65</v>
       </c>
       <c r="L70" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O70" t="n">
         <v>1.27</v>
       </c>
       <c r="P70" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q70" t="n">
         <v>1.81</v>
@@ -9889,7 +9889,7 @@
         <v>3</v>
       </c>
       <c r="T70" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U70" t="n">
         <v>2.4</v>
@@ -9904,7 +9904,7 @@
         <v>17.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z70" t="n">
         <v>18</v>
@@ -9937,16 +9937,16 @@
         <v>36</v>
       </c>
       <c r="AJ70" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK70" t="n">
         <v>32</v>
       </c>
       <c r="AL70" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM70" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AN70" t="n">
         <v>25</v>
@@ -9991,7 +9991,7 @@
         <v>9</v>
       </c>
       <c r="I71" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J71" t="n">
         <v>4.3</v>
@@ -10000,31 +10000,31 @@
         <v>4.8</v>
       </c>
       <c r="L71" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M71" t="n">
         <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O71" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P71" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R71" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S71" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T71" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U71" t="n">
         <v>1.59</v>
@@ -10084,7 +10084,7 @@
         <v>1000</v>
       </c>
       <c r="AN71" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO71" t="n">
         <v>1000</v>
@@ -10117,46 +10117,46 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="G72" t="n">
         <v>2.66</v>
       </c>
       <c r="H72" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J72" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K72" t="n">
         <v>3.15</v>
       </c>
       <c r="L72" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M72" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N72" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="O72" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P72" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R72" t="n">
         <v>1.18</v>
       </c>
       <c r="S72" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="T72" t="n">
         <v>2.08</v>
@@ -10165,13 +10165,13 @@
         <v>1.75</v>
       </c>
       <c r="V72" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W72" t="n">
         <v>1.6</v>
       </c>
       <c r="X72" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="n">
         <v>1000</v>
@@ -10252,16 +10252,16 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="G73" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H73" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I73" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J73" t="n">
         <v>3</v>
@@ -10270,19 +10270,19 @@
         <v>3.1</v>
       </c>
       <c r="L73" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="M73" t="n">
         <v>1.16</v>
       </c>
       <c r="N73" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="O73" t="n">
         <v>1.69</v>
       </c>
       <c r="P73" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q73" t="n">
         <v>3.05</v>
@@ -10291,31 +10291,31 @@
         <v>1.14</v>
       </c>
       <c r="S73" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T73" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U73" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V73" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W73" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X73" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y73" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z73" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA73" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AB73" t="n">
         <v>6.2</v>
@@ -10324,10 +10324,10 @@
         <v>7.4</v>
       </c>
       <c r="AD73" t="n">
-        <v>980</v>
+        <v>20</v>
       </c>
       <c r="AE73" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF73" t="n">
         <v>12</v>
@@ -10348,7 +10348,7 @@
         <v>980</v>
       </c>
       <c r="AL73" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM73" t="n">
         <v>360</v>
@@ -10357,7 +10357,7 @@
         <v>980</v>
       </c>
       <c r="AO73" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74">
@@ -10387,37 +10387,37 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G74" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="H74" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="I74" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K74" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L74" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M74" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N74" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O74" t="n">
         <v>1.5</v>
       </c>
       <c r="P74" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q74" t="n">
         <v>2.54</v>
@@ -10429,7 +10429,7 @@
         <v>5.1</v>
       </c>
       <c r="T74" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U74" t="n">
         <v>1.58</v>
@@ -10438,7 +10438,7 @@
         <v>1.16</v>
       </c>
       <c r="W74" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
@@ -10453,19 +10453,19 @@
         <v>1000</v>
       </c>
       <c r="AB74" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC74" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD74" t="n">
         <v>1000</v>
       </c>
       <c r="AE74" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AF74" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG74" t="n">
         <v>13.5</v>
@@ -10474,7 +10474,7 @@
         <v>1000</v>
       </c>
       <c r="AI74" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AJ74" t="n">
         <v>1000</v>
@@ -10489,7 +10489,7 @@
         <v>1000</v>
       </c>
       <c r="AN74" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO74" t="n">
         <v>1000</v>
